--- a/Benchtop-2024(default-version)/parts-list/Benchtop-partslist-latest.xlsx
+++ b/Benchtop-2024(default-version)/parts-list/Benchtop-partslist-latest.xlsx
@@ -1,34 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nikita\Documents\GitHub\mesoSPIM-bt-hardware\Benchtop\parts-list\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jon\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0919671-C08F-4CC9-8898-EC2CD98BA8F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5FC7677-4B04-4702-B0F5-E0E4BF943654}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6948" yWindow="4176" windowWidth="34560" windowHeight="18684" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16080" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="Options" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -89,9 +78,6 @@
     <t>Sample &amp; Microscope Stages</t>
   </si>
   <si>
-    <t>Dual-LS100-FTP</t>
-  </si>
-  <si>
     <t>ASI</t>
   </si>
   <si>
@@ -116,9 +102,6 @@
     <t>Dovetail mount pair (VTS-2112 &amp; CDZ-1010) 60 x 62 x 10 mm overall dimensions.</t>
   </si>
   <si>
-    <t>LS-50S-AMECH</t>
-  </si>
-  <si>
     <t>LS-50 Linear Stage, with sub-micron accuracy, 50 mm of travel, and stainless steel slide</t>
   </si>
   <si>
@@ -135,12 +118,6 @@
   </si>
   <si>
     <t>TG8-BASIC</t>
-  </si>
-  <si>
-    <t>TGDCM2</t>
-  </si>
-  <si>
-    <t>Dual Axis motion control card - one slot</t>
   </si>
   <si>
     <t>Computer</t>
@@ -1418,9 +1395,6 @@
     <t>TG8-MESOSPIM-K1</t>
   </si>
   <si>
-    <t>The controller bundle offered by ASI</t>
-  </si>
-  <si>
     <t>Price (USD)</t>
   </si>
   <si>
@@ -1824,9 +1798,6 @@
   </si>
   <si>
     <t>MESOS-MACH-K1</t>
-  </si>
-  <si>
-    <t>kit of metal machined parts for benchtop mesoSPIM</t>
   </si>
   <si>
     <t>Sample motion and Excitation</t>
@@ -1927,6 +1898,24 @@
   </si>
   <si>
     <t>Connection of theta-stage chuck to the sample holder. Use M6 bolt in the chuck to connect</t>
+  </si>
+  <si>
+    <t>Dual-LS100-FTP-K0</t>
+  </si>
+  <si>
+    <t>LS-50S-AMECHS</t>
+  </si>
+  <si>
+    <t>TGDCM2-1RE</t>
+  </si>
+  <si>
+    <t>Dual Axis motion control card - one slot.  Modified for 2nd axis always rotary encoded.</t>
+  </si>
+  <si>
+    <t>The controller bundle offered by ASI (Jon Daniels &lt;jon@asiimaging.com&gt;)</t>
+  </si>
+  <si>
+    <t>kit of metal machined parts for benchtop mesoSPIM offered by ASI (Jon Daniels &lt;jon@asiimaging.com&gt;)</t>
   </si>
 </sst>
 </file>
@@ -2394,9 +2383,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2434,7 +2423,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2540,7 +2529,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2682,7 +2671,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2692,33 +2681,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="42.5546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="24.109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="81.77734375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="6.44140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="11.21875" style="56" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" style="56" customWidth="1"/>
-    <col min="7" max="7" width="17.6640625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="42.5703125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="81.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="6.42578125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" style="56" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" style="56" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" style="3" customWidth="1"/>
     <col min="8" max="8" width="24" style="3" customWidth="1"/>
-    <col min="9" max="9" width="69.33203125" style="3" customWidth="1"/>
-    <col min="10" max="10" width="21.109375" style="3" customWidth="1"/>
-    <col min="11" max="16384" width="8.6640625" style="3"/>
+    <col min="9" max="9" width="69.28515625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="21.140625" style="3" customWidth="1"/>
+    <col min="11" max="16384" width="8.7109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="69" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="E1" s="70"/>
       <c r="F1" s="70"/>
     </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2732,10 +2719,10 @@
         <v>3</v>
       </c>
       <c r="E2" s="55" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="F2" s="55" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>6</v>
@@ -2747,14 +2734,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="6" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" s="6" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="57"/>
       <c r="F3" s="57"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
@@ -2775,38 +2762,38 @@
         <v>15000</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
       <c r="E5" s="58"/>
     </row>
-    <row r="6" spans="1:9" s="6" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" s="6" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E6" s="57"/>
       <c r="F6" s="57"/>
     </row>
-    <row r="7" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E7" s="57"/>
       <c r="F7" s="57"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D8" s="3">
         <v>1</v>
@@ -2819,28 +2806,28 @@
         <v>25000</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" s="6" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="6" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E9" s="57"/>
       <c r="F9" s="57"/>
     </row>
-    <row r="10" spans="1:9" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" s="29" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="29" t="s">
+        <v>598</v>
+      </c>
+      <c r="B10" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="29" t="s">
-        <v>19</v>
-      </c>
       <c r="C10" s="29" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="D10" s="29">
         <v>0</v>
@@ -2853,21 +2840,21 @@
         <v>0</v>
       </c>
       <c r="G10" s="29" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="I10" s="29" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="29" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="29" t="s">
         <v>20</v>
-      </c>
-      <c r="B11" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="29" t="s">
-        <v>21</v>
       </c>
       <c r="D11" s="29">
         <v>0</v>
@@ -2880,21 +2867,21 @@
         <v>0</v>
       </c>
       <c r="G11" s="29" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="I11" s="29" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="29" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="29" t="s">
         <v>22</v>
-      </c>
-      <c r="B12" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="29" t="s">
-        <v>23</v>
       </c>
       <c r="D12" s="29">
         <v>0</v>
@@ -2907,21 +2894,21 @@
         <v>0</v>
       </c>
       <c r="G12" s="29" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="H12" s="29" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" s="29" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13" s="29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D13" s="29">
         <v>0</v>
@@ -2934,24 +2921,24 @@
         <v>0</v>
       </c>
       <c r="G13" s="29" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="H13" s="29" t="s">
         <v>13</v>
       </c>
       <c r="I13" s="29" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="29" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="29" t="s">
         <v>25</v>
-      </c>
-      <c r="B14" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="29" t="s">
-        <v>26</v>
       </c>
       <c r="D14" s="29">
         <v>0</v>
@@ -2964,21 +2951,21 @@
         <v>0</v>
       </c>
       <c r="G14" s="29" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="I14" s="29" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" s="29" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="29" t="s">
-        <v>27</v>
+        <v>599</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C15" s="29" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D15" s="29">
         <v>0</v>
@@ -2991,21 +2978,21 @@
         <v>0</v>
       </c>
       <c r="G15" s="29" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="I15" s="29" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="29" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="29" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="B16" s="29" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C16" s="29" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="D16" s="29">
         <v>0</v>
@@ -3018,21 +3005,21 @@
         <v>0</v>
       </c>
       <c r="G16" s="29" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="I16" s="29" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" s="29" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="29" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B17" s="29" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C17" s="29" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D17" s="29">
         <v>0</v>
@@ -3045,21 +3032,21 @@
         <v>0</v>
       </c>
       <c r="G17" s="29" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="I17" s="29" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="29" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="54" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B18" s="29" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D18" s="29">
         <v>0</v>
@@ -3072,21 +3059,21 @@
         <v>0</v>
       </c>
       <c r="G18" s="29" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="I18" s="29" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="D19" s="4">
         <v>1</v>
@@ -3099,24 +3086,24 @@
         <v>19965</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
     </row>
-    <row r="21" spans="1:9" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" s="29" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="29" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B21" s="29" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C21" s="29" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D21" s="29">
         <v>0</v>
@@ -3129,21 +3116,21 @@
         <v>0</v>
       </c>
       <c r="G21" s="29" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="I21" s="29" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" s="29" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="54" t="s">
-        <v>34</v>
+        <v>600</v>
       </c>
       <c r="B22" s="29" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C22" s="29" t="s">
-        <v>35</v>
+        <v>601</v>
       </c>
       <c r="D22" s="29">
         <v>0</v>
@@ -3156,21 +3143,21 @@
         <v>0</v>
       </c>
       <c r="G22" s="29" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="I22" s="29" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>443</v>
+        <v>602</v>
       </c>
       <c r="D23" s="4">
         <v>1</v>
@@ -3183,22 +3170,22 @@
         <v>6900</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E24" s="59"/>
       <c r="F24" s="59"/>
     </row>
-    <row r="25" spans="1:9" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="D25" s="4">
         <v>1</v>
@@ -3210,21 +3197,21 @@
         <v>0</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>579</v>
+        <v>603</v>
       </c>
       <c r="D26" s="4">
         <v>0</v>
@@ -3236,21 +3223,21 @@
         <v>1740</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="D27" s="3">
         <v>5</v>
@@ -3263,28 +3250,28 @@
         <v>135</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" s="6" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" s="6" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="E28" s="57"/>
       <c r="F28" s="57"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D29" s="3">
         <v>2</v>
@@ -3297,21 +3284,21 @@
         <v>140</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D30" s="3">
         <v>6</v>
@@ -3324,21 +3311,21 @@
         <v>216</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="26" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="D31" s="3">
         <v>1</v>
@@ -3351,21 +3338,21 @@
         <v>6</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="26" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="D32" s="3">
         <v>1</v>
@@ -3378,21 +3365,21 @@
         <v>9</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="26" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D33" s="3">
         <v>1</v>
@@ -3405,21 +3392,21 @@
         <v>43</v>
       </c>
       <c r="G33" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="I33" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="I33" s="3" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="26" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D34" s="3">
         <v>1</v>
@@ -3432,21 +3419,21 @@
         <v>29</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="26" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="D35" s="3">
         <v>1</v>
@@ -3459,21 +3446,21 @@
         <v>195</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="83" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="D36" s="4">
         <v>1</v>
@@ -3486,53 +3473,53 @@
         <v>10</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" s="12" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E37" s="60"/>
       <c r="F37" s="60"/>
     </row>
-    <row r="38" spans="1:9" s="12" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="E38" s="60"/>
       <c r="F38" s="60"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C39" s="3" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="D39" s="3">
         <v>1</v>
       </c>
       <c r="E39" s="56" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="F39" s="56">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:9" s="6" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" s="6" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E40" s="57"/>
       <c r="F40" s="57"/>
     </row>
-    <row r="41" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="76" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="B41" s="41" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C41" s="41" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="D41" s="41">
         <v>1</v>
@@ -3545,21 +3532,21 @@
         <v>728</v>
       </c>
       <c r="G41" s="41" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="I41" s="41" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="76" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="B42" s="41" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C42" s="41" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="D42" s="41">
         <v>1</v>
@@ -3571,21 +3558,21 @@
         <v>33</v>
       </c>
       <c r="G42" s="41" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="I42" s="41" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="9" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D43" s="3">
         <v>2</v>
@@ -3598,24 +3585,24 @@
         <v>62</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H43" s="78" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="9" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D44" s="3">
         <v>2</v>
@@ -3628,24 +3615,24 @@
         <v>198</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H44" s="78" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D45" s="3">
         <v>2</v>
@@ -3658,24 +3645,24 @@
         <v>34</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H45" s="78" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="D46" s="3">
         <v>2</v>
@@ -3688,24 +3675,24 @@
         <v>24</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H46" s="78" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="D47" s="3">
         <v>2</v>
@@ -3718,24 +3705,24 @@
         <v>24</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H47" s="78" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="D48" s="3">
         <v>2</v>
@@ -3748,24 +3735,24 @@
         <v>28</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H48" s="78" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="D49" s="3">
         <v>2</v>
@@ -3777,21 +3764,21 @@
         <v>36.825499200000003</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="D50" s="3">
         <v>2</v>
@@ -3804,21 +3791,21 @@
         <v>1870</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D51" s="4">
         <v>2</v>
@@ -3831,24 +3818,24 @@
         <v>730</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="D52" s="3">
         <v>1</v>
@@ -3861,24 +3848,24 @@
         <v>40</v>
       </c>
       <c r="G52" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H52" s="3" t="s">
+      <c r="B53" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="C53" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="D53" s="3">
         <v>2</v>
@@ -3891,21 +3878,21 @@
         <v>180</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="9" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D54" s="3">
         <v>2</v>
@@ -3918,21 +3905,21 @@
         <v>36</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D55" s="3">
         <v>2</v>
@@ -3945,24 +3932,24 @@
         <v>42.42</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="9" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D56" s="3">
         <v>2</v>
@@ -3975,21 +3962,21 @@
         <v>26</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="9" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D57" s="3">
         <v>4</v>
@@ -4002,24 +3989,24 @@
         <v>756</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="9" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D58" s="3">
         <v>4</v>
@@ -4032,24 +4019,24 @@
         <v>440</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="9" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D59" s="3">
         <v>8</v>
@@ -4062,24 +4049,24 @@
         <v>128</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" s="9" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="D60" s="3">
         <v>4</v>
@@ -4092,24 +4079,24 @@
         <v>416</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="9" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D61" s="3">
         <v>2</v>
@@ -4122,24 +4109,24 @@
         <v>82</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" s="9" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="D62" s="3">
         <v>2</v>
@@ -4152,24 +4139,24 @@
         <v>34</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" s="9" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="D63" s="3">
         <v>4</v>
@@ -4182,24 +4169,24 @@
         <v>28</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" s="9" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="D64" s="3">
         <v>4</v>
@@ -4212,24 +4199,24 @@
         <v>20</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="48">
         <v>91863</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D65" s="4">
         <v>2</v>
@@ -4242,24 +4229,24 @@
         <v>800</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="I65" s="4" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="C66" s="49" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="D66" s="4">
         <v>2</v>
@@ -4272,24 +4259,24 @@
         <v>600</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="I66" s="4" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" s="45" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" s="45" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="46" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="B67" s="45" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C67" s="46" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="D67" s="45">
         <v>0</v>
@@ -4302,25 +4289,25 @@
         <v>0</v>
       </c>
       <c r="G67" s="45" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H67" s="45" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="I67" s="45" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="J67" s="74"/>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" s="9" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D68" s="3">
         <v>2</v>
@@ -4333,24 +4320,24 @@
         <v>184</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="10" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C69" s="73" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D69" s="4">
         <v>2</v>
@@ -4363,24 +4350,24 @@
         <v>2</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="I69" s="4" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" s="9" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="D70" s="3">
         <v>4</v>
@@ -4393,24 +4380,24 @@
         <v>28</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="I70" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A71" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C71" s="9" t="s">
         <v>197</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C71" s="9" t="s">
-        <v>201</v>
       </c>
       <c r="D71" s="3">
         <v>2</v>
@@ -4423,21 +4410,21 @@
         <v>16</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" s="9" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D72" s="3">
         <v>4</v>
@@ -4450,24 +4437,24 @@
         <v>20</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" s="9" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="D73" s="3">
         <v>2</v>
@@ -4480,21 +4467,21 @@
         <v>10</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H73" s="3" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" s="9" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D74" s="3">
         <v>2</v>
@@ -4507,24 +4494,24 @@
         <v>10</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" s="24" customFormat="1" x14ac:dyDescent="0.25">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="23" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C75" s="23" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D75" s="24">
         <v>2</v>
@@ -4537,24 +4524,24 @@
         <v>796</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H75" s="24" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="I75" s="24" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" s="79" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" s="79" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="47" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="C76" s="47" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="D76" s="79">
         <v>2</v>
@@ -4566,24 +4553,24 @@
         <v>0</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H76" s="79" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="I76" s="79" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" s="24" customFormat="1" x14ac:dyDescent="0.25">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="23" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C77" s="23" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D77" s="24">
         <v>2</v>
@@ -4596,24 +4583,24 @@
         <v>60</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H77" s="24" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="I77" s="24" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="10" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="D78" s="4">
         <v>2</v>
@@ -4625,24 +4612,24 @@
         <v>0</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H78" s="4" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="I78" s="4" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" s="45" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" s="45" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="46" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="B79" s="45" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C79" s="46" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="D79" s="45">
         <v>0</v>
@@ -4655,24 +4642,24 @@
         <v>0</v>
       </c>
       <c r="G79" s="45" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H79" s="45" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="I79" s="45" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" s="9" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="D80" s="3">
         <v>2</v>
@@ -4685,24 +4672,24 @@
         <v>64</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H80" s="3" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="I80" s="3" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" s="9" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C81" s="82" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="D81" s="3">
         <v>2</v>
@@ -4715,24 +4702,24 @@
         <v>72</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H81" s="3" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="I81" s="3" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" s="9" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D82" s="3">
         <v>2</v>
@@ -4745,24 +4732,24 @@
         <v>4208</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H82" s="3" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="I82" s="3" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" s="9" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="D83" s="3">
         <v>2</v>
@@ -4775,24 +4762,24 @@
         <v>164</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H83" s="3" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="I83" s="3" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" s="27" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="D84" s="3">
         <v>1</v>
@@ -4805,24 +4792,24 @@
         <v>520</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H84" s="3" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="I84" s="3" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="27" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="B85" s="20" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C85" s="27" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="D85" s="20">
         <v>2</v>
@@ -4835,24 +4822,24 @@
         <v>296</v>
       </c>
       <c r="G85" s="20" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H85" s="20" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="I85" s="20" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="10" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="D86" s="3">
         <v>14</v>
@@ -4864,24 +4851,24 @@
         <v>0</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H86" s="3" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="I86" s="4" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" s="10" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="D87" s="4">
         <v>1</v>
@@ -4894,24 +4881,24 @@
         <v>10</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H87" s="4" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="I87" s="4" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" s="9" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="D88" s="3">
         <v>0</v>
@@ -4924,49 +4911,49 @@
         <v>0</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H88" s="3" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="I88" s="3" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" s="6" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" s="6" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="E89" s="57"/>
       <c r="F89" s="57"/>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D90" s="3">
         <v>1</v>
       </c>
       <c r="E90" s="58"/>
       <c r="I90" s="3" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" s="9" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D91" s="3">
         <v>1</v>
@@ -4979,15 +4966,15 @@
         <v>63</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" s="25" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D92" s="3">
         <v>2</v>
@@ -5000,33 +4987,33 @@
         <v>138</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C93" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="B93" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="D93" s="3">
         <v>1</v>
       </c>
       <c r="E93" s="58"/>
       <c r="I93" s="3" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="D94" s="4">
         <v>5</v>
@@ -5038,32 +5025,32 @@
         <v>5</v>
       </c>
       <c r="I94" s="4" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" s="6" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" s="6" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="E95" s="57"/>
       <c r="F95" s="57"/>
     </row>
-    <row r="96" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A96" s="6" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="E96" s="57"/>
       <c r="F96" s="57"/>
     </row>
-    <row r="97" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C97" s="52" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="D97" s="3">
         <v>1</v>
@@ -5076,19 +5063,19 @@
         <v>200</v>
       </c>
       <c r="I97" s="3" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="J97" s="4"/>
     </row>
-    <row r="98" spans="1:10" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:10" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="D98" s="4">
         <v>5</v>
@@ -5100,18 +5087,18 @@
         <v>5</v>
       </c>
       <c r="I98" s="4" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="D99" s="3">
         <v>1</v>
@@ -5124,18 +5111,18 @@
         <v>26</v>
       </c>
       <c r="I99" s="3" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="D100" s="3">
         <v>1</v>
@@ -5148,18 +5135,18 @@
         <v>37</v>
       </c>
       <c r="I100" s="3" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="D101" s="3">
         <v>2</v>
@@ -5172,32 +5159,32 @@
         <v>48</v>
       </c>
       <c r="I101" s="3" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A102" s="43" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E102" s="66"/>
       <c r="F102" s="66"/>
     </row>
-    <row r="103" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="15" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="E103" s="66"/>
       <c r="F103" s="66"/>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="D104" s="3">
         <v>1</v>
@@ -5213,25 +5200,25 @@
         <v>13</v>
       </c>
       <c r="I104" s="3" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" s="18" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" s="18" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A105" s="17" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="E105" s="67"/>
       <c r="F105" s="67"/>
     </row>
-    <row r="106" spans="1:10" s="20" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:10" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A106" s="21" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="B106" s="20" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C106" s="71" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="D106" s="20">
         <v>1</v>
@@ -5247,18 +5234,18 @@
         <v>13</v>
       </c>
       <c r="I106" s="20" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A107" s="22" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="B107" s="20" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C107" s="72" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="D107" s="3">
         <v>1</v>
@@ -5275,18 +5262,18 @@
       </c>
       <c r="H107" s="20"/>
       <c r="I107" s="3" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A108" s="22" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="B108" s="20" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C108" s="72" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="D108" s="3">
         <v>0</v>
@@ -5303,18 +5290,18 @@
       </c>
       <c r="H108" s="20"/>
       <c r="I108" s="3" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="B109" s="20" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C109" s="72" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="D109" s="3">
         <v>1</v>
@@ -5331,18 +5318,18 @@
       </c>
       <c r="H109" s="20"/>
       <c r="I109" s="3" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="B110" s="20" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C110" s="72" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="D110" s="3">
         <v>0</v>
@@ -5359,18 +5346,18 @@
       </c>
       <c r="H110" s="20"/>
       <c r="I110" s="3" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="B111" s="20" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="D111" s="3">
         <v>1</v>
@@ -5387,18 +5374,18 @@
       </c>
       <c r="H111" s="20"/>
       <c r="I111" s="3" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="B112" s="20" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C112" s="28" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="D112" s="3">
         <v>1</v>
@@ -5415,25 +5402,25 @@
       </c>
       <c r="H112" s="20"/>
       <c r="I112" s="3" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" s="18" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" s="18" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A113" s="17" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="E113" s="67"/>
       <c r="F113" s="67"/>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="B114" s="20" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C114" s="53" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="D114" s="3">
         <v>1</v>
@@ -5449,18 +5436,18 @@
         <v>13</v>
       </c>
       <c r="I114" s="3" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A115" s="4" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B115" s="49" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D115" s="4">
         <v>5</v>
@@ -5475,18 +5462,18 @@
         <v>13</v>
       </c>
       <c r="I115" s="4" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B116" s="20" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="D116" s="3">
         <v>1</v>
@@ -5502,18 +5489,18 @@
         <v>13</v>
       </c>
       <c r="I116" s="3" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="B117" s="20" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D117" s="3">
         <v>1</v>
@@ -5529,18 +5516,18 @@
         <v>13</v>
       </c>
       <c r="I117" s="3" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B118" s="20" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="D118" s="3">
         <v>1</v>
@@ -5556,18 +5543,18 @@
         <v>13</v>
       </c>
       <c r="I118" s="3" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A119" s="4" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="B119" s="49" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="D119" s="4">
         <v>5</v>
@@ -5583,25 +5570,25 @@
         <v>13</v>
       </c>
       <c r="I119" s="4" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" s="6" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" s="6" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A120" s="5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E120" s="57"/>
       <c r="F120" s="57"/>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D121" s="3">
         <v>1</v>
@@ -5614,21 +5601,21 @@
         <v>5420</v>
       </c>
       <c r="G121" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="I121" s="3" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D122" s="3">
         <v>1</v>
@@ -5641,21 +5628,21 @@
         <v>2560</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="I122" s="3" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="D123" s="3">
         <v>1</v>
@@ -5668,21 +5655,21 @@
         <v>900</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="I123" s="3" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D124" s="3">
         <v>1</v>
@@ -5695,21 +5682,21 @@
         <v>163</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="I124" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D125" s="3">
         <v>1</v>
@@ -5722,18 +5709,18 @@
         <v>11</v>
       </c>
       <c r="G125" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A126" s="3" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A126" s="3" t="s">
-        <v>52</v>
-      </c>
       <c r="B126" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D126" s="3">
         <v>1</v>
@@ -5746,18 +5733,18 @@
         <v>520</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D127" s="3">
         <v>1</v>
@@ -5770,18 +5757,18 @@
         <v>193</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="D128" s="3">
         <v>10</v>
@@ -5794,21 +5781,21 @@
         <v>120</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="I128" s="3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A129" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C129" s="3" t="s">
         <v>270</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A129" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="B129" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C129" s="3" t="s">
-        <v>274</v>
       </c>
       <c r="D129" s="3">
         <v>1</v>
@@ -5821,21 +5808,21 @@
         <v>14</v>
       </c>
       <c r="G129" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="I129" s="3" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D130" s="3">
         <v>5</v>
@@ -5848,18 +5835,18 @@
         <v>76.25</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D131" s="3">
         <v>10</v>
@@ -5872,18 +5859,18 @@
         <v>165</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D132" s="3">
         <v>10</v>
@@ -5896,18 +5883,18 @@
         <v>240</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D133" s="3">
         <v>6</v>
@@ -5920,18 +5907,18 @@
         <v>144</v>
       </c>
       <c r="G133" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A134" s="26" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="D134" s="3">
         <v>1</v>
@@ -5944,33 +5931,33 @@
         <v>11</v>
       </c>
       <c r="G134" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="I134" s="3" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A136" s="10"/>
       <c r="B136" s="10"/>
       <c r="C136" s="9"/>
     </row>
-    <row r="137" spans="1:9" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:9" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A137" s="7" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="E137" s="57"/>
       <c r="F137" s="57"/>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A138" s="3" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="D138" s="3">
         <v>2</v>
@@ -5983,15 +5970,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A139" s="3" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D139" s="3">
         <v>1</v>
@@ -6004,15 +5991,15 @@
         <v>85.1</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A140" s="3" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D140" s="3">
         <v>2</v>
@@ -6025,18 +6012,18 @@
         <v>64</v>
       </c>
       <c r="I140" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A141" s="3" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D141" s="3">
         <v>2</v>
@@ -6049,15 +6036,15 @@
         <v>103.16</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A142" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D142" s="3">
         <v>1</v>
@@ -6070,18 +6057,18 @@
         <v>60</v>
       </c>
       <c r="I142" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A143" s="3" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D143" s="3">
         <v>1</v>
@@ -6094,15 +6081,15 @@
         <v>136.47999999999999</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A144" s="3" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D144" s="3">
         <v>1</v>
@@ -6115,15 +6102,15 @@
         <v>136.47999999999999</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A145" s="3" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D145" s="3">
         <v>1</v>
@@ -6136,15 +6123,15 @@
         <v>60.95</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A146" s="3" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D146" s="3">
         <v>1</v>
@@ -6157,15 +6144,15 @@
         <v>119.416</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A147" s="3" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D147" s="3">
         <v>1</v>
@@ -6178,15 +6165,15 @@
         <v>105.8</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A148" s="3" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D148" s="3">
         <v>2</v>
@@ -6199,15 +6186,15 @@
         <v>239.2</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A149" s="3" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="D149" s="3">
         <v>1</v>
@@ -6220,15 +6207,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A150" s="3" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D150" s="3">
         <v>2</v>
@@ -6241,15 +6228,15 @@
         <v>184</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A151" s="3" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D151" s="3">
         <v>1</v>
@@ -6262,15 +6249,15 @@
         <v>96.23</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A152" s="3" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D152" s="3">
         <v>1</v>
@@ -6283,15 +6270,15 @@
         <v>102.44</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A153" s="3" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D153" s="3">
         <v>2</v>
@@ -6304,15 +6291,15 @@
         <v>56</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A154" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="D154" s="3">
         <v>1</v>
@@ -6325,18 +6312,18 @@
         <v>490</v>
       </c>
       <c r="I154" s="3" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" s="29" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A155" s="29" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B155" s="29" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C155" s="29" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="D155" s="29">
         <v>1</v>
@@ -6349,18 +6336,18 @@
         <v>77</v>
       </c>
       <c r="I155" s="29" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" s="29" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A156" s="29" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B156" s="29" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C156" s="29" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="D156" s="29">
         <v>1</v>
@@ -6373,18 +6360,18 @@
         <v>20</v>
       </c>
       <c r="I156" s="29" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" s="29" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A157" s="29" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B157" s="29" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C157" s="29" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D157" s="29">
         <v>1</v>
@@ -6397,18 +6384,18 @@
         <v>177</v>
       </c>
       <c r="I157" s="29" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A158" s="3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="D158" s="3">
         <v>2</v>
@@ -6421,18 +6408,18 @@
         <v>26</v>
       </c>
       <c r="I158" s="3" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A159" s="3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="D159" s="3">
         <v>2</v>
@@ -6445,18 +6432,18 @@
         <v>38</v>
       </c>
       <c r="I159" s="3" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A160" s="3" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="D160" s="3">
         <v>1</v>
@@ -6469,18 +6456,18 @@
         <v>12</v>
       </c>
       <c r="I160" s="3" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A161" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D161" s="3">
         <v>2</v>
@@ -6493,18 +6480,18 @@
         <v>70</v>
       </c>
       <c r="I161" s="3" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A162" s="3" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="D162" s="3">
         <v>2</v>
@@ -6517,18 +6504,18 @@
         <v>18</v>
       </c>
       <c r="I162" s="3" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A163" s="3" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="D163" s="3">
         <v>0</v>
@@ -6541,53 +6528,53 @@
         <v>0</v>
       </c>
       <c r="I163" s="3" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C164" s="3" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D164" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C165" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D165" s="3">
+        <v>1</v>
+      </c>
+      <c r="I165" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C166" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D166" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A168" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="D165" s="3">
-        <v>1</v>
-      </c>
-      <c r="I165" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C166" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="D166" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168" spans="1:10" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A168" s="7" t="s">
-        <v>153</v>
-      </c>
       <c r="B168" s="6" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="E168" s="57"/>
       <c r="F168" s="57"/>
     </row>
-    <row r="169" spans="1:10" s="41" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:10" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A169" s="3"/>
       <c r="B169" s="3" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="C169" s="20" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D169" s="3">
         <v>4</v>
@@ -6600,22 +6587,22 @@
         <v>160</v>
       </c>
       <c r="G169" s="3" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="H169" s="3" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="I169" s="3" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="J169" s="20"/>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B170" s="3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="D170" s="3">
         <v>2</v>
@@ -6628,15 +6615,15 @@
         <v>1030</v>
       </c>
       <c r="G170" s="3" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B171" s="3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="D171" s="3">
         <v>4</v>
@@ -6649,15 +6636,15 @@
         <v>100</v>
       </c>
       <c r="G171" s="3" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B172" s="3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D172" s="3">
         <v>4</v>
@@ -6670,15 +6657,15 @@
         <v>112</v>
       </c>
       <c r="G172" s="3" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B173" s="3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D173" s="3">
         <v>6</v>
@@ -6691,210 +6678,210 @@
         <v>729</v>
       </c>
       <c r="G173" s="3" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="176" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="E176" s="51" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="F176" s="51">
         <f>SUM(F3:F174)</f>
         <v>103251.75149919999</v>
       </c>
       <c r="G176" s="3" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A180" s="50" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A181" s="4" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A182" s="3" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="B182" s="3">
         <v>14</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183" s="3" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="B183" s="3">
         <v>2</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184" s="3" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="B184" s="3">
         <v>2</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A185" s="3" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="B185" s="3">
         <v>2</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A188" s="50" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A189" s="4" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A190" s="3" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="B190" s="3">
         <v>2</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A191" s="3" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B191" s="3">
         <v>5</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A192" s="3" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B192" s="3">
         <v>1</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193" s="3" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="B193" s="3">
         <v>1</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A194" s="3" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="B194" s="3">
         <v>1</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A195" s="3" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="B195" s="3">
         <v>1</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A198" s="50" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A199" s="4" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A200" s="3" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="B200" s="3">
         <v>5</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A201" s="3" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B201" s="3">
         <v>3</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A202" s="3" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
     </row>
   </sheetData>
@@ -6921,18 +6908,18 @@
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.109375" customWidth="1"/>
-    <col min="2" max="2" width="21.33203125" customWidth="1"/>
-    <col min="3" max="3" width="47.5546875" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" customWidth="1"/>
-    <col min="6" max="6" width="17.44140625" customWidth="1"/>
-    <col min="7" max="7" width="16.33203125" customWidth="1"/>
-    <col min="8" max="8" width="19.33203125" customWidth="1"/>
+    <col min="1" max="1" width="24.140625" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" customWidth="1"/>
+    <col min="3" max="3" width="47.5703125" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" customWidth="1"/>
+    <col min="8" max="8" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6961,19 +6948,19 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="6" customFormat="1" ht="18" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" s="6" customFormat="1" ht="18.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
     </row>
-    <row r="3" spans="1:9" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" s="29" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="29">
         <v>1008062</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C3" s="29" t="s">
         <v>16</v>
@@ -6989,15 +6976,15 @@
         <v>7400</v>
       </c>
       <c r="I3" s="29" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="29" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B4" s="29" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D4" s="29">
         <v>1</v>
@@ -7010,15 +6997,15 @@
         <v>20000</v>
       </c>
       <c r="I4" s="29" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="29" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B5" s="29" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="D5" s="29">
         <v>1</v>
@@ -7030,23 +7017,23 @@
         <v>50000</v>
       </c>
       <c r="I5" s="29" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:9" s="6" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="29" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:9" s="6" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
     </row>
-    <row r="8" spans="1:9" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" s="29" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B8" s="29" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D8" s="29">
         <v>1</v>
@@ -7059,27 +7046,27 @@
         <v>25000</v>
       </c>
       <c r="I8" s="29" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:9" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:9" s="18" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="29" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:9" s="29" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:9" s="18" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="E11" s="19"/>
       <c r="F11" s="19"/>
     </row>
-    <row r="12" spans="1:9" s="29" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" s="29" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="29" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="D12" s="29">
         <v>1</v>
@@ -7095,21 +7082,21 @@
         <v>13</v>
       </c>
       <c r="H12" s="29" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="I12" s="29" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" s="29" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="29" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="29" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B13" s="30" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="D13" s="29">
         <v>1</v>
@@ -7125,21 +7112,21 @@
         <v>13</v>
       </c>
       <c r="H13" s="29" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="I13" s="29" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="29" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="29" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="B14" s="30" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C14" s="29" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="D14" s="29">
         <v>1</v>
@@ -7155,21 +7142,21 @@
         <v>13</v>
       </c>
       <c r="H14" s="29" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="I14" s="29" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" s="29" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="29" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="B15" s="30" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C15" s="29" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="D15" s="29">
         <v>1</v>
@@ -7185,21 +7172,21 @@
         <v>13</v>
       </c>
       <c r="H15" s="29" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="I15" s="29" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="30" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="33" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B16" s="30" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C16" s="33" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D16" s="30">
         <v>1</v>
@@ -7215,32 +7202,32 @@
         <v>13</v>
       </c>
       <c r="H16" s="30" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="I16" s="30" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
     </row>
-    <row r="18" spans="1:10" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
     </row>
-    <row r="19" spans="1:10" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>14</v>
@@ -7263,15 +7250,15 @@
       </c>
       <c r="J19" s="4"/>
     </row>
-    <row r="20" spans="1:10" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>256</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>260</v>
       </c>
       <c r="D20" s="3">
         <v>1</v>
@@ -7291,15 +7278,15 @@
       </c>
       <c r="J20" s="4"/>
     </row>
-    <row r="21" spans="1:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D21" s="3">
         <v>1</v>
@@ -7318,15 +7305,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:10" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="D22" s="3">
         <v>1</v>
@@ -7334,32 +7321,32 @@
       <c r="E22" s="42"/>
       <c r="F22" s="42"/>
       <c r="I22" s="3" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" s="6" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" s="6" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
     </row>
-    <row r="25" spans="1:10" s="38" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" s="38" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="37" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="E25" s="39"/>
       <c r="F25" s="39"/>
     </row>
-    <row r="26" spans="1:10" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" s="30" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="33" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B26" s="30" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C26" s="33" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="D26" s="30">
         <v>2</v>
@@ -7372,24 +7359,24 @@
         <v>10</v>
       </c>
       <c r="G26" s="30" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H26" s="30" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="I26" s="30" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" s="30" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="33" t="s">
+        <v>285</v>
+      </c>
+      <c r="B27" s="30" t="s">
+        <v>250</v>
+      </c>
+      <c r="C27" s="33" t="s">
         <v>289</v>
-      </c>
-      <c r="B27" s="30" t="s">
-        <v>254</v>
-      </c>
-      <c r="C27" s="33" t="s">
-        <v>293</v>
       </c>
       <c r="D27" s="30">
         <v>2</v>
@@ -7402,24 +7389,24 @@
         <v>124</v>
       </c>
       <c r="G27" s="30" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H27" s="30" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="I27" s="30" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" s="30" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="33" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B28" s="30" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C28" s="33" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D28" s="30">
         <v>8</v>
@@ -7432,24 +7419,24 @@
         <v>8</v>
       </c>
       <c r="G28" s="30" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H28" s="30" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="I28" s="30" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" s="30" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="33" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B29" s="30" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C29" s="33" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="D29" s="30">
         <v>6</v>
@@ -7462,21 +7449,21 @@
         <v>36</v>
       </c>
       <c r="G29" s="30" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H29" s="30" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" s="30" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="33" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B30" s="30" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C30" s="33" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="D30" s="30">
         <v>2</v>
@@ -7489,24 +7476,24 @@
         <v>2</v>
       </c>
       <c r="G30" s="30" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H30" s="30" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="I30" s="30" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" s="30" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="36" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B31" s="30" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C31" s="33" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="D31" s="30">
         <v>1</v>
@@ -7519,24 +7506,24 @@
         <v>2</v>
       </c>
       <c r="G31" s="30" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H31" s="30" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="I31" s="30" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" s="30" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="36" t="s">
+        <v>287</v>
+      </c>
+      <c r="B32" s="30" t="s">
+        <v>250</v>
+      </c>
+      <c r="C32" s="33" t="s">
         <v>291</v>
-      </c>
-      <c r="B32" s="30" t="s">
-        <v>254</v>
-      </c>
-      <c r="C32" s="33" t="s">
-        <v>295</v>
       </c>
       <c r="D32" s="30">
         <v>1</v>
@@ -7549,24 +7536,24 @@
         <v>15</v>
       </c>
       <c r="G32" s="30" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H32" s="30" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="I32" s="30" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" s="30" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="33" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B33" s="30" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C33" s="33" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D33" s="30">
         <v>2</v>
@@ -7579,28 +7566,28 @@
         <v>50</v>
       </c>
       <c r="G33" s="30" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H33" s="30" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" s="6" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" s="6" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
     </row>
-    <row r="38" spans="1:9" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" s="29" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="29" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B38" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38" s="29" t="s">
         <v>47</v>
-      </c>
-      <c r="C38" s="29" t="s">
-        <v>51</v>
       </c>
       <c r="D38" s="29">
         <v>1</v>
@@ -7613,29 +7600,29 @@
         <v>2800</v>
       </c>
       <c r="G38" s="29" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="I38" s="29" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C42" s="6"/>
       <c r="E42" s="14"/>
       <c r="F42" s="14"/>
     </row>
-    <row r="43" spans="1:9" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" s="29" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="29" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B43" s="29" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C43" s="29" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D43" s="29">
         <v>1</v>
@@ -7648,15 +7635,15 @@
         <v>488</v>
       </c>
     </row>
-    <row r="44" spans="1:9" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" s="29" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="29" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B44" s="29" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C44" s="29" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D44" s="29">
         <v>1</v>
@@ -7669,15 +7656,15 @@
         <v>184</v>
       </c>
     </row>
-    <row r="45" spans="1:9" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" s="29" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A45" s="29" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B45" s="29" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C45" s="29" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D45" s="29">
         <v>1</v>
@@ -7690,15 +7677,15 @@
         <v>76</v>
       </c>
     </row>
-    <row r="46" spans="1:9" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" s="29" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A46" s="29" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B46" s="29" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C46" s="29" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D46" s="29">
         <v>1</v>
@@ -7711,15 +7698,15 @@
         <v>184</v>
       </c>
     </row>
-    <row r="47" spans="1:9" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" s="29" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47" s="29" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B47" s="29" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C47" s="29" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D47" s="29">
         <v>1</v>
@@ -7732,15 +7719,15 @@
         <v>94.180155999999997</v>
       </c>
     </row>
-    <row r="48" spans="1:9" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" s="29" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48" s="29" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B48" s="29" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C48" s="29" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D48" s="29">
         <v>1</v>
@@ -7753,15 +7740,15 @@
         <v>36.799999999999997</v>
       </c>
     </row>
-    <row r="49" spans="1:9" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" s="29" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A49" s="29" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B49" s="29" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C49" s="29" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D49" s="29">
         <v>2</v>
@@ -7774,15 +7761,15 @@
         <v>42.42</v>
       </c>
     </row>
-    <row r="50" spans="1:9" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" s="29" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A50" s="29" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B50" s="29" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C50" s="29" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D50" s="29">
         <v>1</v>
@@ -7795,18 +7782,18 @@
         <v>304.75</v>
       </c>
       <c r="I50" s="29" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" s="29" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A51" s="29" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B51" s="29" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C51" s="29" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D51" s="29">
         <v>1</v>
@@ -7819,18 +7806,18 @@
         <v>148.21</v>
       </c>
       <c r="I51" s="29" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" s="29" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A52" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="B52" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="C52" s="29" t="s">
         <v>77</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A52" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="B52" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="C52" s="29" t="s">
-        <v>81</v>
       </c>
       <c r="D52" s="29">
         <v>1</v>
@@ -7843,18 +7830,18 @@
         <v>348.45</v>
       </c>
       <c r="I52" s="29" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" s="29" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A53" s="29" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B53" s="29" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C53" s="29" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D53" s="29">
         <v>1</v>
@@ -7867,15 +7854,15 @@
         <v>60.95</v>
       </c>
     </row>
-    <row r="54" spans="1:9" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" s="29" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A54" s="29" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B54" s="29" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C54" s="29" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D54" s="29">
         <v>1</v>
@@ -7888,18 +7875,18 @@
         <v>34.5</v>
       </c>
       <c r="I54" s="29" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" s="29" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A55" s="29" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B55" s="29" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C55" s="29" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D55" s="29">
         <v>1</v>
@@ -7912,18 +7899,18 @@
         <v>51.45</v>
       </c>
       <c r="I55" s="29" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" s="29" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A56" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="B56" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="C56" s="29" t="s">
         <v>86</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A56" s="29" t="s">
-        <v>89</v>
-      </c>
-      <c r="B56" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="C56" s="29" t="s">
-        <v>90</v>
       </c>
       <c r="D56" s="29">
         <v>2</v>
@@ -7936,15 +7923,15 @@
         <v>27.6</v>
       </c>
     </row>
-    <row r="57" spans="1:9" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" s="29" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A57" s="29" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B57" s="29" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C57" s="29" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D57" s="29">
         <v>1</v>
@@ -7957,15 +7944,15 @@
         <v>19.09</v>
       </c>
     </row>
-    <row r="58" spans="1:9" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" s="29" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A58" s="29" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B58" s="29" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C58" s="29" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D58" s="29">
         <v>2</v>
@@ -7978,18 +7965,18 @@
         <v>81.02</v>
       </c>
       <c r="I58" s="29" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" s="29" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A59" s="29" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B59" s="29" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C59" s="29" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D59" s="29">
         <v>2</v>
@@ -8002,18 +7989,18 @@
         <v>167.19623200000001</v>
       </c>
       <c r="I59" s="29" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" s="29" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A60" s="29" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B60" s="29" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C60" s="29" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D60" s="29">
         <v>4</v>
@@ -8026,18 +8013,18 @@
         <v>280.416</v>
       </c>
       <c r="I60" s="29" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" s="29" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A61" s="29" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B61" s="29" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C61" s="29" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D61" s="29">
         <v>2</v>
@@ -8050,18 +8037,18 @@
         <v>57.5</v>
       </c>
       <c r="I61" s="40" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" s="29" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A62" s="29" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B62" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="C62" s="29" t="s">
         <v>101</v>
-      </c>
-      <c r="C62" s="29" t="s">
-        <v>105</v>
       </c>
       <c r="D62" s="29">
         <v>2</v>
@@ -8074,12 +8061,12 @@
         <v>77.745599999999996</v>
       </c>
     </row>
-    <row r="63" spans="1:9" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" s="29" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B63" s="29" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C63" s="29" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D63" s="29">
         <v>1</v>
@@ -8092,15 +8079,15 @@
         <v>205</v>
       </c>
       <c r="I63" s="29" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" s="29" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B64" s="29" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C64" s="29" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D64" s="29">
         <v>2</v>
@@ -8113,24 +8100,24 @@
         <v>24</v>
       </c>
       <c r="I64" s="29" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="F66" s="8"/>
     </row>
-    <row r="67" spans="1:10" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" s="29" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A67" s="29" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B67" s="29" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C67" s="29" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D67" s="29">
         <v>2</v>
@@ -8143,18 +8130,18 @@
         <v>280</v>
       </c>
       <c r="I67" s="29" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="B68" s="29" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C68" s="29" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="D68" s="29">
         <v>2</v>
@@ -8167,18 +8154,18 @@
         <v>168</v>
       </c>
       <c r="I68" s="29" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>350</v>
-      </c>
       <c r="B69" s="29" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C69" s="29" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="D69" s="29">
         <v>1</v>
@@ -8191,58 +8178,58 @@
         <v>54</v>
       </c>
       <c r="I69" s="29" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="F71" s="8"/>
     </row>
-    <row r="72" spans="1:10" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" s="29" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A72" s="29" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="C72" s="30"/>
       <c r="E72" s="32"/>
       <c r="F72" s="32"/>
       <c r="J72" s="30"/>
     </row>
-    <row r="73" spans="1:10" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" s="29" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A73" s="29" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="C73" s="30"/>
       <c r="E73" s="32"/>
       <c r="F73" s="32"/>
       <c r="J73" s="30"/>
     </row>
-    <row r="74" spans="1:10" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" s="29" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C74" s="30"/>
       <c r="E74" s="32"/>
       <c r="F74" s="32"/>
       <c r="J74" s="30"/>
     </row>
-    <row r="75" spans="1:10" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
     </row>
-    <row r="76" spans="1:10" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" s="29" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A76" s="29" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="B76" s="29" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C76" s="29" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="D76" s="29">
         <v>1</v>
@@ -8255,18 +8242,18 @@
         <v>518.5</v>
       </c>
       <c r="I76" s="29" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" s="29" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A77" s="29" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="B77" s="29" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C77" s="29" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="D77" s="29">
         <v>1</v>
@@ -8279,15 +8266,15 @@
         <v>764</v>
       </c>
     </row>
-    <row r="78" spans="1:10" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" s="29" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A78" s="29" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B78" s="29" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C78" s="29" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D78" s="29">
         <v>1</v>
@@ -8300,18 +8287,18 @@
         <v>816</v>
       </c>
       <c r="I78" s="29" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" s="29" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A79" s="29" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B79" s="29" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C79" s="29" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D79" s="29">
         <v>1</v>
@@ -8324,15 +8311,15 @@
         <v>952</v>
       </c>
     </row>
-    <row r="80" spans="1:10" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" s="29" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A80" s="29" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="B80" s="29" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C80" s="29" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="D80" s="29">
         <v>1</v>
@@ -8345,15 +8332,15 @@
         <v>99.5</v>
       </c>
     </row>
-    <row r="81" spans="1:6" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" s="29" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A81" s="29" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B81" s="29" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C81" s="29" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="D81" s="29">
         <v>1</v>
@@ -8366,15 +8353,15 @@
         <v>128.5</v>
       </c>
     </row>
-    <row r="82" spans="1:6" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" s="29" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A82" s="29" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B82" s="29" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C82" s="29" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="D82" s="29">
         <v>1</v>
@@ -8387,15 +8374,15 @@
         <v>156</v>
       </c>
     </row>
-    <row r="83" spans="1:6" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" s="29" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A83" s="29" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B83" s="29" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C83" s="29" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="D83" s="29">
         <v>1</v>
@@ -8424,7 +8411,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/Benchtop-2024(default-version)/parts-list/Benchtop-partslist-latest.xlsx
+++ b/Benchtop-2024(default-version)/parts-list/Benchtop-partslist-latest.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nikita\Documents\GitHub\mesoSPIM-bt-hardware\Benchtop\parts-list\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nikita\Documents\GitHub\mesoSPIM-bt-hardware\Benchtop-2024(default-version)\parts-list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0919671-C08F-4CC9-8898-EC2CD98BA8F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C155FACD-69CA-4C2F-A286-0D993D317F0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6948" yWindow="4176" windowWidth="34560" windowHeight="18684" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="604">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="607">
   <si>
     <t xml:space="preserve">Part # </t>
   </si>
@@ -89,9 +89,6 @@
     <t>Sample &amp; Microscope Stages</t>
   </si>
   <si>
-    <t>Dual-LS100-FTP</t>
-  </si>
-  <si>
     <t>ASI</t>
   </si>
   <si>
@@ -116,9 +113,6 @@
     <t>Dovetail mount pair (VTS-2112 &amp; CDZ-1010) 60 x 62 x 10 mm overall dimensions.</t>
   </si>
   <si>
-    <t>LS-50S-AMECH</t>
-  </si>
-  <si>
     <t>LS-50 Linear Stage, with sub-micron accuracy, 50 mm of travel, and stainless steel slide</t>
   </si>
   <si>
@@ -135,12 +129,6 @@
   </si>
   <si>
     <t>TG8-BASIC</t>
-  </si>
-  <si>
-    <t>TGDCM2</t>
-  </si>
-  <si>
-    <t>Dual Axis motion control card - one slot</t>
   </si>
   <si>
     <t>Computer</t>
@@ -1927,6 +1915,27 @@
   </si>
   <si>
     <t>Connection of theta-stage chuck to the sample holder. Use M6 bolt in the chuck to connect</t>
+  </si>
+  <si>
+    <t>Dual-LS100-FTP-K0</t>
+  </si>
+  <si>
+    <t>LS-50S-AMECHS</t>
+  </si>
+  <si>
+    <t>TGDCM2-1RE</t>
+  </si>
+  <si>
+    <t>Dual Axis motion control card - one slot.  Modified for 2nd axis always rotary encoded.</t>
+  </si>
+  <si>
+    <t>see more at https://github.com/mesoSPIM/benchtop-hardware/wiki/Laser-selection</t>
+  </si>
+  <si>
+    <t>See more at https://github.com/mesoSPIM/benchtop-hardware/wiki/Supported-hardware</t>
+  </si>
+  <si>
+    <t>see more at https://github.com/mesoSPIM/benchtop-hardware/wiki/Electronics</t>
   </si>
 </sst>
 </file>
@@ -2206,7 +2215,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="2" fontId="4" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
@@ -2303,6 +2312,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Excel Built-in Heading 1" xfId="3" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -2692,8 +2705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2713,7 +2726,7 @@
   <sheetData>
     <row r="1" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="69" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="E1" s="70"/>
       <c r="F1" s="70"/>
@@ -2732,10 +2745,10 @@
         <v>3</v>
       </c>
       <c r="E2" s="55" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="F2" s="55" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>6</v>
@@ -2775,10 +2788,10 @@
         <v>15000</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -2789,24 +2802,24 @@
     </row>
     <row r="6" spans="1:9" s="6" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E6" s="57"/>
       <c r="F6" s="57"/>
     </row>
     <row r="7" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E7" s="57"/>
       <c r="F7" s="57"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D8" s="3">
         <v>1</v>
@@ -2819,10 +2832,10 @@
         <v>25000</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
     </row>
     <row r="9" spans="1:9" s="6" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -2833,14 +2846,14 @@
       <c r="F9" s="57"/>
     </row>
     <row r="10" spans="1:9" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="84" t="s">
+        <v>600</v>
+      </c>
+      <c r="B10" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="29" t="s">
-        <v>19</v>
-      </c>
       <c r="C10" s="29" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="D10" s="29">
         <v>0</v>
@@ -2853,21 +2866,21 @@
         <v>0</v>
       </c>
       <c r="G10" s="29" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="I10" s="29" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="29" t="s">
         <v>20</v>
-      </c>
-      <c r="B11" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="29" t="s">
-        <v>21</v>
       </c>
       <c r="D11" s="29">
         <v>0</v>
@@ -2880,21 +2893,21 @@
         <v>0</v>
       </c>
       <c r="G11" s="29" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="I11" s="29" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="12" spans="1:9" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="29" t="s">
         <v>22</v>
-      </c>
-      <c r="B12" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="29" t="s">
-        <v>23</v>
       </c>
       <c r="D12" s="29">
         <v>0</v>
@@ -2907,7 +2920,7 @@
         <v>0</v>
       </c>
       <c r="G12" s="29" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="H12" s="29" t="s">
         <v>13</v>
@@ -2915,13 +2928,13 @@
     </row>
     <row r="13" spans="1:9" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13" s="29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D13" s="29">
         <v>0</v>
@@ -2934,24 +2947,24 @@
         <v>0</v>
       </c>
       <c r="G13" s="29" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="H13" s="29" t="s">
         <v>13</v>
       </c>
       <c r="I13" s="29" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="14" spans="1:9" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="29" t="s">
         <v>25</v>
-      </c>
-      <c r="B14" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="29" t="s">
-        <v>26</v>
       </c>
       <c r="D14" s="29">
         <v>0</v>
@@ -2964,21 +2977,21 @@
         <v>0</v>
       </c>
       <c r="G14" s="29" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="I14" s="29" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="15" spans="1:9" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A15" s="29" t="s">
-        <v>27</v>
+      <c r="A15" s="85" t="s">
+        <v>601</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C15" s="29" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D15" s="29">
         <v>0</v>
@@ -2991,21 +3004,21 @@
         <v>0</v>
       </c>
       <c r="G15" s="29" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="I15" s="29" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="16" spans="1:9" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="B16" s="29" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C16" s="29" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="D16" s="29">
         <v>0</v>
@@ -3018,21 +3031,21 @@
         <v>0</v>
       </c>
       <c r="G16" s="29" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="I16" s="29" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="17" spans="1:9" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B17" s="29" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C17" s="29" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D17" s="29">
         <v>0</v>
@@ -3045,21 +3058,21 @@
         <v>0</v>
       </c>
       <c r="G17" s="29" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="I17" s="29" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="18" spans="1:9" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A18" s="54" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B18" s="29" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D18" s="29">
         <v>0</v>
@@ -3072,21 +3085,21 @@
         <v>0</v>
       </c>
       <c r="G18" s="29" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="I18" s="29" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="D19" s="4">
         <v>1</v>
@@ -3099,7 +3112,7 @@
         <v>19965</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -3110,13 +3123,13 @@
     </row>
     <row r="21" spans="1:9" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A21" s="29" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B21" s="29" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C21" s="29" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D21" s="29">
         <v>0</v>
@@ -3129,21 +3142,21 @@
         <v>0</v>
       </c>
       <c r="G21" s="29" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="I21" s="29" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="22" spans="1:9" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A22" s="54" t="s">
-        <v>34</v>
+      <c r="A22" s="86" t="s">
+        <v>602</v>
       </c>
       <c r="B22" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="29" t="s">
-        <v>35</v>
+        <v>18</v>
+      </c>
+      <c r="C22" s="87" t="s">
+        <v>603</v>
       </c>
       <c r="D22" s="29">
         <v>0</v>
@@ -3156,21 +3169,21 @@
         <v>0</v>
       </c>
       <c r="G22" s="29" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="I22" s="29" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="23" spans="1:9" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="D23" s="4">
         <v>1</v>
@@ -3183,7 +3196,7 @@
         <v>6900</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="24" spans="1:9" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -3192,13 +3205,13 @@
     </row>
     <row r="25" spans="1:9" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="D25" s="4">
         <v>1</v>
@@ -3210,21 +3223,21 @@
         <v>0</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
     </row>
     <row r="26" spans="1:9" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="D26" s="4">
         <v>0</v>
@@ -3236,21 +3249,21 @@
         <v>1740</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="D27" s="3">
         <v>5</v>
@@ -3263,28 +3276,28 @@
         <v>135</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
     </row>
     <row r="28" spans="1:9" s="6" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="E28" s="57"/>
       <c r="F28" s="57"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D29" s="3">
         <v>2</v>
@@ -3297,21 +3310,21 @@
         <v>140</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D30" s="3">
         <v>6</v>
@@ -3324,21 +3337,21 @@
         <v>216</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="26" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="D31" s="3">
         <v>1</v>
@@ -3351,21 +3364,21 @@
         <v>6</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="26" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="D32" s="3">
         <v>1</v>
@@ -3378,21 +3391,21 @@
         <v>9</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="26" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D33" s="3">
         <v>1</v>
@@ -3405,21 +3418,21 @@
         <v>43</v>
       </c>
       <c r="G33" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="I33" s="3" t="s">
         <v>241</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="26" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D34" s="3">
         <v>1</v>
@@ -3432,21 +3445,21 @@
         <v>29</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="26" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="D35" s="3">
         <v>1</v>
@@ -3459,21 +3472,21 @@
         <v>195</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="36" spans="1:9" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="83" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="D36" s="4">
         <v>1</v>
@@ -3486,32 +3499,32 @@
         <v>10</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
     </row>
     <row r="37" spans="1:9" s="12" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A37" s="11" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E37" s="60"/>
       <c r="F37" s="60"/>
     </row>
     <row r="38" spans="1:9" s="12" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="13" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="E38" s="60"/>
       <c r="F38" s="60"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C39" s="3" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="D39" s="3">
         <v>1</v>
       </c>
       <c r="E39" s="56" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="F39" s="56">
         <v>0</v>
@@ -3519,20 +3532,20 @@
     </row>
     <row r="40" spans="1:9" s="6" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E40" s="57"/>
       <c r="F40" s="57"/>
     </row>
     <row r="41" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="76" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="B41" s="41" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C41" s="41" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="D41" s="41">
         <v>1</v>
@@ -3545,21 +3558,21 @@
         <v>728</v>
       </c>
       <c r="G41" s="41" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="I41" s="41" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
     </row>
     <row r="42" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="76" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="B42" s="41" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C42" s="41" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="D42" s="41">
         <v>1</v>
@@ -3571,21 +3584,21 @@
         <v>33</v>
       </c>
       <c r="G42" s="41" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="I42" s="41" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D43" s="3">
         <v>2</v>
@@ -3598,24 +3611,24 @@
         <v>62</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H43" s="78" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D44" s="3">
         <v>2</v>
@@ -3628,24 +3641,24 @@
         <v>198</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H44" s="78" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D45" s="3">
         <v>2</v>
@@ -3658,24 +3671,24 @@
         <v>34</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H45" s="78" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="D46" s="3">
         <v>2</v>
@@ -3688,24 +3701,24 @@
         <v>24</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H46" s="78" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="D47" s="3">
         <v>2</v>
@@ -3718,24 +3731,24 @@
         <v>24</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H47" s="78" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="D48" s="3">
         <v>2</v>
@@ -3748,24 +3761,24 @@
         <v>28</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H48" s="78" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="D49" s="3">
         <v>2</v>
@@ -3777,21 +3790,21 @@
         <v>36.825499200000003</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="D50" s="3">
         <v>2</v>
@@ -3804,21 +3817,21 @@
         <v>1870</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="51" spans="1:9" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D51" s="4">
         <v>2</v>
@@ -3831,24 +3844,24 @@
         <v>730</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="D52" s="3">
         <v>1</v>
@@ -3861,24 +3874,24 @@
         <v>40</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D53" s="3">
         <v>2</v>
@@ -3891,21 +3904,21 @@
         <v>180</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D54" s="3">
         <v>2</v>
@@ -3918,21 +3931,21 @@
         <v>36</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D55" s="3">
         <v>2</v>
@@ -3945,24 +3958,24 @@
         <v>42.42</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D56" s="3">
         <v>2</v>
@@ -3975,21 +3988,21 @@
         <v>26</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D57" s="3">
         <v>4</v>
@@ -4002,24 +4015,24 @@
         <v>756</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D58" s="3">
         <v>4</v>
@@ -4032,24 +4045,24 @@
         <v>440</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D59" s="3">
         <v>8</v>
@@ -4062,24 +4075,24 @@
         <v>128</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="9" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="D60" s="3">
         <v>4</v>
@@ -4092,24 +4105,24 @@
         <v>416</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="9" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D61" s="3">
         <v>2</v>
@@ -4122,24 +4135,24 @@
         <v>82</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="9" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="D62" s="3">
         <v>2</v>
@@ -4152,24 +4165,24 @@
         <v>34</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="9" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="D63" s="3">
         <v>4</v>
@@ -4182,24 +4195,24 @@
         <v>28</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="9" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="D64" s="3">
         <v>4</v>
@@ -4212,13 +4225,13 @@
         <v>20</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="65" spans="1:10" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -4226,10 +4239,10 @@
         <v>91863</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D65" s="4">
         <v>2</v>
@@ -4242,24 +4255,24 @@
         <v>800</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="I65" s="4" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
     </row>
     <row r="66" spans="1:10" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="C66" s="49" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D66" s="4">
         <v>2</v>
@@ -4272,24 +4285,24 @@
         <v>600</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="I66" s="4" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
     </row>
     <row r="67" spans="1:10" s="45" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A67" s="46" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="B67" s="45" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C67" s="46" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="D67" s="45">
         <v>0</v>
@@ -4302,25 +4315,25 @@
         <v>0</v>
       </c>
       <c r="G67" s="45" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H67" s="45" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="I67" s="45" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="J67" s="74"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="9" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D68" s="3">
         <v>2</v>
@@ -4333,24 +4346,24 @@
         <v>184</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
     </row>
     <row r="69" spans="1:10" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" s="10" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C69" s="73" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D69" s="4">
         <v>2</v>
@@ -4363,24 +4376,24 @@
         <v>2</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="I69" s="4" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="9" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="D70" s="3">
         <v>4</v>
@@ -4393,24 +4406,24 @@
         <v>28</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="9" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D71" s="3">
         <v>2</v>
@@ -4423,21 +4436,21 @@
         <v>16</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="9" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D72" s="3">
         <v>4</v>
@@ -4450,24 +4463,24 @@
         <v>20</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="9" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="D73" s="3">
         <v>2</v>
@@ -4480,21 +4493,21 @@
         <v>10</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H73" s="3" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="9" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D74" s="3">
         <v>2</v>
@@ -4507,24 +4520,24 @@
         <v>10</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
     </row>
     <row r="75" spans="1:10" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="23" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C75" s="23" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D75" s="24">
         <v>2</v>
@@ -4537,24 +4550,24 @@
         <v>796</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H75" s="24" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="I75" s="24" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
     </row>
     <row r="76" spans="1:10" s="79" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A76" s="47" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="C76" s="47" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="D76" s="79">
         <v>2</v>
@@ -4566,24 +4579,24 @@
         <v>0</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H76" s="79" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="I76" s="79" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
     </row>
     <row r="77" spans="1:10" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="23" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C77" s="23" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D77" s="24">
         <v>2</v>
@@ -4596,24 +4609,24 @@
         <v>60</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H77" s="24" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="I77" s="24" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="78" spans="1:10" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A78" s="10" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="D78" s="4">
         <v>2</v>
@@ -4625,24 +4638,24 @@
         <v>0</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H78" s="4" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="I78" s="4" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
     </row>
     <row r="79" spans="1:10" s="45" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A79" s="46" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="B79" s="45" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C79" s="46" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="D79" s="45">
         <v>0</v>
@@ -4655,24 +4668,24 @@
         <v>0</v>
       </c>
       <c r="G79" s="45" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H79" s="45" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="I79" s="45" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="9" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="D80" s="3">
         <v>2</v>
@@ -4685,24 +4698,24 @@
         <v>64</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H80" s="3" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="I80" s="3" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="9" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C81" s="82" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="D81" s="3">
         <v>2</v>
@@ -4715,24 +4728,24 @@
         <v>72</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H81" s="3" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="I81" s="3" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="9" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D82" s="3">
         <v>2</v>
@@ -4745,24 +4758,24 @@
         <v>4208</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H82" s="3" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="I82" s="3" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="9" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="D83" s="3">
         <v>2</v>
@@ -4775,24 +4788,24 @@
         <v>164</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H83" s="3" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="I83" s="3" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="27" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="D84" s="3">
         <v>1</v>
@@ -4805,24 +4818,24 @@
         <v>520</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H84" s="3" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="I84" s="3" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="85" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="27" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="B85" s="20" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C85" s="27" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="D85" s="20">
         <v>2</v>
@@ -4835,24 +4848,24 @@
         <v>296</v>
       </c>
       <c r="G85" s="20" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H85" s="20" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="I85" s="20" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A86" s="10" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="D86" s="3">
         <v>14</v>
@@ -4864,24 +4877,24 @@
         <v>0</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H86" s="3" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="I86" s="4" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
     </row>
     <row r="87" spans="1:9" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A87" s="10" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="D87" s="4">
         <v>1</v>
@@ -4894,24 +4907,24 @@
         <v>10</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H87" s="4" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="I87" s="4" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="9" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="D88" s="3">
         <v>0</v>
@@ -4924,49 +4937,49 @@
         <v>0</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H88" s="3" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="I88" s="3" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
     </row>
     <row r="89" spans="1:9" s="6" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A89" s="5" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="E89" s="57"/>
       <c r="F89" s="57"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D90" s="3">
         <v>1</v>
       </c>
       <c r="E90" s="58"/>
       <c r="I90" s="3" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="9" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D91" s="3">
         <v>1</v>
@@ -4981,13 +4994,13 @@
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="25" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D92" s="3">
         <v>2</v>
@@ -5002,31 +5015,31 @@
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C93" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="B93" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="D93" s="3">
         <v>1</v>
       </c>
       <c r="E93" s="58"/>
       <c r="I93" s="3" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="94" spans="1:9" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A94" s="4" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="D94" s="4">
         <v>5</v>
@@ -5038,32 +5051,32 @@
         <v>5</v>
       </c>
       <c r="I94" s="4" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
     </row>
     <row r="95" spans="1:9" s="6" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A95" s="5" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="E95" s="57"/>
       <c r="F95" s="57"/>
     </row>
     <row r="96" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="E96" s="57"/>
       <c r="F96" s="57"/>
     </row>
     <row r="97" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C97" s="52" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="D97" s="3">
         <v>1</v>
@@ -5076,19 +5089,19 @@
         <v>200</v>
       </c>
       <c r="I97" s="3" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="J97" s="4"/>
     </row>
     <row r="98" spans="1:10" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A98" s="4" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="D98" s="4">
         <v>5</v>
@@ -5100,18 +5113,18 @@
         <v>5</v>
       </c>
       <c r="I98" s="4" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="D99" s="3">
         <v>1</v>
@@ -5124,18 +5137,18 @@
         <v>26</v>
       </c>
       <c r="I99" s="3" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="D100" s="3">
         <v>1</v>
@@ -5148,18 +5161,18 @@
         <v>37</v>
       </c>
       <c r="I100" s="3" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="D101" s="3">
         <v>2</v>
@@ -5172,32 +5185,32 @@
         <v>48</v>
       </c>
       <c r="I101" s="3" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
     </row>
     <row r="102" spans="1:10" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A102" s="43" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E102" s="66"/>
       <c r="F102" s="66"/>
     </row>
     <row r="103" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="15" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="E103" s="66"/>
       <c r="F103" s="66"/>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="D104" s="3">
         <v>1</v>
@@ -5213,25 +5226,25 @@
         <v>13</v>
       </c>
       <c r="I104" s="3" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="105" spans="1:10" s="18" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A105" s="17" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="E105" s="67"/>
       <c r="F105" s="67"/>
     </row>
     <row r="106" spans="1:10" s="20" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A106" s="21" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="B106" s="20" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C106" s="71" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="D106" s="20">
         <v>1</v>
@@ -5247,18 +5260,18 @@
         <v>13</v>
       </c>
       <c r="I106" s="20" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="107" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A107" s="22" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="B107" s="20" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C107" s="72" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="D107" s="3">
         <v>1</v>
@@ -5275,18 +5288,18 @@
       </c>
       <c r="H107" s="20"/>
       <c r="I107" s="3" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="108" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A108" s="22" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="B108" s="20" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C108" s="72" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="D108" s="3">
         <v>0</v>
@@ -5303,18 +5316,18 @@
       </c>
       <c r="H108" s="20"/>
       <c r="I108" s="3" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="109" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="B109" s="20" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C109" s="72" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="D109" s="3">
         <v>1</v>
@@ -5331,18 +5344,18 @@
       </c>
       <c r="H109" s="20"/>
       <c r="I109" s="3" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="110" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A110" s="3" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="B110" s="20" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C110" s="72" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="D110" s="3">
         <v>0</v>
@@ -5359,18 +5372,18 @@
       </c>
       <c r="H110" s="20"/>
       <c r="I110" s="3" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="B111" s="20" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="D111" s="3">
         <v>1</v>
@@ -5387,18 +5400,18 @@
       </c>
       <c r="H111" s="20"/>
       <c r="I111" s="3" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="B112" s="20" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C112" s="28" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="D112" s="3">
         <v>1</v>
@@ -5415,25 +5428,25 @@
       </c>
       <c r="H112" s="20"/>
       <c r="I112" s="3" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
     </row>
     <row r="113" spans="1:9" s="18" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A113" s="17" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="E113" s="67"/>
       <c r="F113" s="67"/>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="B114" s="20" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C114" s="53" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="D114" s="3">
         <v>1</v>
@@ -5449,18 +5462,18 @@
         <v>13</v>
       </c>
       <c r="I114" s="3" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="115" spans="1:9" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A115" s="4" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B115" s="49" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D115" s="4">
         <v>5</v>
@@ -5475,18 +5488,18 @@
         <v>13</v>
       </c>
       <c r="I115" s="4" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B116" s="20" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="D116" s="3">
         <v>1</v>
@@ -5502,18 +5515,18 @@
         <v>13</v>
       </c>
       <c r="I116" s="3" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="B117" s="20" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D117" s="3">
         <v>1</v>
@@ -5529,18 +5542,18 @@
         <v>13</v>
       </c>
       <c r="I117" s="3" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B118" s="20" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="D118" s="3">
         <v>1</v>
@@ -5556,18 +5569,18 @@
         <v>13</v>
       </c>
       <c r="I118" s="3" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="119" spans="1:9" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A119" s="4" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="B119" s="49" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="D119" s="4">
         <v>5</v>
@@ -5583,25 +5596,25 @@
         <v>13</v>
       </c>
       <c r="I119" s="4" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
     </row>
     <row r="120" spans="1:9" s="6" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A120" s="5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E120" s="57"/>
       <c r="F120" s="57"/>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D121" s="3">
         <v>1</v>
@@ -5614,21 +5627,21 @@
         <v>5420</v>
       </c>
       <c r="G121" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="I121" s="3" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D122" s="3">
         <v>1</v>
@@ -5641,21 +5654,21 @@
         <v>2560</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="I122" s="3" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="D123" s="3">
         <v>1</v>
@@ -5668,21 +5681,21 @@
         <v>900</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="I123" s="3" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D124" s="3">
         <v>1</v>
@@ -5695,21 +5708,21 @@
         <v>163</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="I124" s="3" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D125" s="3">
         <v>1</v>
@@ -5722,18 +5735,18 @@
         <v>11</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D126" s="3">
         <v>1</v>
@@ -5746,18 +5759,18 @@
         <v>520</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D127" s="3">
         <v>1</v>
@@ -5770,18 +5783,18 @@
         <v>193</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="D128" s="3">
         <v>10</v>
@@ -5794,21 +5807,21 @@
         <v>120</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="I128" s="3" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="D129" s="3">
         <v>1</v>
@@ -5821,21 +5834,21 @@
         <v>14</v>
       </c>
       <c r="G129" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="I129" s="3" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D130" s="3">
         <v>5</v>
@@ -5848,18 +5861,18 @@
         <v>76.25</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D131" s="3">
         <v>10</v>
@@ -5872,18 +5885,18 @@
         <v>165</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D132" s="3">
         <v>10</v>
@@ -5896,18 +5909,18 @@
         <v>240</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D133" s="3">
         <v>6</v>
@@ -5920,18 +5933,18 @@
         <v>144</v>
       </c>
       <c r="G133" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" s="26" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="D134" s="3">
         <v>1</v>
@@ -5944,10 +5957,10 @@
         <v>11</v>
       </c>
       <c r="G134" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="I134" s="3" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
     </row>
     <row r="136" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -5957,20 +5970,20 @@
     </row>
     <row r="137" spans="1:9" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A137" s="7" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="E137" s="57"/>
       <c r="F137" s="57"/>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="D138" s="3">
         <v>2</v>
@@ -5985,13 +5998,13 @@
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D139" s="3">
         <v>1</v>
@@ -6006,13 +6019,13 @@
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D140" s="3">
         <v>2</v>
@@ -6025,18 +6038,18 @@
         <v>64</v>
       </c>
       <c r="I140" s="3" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D141" s="3">
         <v>2</v>
@@ -6051,13 +6064,13 @@
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D142" s="3">
         <v>1</v>
@@ -6070,18 +6083,18 @@
         <v>60</v>
       </c>
       <c r="I142" s="3" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D143" s="3">
         <v>1</v>
@@ -6096,13 +6109,13 @@
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D144" s="3">
         <v>1</v>
@@ -6117,13 +6130,13 @@
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D145" s="3">
         <v>1</v>
@@ -6138,13 +6151,13 @@
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D146" s="3">
         <v>1</v>
@@ -6159,13 +6172,13 @@
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D147" s="3">
         <v>1</v>
@@ -6180,13 +6193,13 @@
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D148" s="3">
         <v>2</v>
@@ -6201,13 +6214,13 @@
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="D149" s="3">
         <v>1</v>
@@ -6222,13 +6235,13 @@
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D150" s="3">
         <v>2</v>
@@ -6243,13 +6256,13 @@
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D151" s="3">
         <v>1</v>
@@ -6264,13 +6277,13 @@
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D152" s="3">
         <v>1</v>
@@ -6285,13 +6298,13 @@
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D153" s="3">
         <v>2</v>
@@ -6306,13 +6319,13 @@
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="D154" s="3">
         <v>1</v>
@@ -6325,18 +6338,18 @@
         <v>490</v>
       </c>
       <c r="I154" s="3" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
     </row>
     <row r="155" spans="1:9" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A155" s="29" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B155" s="29" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C155" s="29" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="D155" s="29">
         <v>1</v>
@@ -6349,18 +6362,18 @@
         <v>77</v>
       </c>
       <c r="I155" s="29" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
     </row>
     <row r="156" spans="1:9" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A156" s="29" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B156" s="29" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C156" s="29" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="D156" s="29">
         <v>1</v>
@@ -6373,18 +6386,18 @@
         <v>20</v>
       </c>
       <c r="I156" s="29" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
     </row>
     <row r="157" spans="1:9" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A157" s="29" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B157" s="29" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C157" s="29" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D157" s="29">
         <v>1</v>
@@ -6397,18 +6410,18 @@
         <v>177</v>
       </c>
       <c r="I157" s="29" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="D158" s="3">
         <v>2</v>
@@ -6421,18 +6434,18 @@
         <v>26</v>
       </c>
       <c r="I158" s="3" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="D159" s="3">
         <v>2</v>
@@ -6445,18 +6458,18 @@
         <v>38</v>
       </c>
       <c r="I159" s="3" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="D160" s="3">
         <v>1</v>
@@ -6469,18 +6482,18 @@
         <v>12</v>
       </c>
       <c r="I160" s="3" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D161" s="3">
         <v>2</v>
@@ -6493,18 +6506,18 @@
         <v>70</v>
       </c>
       <c r="I161" s="3" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="D162" s="3">
         <v>2</v>
@@ -6517,18 +6530,18 @@
         <v>18</v>
       </c>
       <c r="I162" s="3" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="D163" s="3">
         <v>0</v>
@@ -6541,12 +6554,12 @@
         <v>0</v>
       </c>
       <c r="I163" s="3" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C164" s="3" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D164" s="3">
         <v>4</v>
@@ -6554,18 +6567,18 @@
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C165" s="3" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D165" s="3">
         <v>1</v>
       </c>
       <c r="I165" s="3" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C166" s="3" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D166" s="3">
         <v>1</v>
@@ -6573,10 +6586,10 @@
     </row>
     <row r="168" spans="1:10" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A168" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="E168" s="57"/>
       <c r="F168" s="57"/>
@@ -6584,10 +6597,10 @@
     <row r="169" spans="1:10" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A169" s="3"/>
       <c r="B169" s="3" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="C169" s="20" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D169" s="3">
         <v>4</v>
@@ -6600,22 +6613,22 @@
         <v>160</v>
       </c>
       <c r="G169" s="3" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="H169" s="3" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="I169" s="3" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="J169" s="20"/>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B170" s="3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="D170" s="3">
         <v>2</v>
@@ -6628,15 +6641,15 @@
         <v>1030</v>
       </c>
       <c r="G170" s="3" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B171" s="3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="D171" s="3">
         <v>4</v>
@@ -6649,15 +6662,15 @@
         <v>100</v>
       </c>
       <c r="G171" s="3" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B172" s="3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D172" s="3">
         <v>4</v>
@@ -6670,15 +6683,15 @@
         <v>112</v>
       </c>
       <c r="G172" s="3" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B173" s="3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D173" s="3">
         <v>6</v>
@@ -6691,210 +6704,210 @@
         <v>729</v>
       </c>
       <c r="G173" s="3" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
     </row>
     <row r="176" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E176" s="51" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="F176" s="51">
         <f>SUM(F3:F174)</f>
         <v>103251.75149919999</v>
       </c>
       <c r="G176" s="3" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A180" s="50" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A181" s="4" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="3" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="B182" s="3">
         <v>14</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="3" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="B183" s="3">
         <v>2</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="B184" s="3">
         <v>2</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" s="3" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="B185" s="3">
         <v>2</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
     </row>
     <row r="188" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A188" s="50" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
     </row>
     <row r="189" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A189" s="4" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" s="3" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="B190" s="3">
         <v>2</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
     </row>
     <row r="191" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A191" s="3" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B191" s="3">
         <v>5</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" s="3" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B192" s="3">
         <v>1</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" s="3" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="B193" s="3">
         <v>1</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" s="3" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="B194" s="3">
         <v>1</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" s="3" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="B195" s="3">
         <v>1</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
     </row>
     <row r="198" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A198" s="50" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="199" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A199" s="4" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" s="3" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="B200" s="3">
         <v>5</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" s="3" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B201" s="3">
         <v>3</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" s="3" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
     </row>
   </sheetData>
@@ -6917,8 +6930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J83"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6963,7 +6976,7 @@
     </row>
     <row r="2" spans="1:9" s="6" customFormat="1" ht="18" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
@@ -6973,7 +6986,7 @@
         <v>1008062</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C3" s="29" t="s">
         <v>16</v>
@@ -6989,15 +7002,15 @@
         <v>7400</v>
       </c>
       <c r="I3" s="29" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B4" s="29" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D4" s="29">
         <v>1</v>
@@ -7010,15 +7023,15 @@
         <v>20000</v>
       </c>
       <c r="I4" s="29" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B5" s="29" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="D5" s="29">
         <v>1</v>
@@ -7030,23 +7043,27 @@
         <v>50000</v>
       </c>
       <c r="I5" s="29" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25"/>
+        <v>388</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B6" s="29" t="s">
+        <v>604</v>
+      </c>
+    </row>
     <row r="7" spans="1:9" s="6" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
     </row>
     <row r="8" spans="1:9" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B8" s="29" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D8" s="29">
         <v>1</v>
@@ -7059,27 +7076,31 @@
         <v>25000</v>
       </c>
       <c r="I8" s="29" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25"/>
+        <v>387</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B9" s="29" t="s">
+        <v>605</v>
+      </c>
+    </row>
     <row r="10" spans="1:9" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:9" s="18" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A11" s="17" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="E11" s="19"/>
       <c r="F11" s="19"/>
     </row>
     <row r="12" spans="1:9" s="29" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A12" s="29" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="D12" s="29">
         <v>1</v>
@@ -7095,21 +7116,21 @@
         <v>13</v>
       </c>
       <c r="H12" s="29" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="I12" s="29" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="13" spans="1:9" s="29" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A13" s="29" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B13" s="30" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="D13" s="29">
         <v>1</v>
@@ -7125,21 +7146,21 @@
         <v>13</v>
       </c>
       <c r="H13" s="29" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="I13" s="29" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="14" spans="1:9" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="B14" s="30" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C14" s="29" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="D14" s="29">
         <v>1</v>
@@ -7155,21 +7176,21 @@
         <v>13</v>
       </c>
       <c r="H14" s="29" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="I14" s="29" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="15" spans="1:9" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="B15" s="30" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C15" s="29" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="D15" s="29">
         <v>1</v>
@@ -7185,21 +7206,21 @@
         <v>13</v>
       </c>
       <c r="H15" s="29" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="I15" s="29" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="16" spans="1:9" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A16" s="33" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B16" s="30" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C16" s="33" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D16" s="30">
         <v>1</v>
@@ -7215,32 +7236,32 @@
         <v>13</v>
       </c>
       <c r="H16" s="30" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="I16" s="30" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="17" spans="1:10" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
     </row>
     <row r="18" spans="1:10" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
     </row>
     <row r="19" spans="1:10" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>14</v>
@@ -7265,13 +7286,13 @@
     </row>
     <row r="20" spans="1:10" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>256</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>260</v>
       </c>
       <c r="D20" s="3">
         <v>1</v>
@@ -7293,13 +7314,13 @@
     </row>
     <row r="21" spans="1:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D21" s="3">
         <v>1</v>
@@ -7320,13 +7341,13 @@
     </row>
     <row r="22" spans="1:10" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="D22" s="3">
         <v>1</v>
@@ -7334,32 +7355,32 @@
       <c r="E22" s="42"/>
       <c r="F22" s="42"/>
       <c r="I22" s="3" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="24" spans="1:10" s="6" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
     </row>
     <row r="25" spans="1:10" s="38" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A25" s="37" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="E25" s="39"/>
       <c r="F25" s="39"/>
     </row>
     <row r="26" spans="1:10" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A26" s="33" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B26" s="30" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C26" s="33" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="D26" s="30">
         <v>2</v>
@@ -7372,24 +7393,24 @@
         <v>10</v>
       </c>
       <c r="G26" s="30" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H26" s="30" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="I26" s="30" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="27" spans="1:10" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A27" s="33" t="s">
+        <v>285</v>
+      </c>
+      <c r="B27" s="30" t="s">
+        <v>250</v>
+      </c>
+      <c r="C27" s="33" t="s">
         <v>289</v>
-      </c>
-      <c r="B27" s="30" t="s">
-        <v>254</v>
-      </c>
-      <c r="C27" s="33" t="s">
-        <v>293</v>
       </c>
       <c r="D27" s="30">
         <v>2</v>
@@ -7402,24 +7423,24 @@
         <v>124</v>
       </c>
       <c r="G27" s="30" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H27" s="30" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="I27" s="30" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="28" spans="1:10" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A28" s="33" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B28" s="30" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C28" s="33" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D28" s="30">
         <v>8</v>
@@ -7432,24 +7453,24 @@
         <v>8</v>
       </c>
       <c r="G28" s="30" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H28" s="30" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="I28" s="30" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="29" spans="1:10" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A29" s="33" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B29" s="30" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C29" s="33" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="D29" s="30">
         <v>6</v>
@@ -7462,21 +7483,21 @@
         <v>36</v>
       </c>
       <c r="G29" s="30" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H29" s="30" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="30" spans="1:10" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A30" s="33" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B30" s="30" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C30" s="33" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="D30" s="30">
         <v>2</v>
@@ -7489,24 +7510,24 @@
         <v>2</v>
       </c>
       <c r="G30" s="30" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H30" s="30" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="I30" s="30" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="31" spans="1:10" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A31" s="36" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B31" s="30" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C31" s="33" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="D31" s="30">
         <v>1</v>
@@ -7519,24 +7540,24 @@
         <v>2</v>
       </c>
       <c r="G31" s="30" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H31" s="30" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="I31" s="30" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="32" spans="1:10" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A32" s="36" t="s">
+        <v>287</v>
+      </c>
+      <c r="B32" s="30" t="s">
+        <v>250</v>
+      </c>
+      <c r="C32" s="33" t="s">
         <v>291</v>
-      </c>
-      <c r="B32" s="30" t="s">
-        <v>254</v>
-      </c>
-      <c r="C32" s="33" t="s">
-        <v>295</v>
       </c>
       <c r="D32" s="30">
         <v>1</v>
@@ -7549,24 +7570,24 @@
         <v>15</v>
       </c>
       <c r="G32" s="30" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H32" s="30" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="I32" s="30" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="33" spans="1:9" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A33" s="33" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B33" s="30" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C33" s="33" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D33" s="30">
         <v>2</v>
@@ -7579,28 +7600,28 @@
         <v>50</v>
       </c>
       <c r="G33" s="30" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H33" s="30" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="37" spans="1:9" s="6" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
     </row>
     <row r="38" spans="1:9" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A38" s="29" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B38" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38" s="29" t="s">
         <v>47</v>
-      </c>
-      <c r="C38" s="29" t="s">
-        <v>51</v>
       </c>
       <c r="D38" s="29">
         <v>1</v>
@@ -7613,15 +7634,20 @@
         <v>2800</v>
       </c>
       <c r="G38" s="29" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="I38" s="29" t="s">
-        <v>341</v>
+        <v>337</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>606</v>
       </c>
     </row>
     <row r="42" spans="1:9" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C42" s="6"/>
       <c r="E42" s="14"/>
@@ -7629,13 +7655,13 @@
     </row>
     <row r="43" spans="1:9" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A43" s="29" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B43" s="29" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C43" s="29" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D43" s="29">
         <v>1</v>
@@ -7650,13 +7676,13 @@
     </row>
     <row r="44" spans="1:9" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A44" s="29" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B44" s="29" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C44" s="29" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D44" s="29">
         <v>1</v>
@@ -7671,13 +7697,13 @@
     </row>
     <row r="45" spans="1:9" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A45" s="29" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B45" s="29" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C45" s="29" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D45" s="29">
         <v>1</v>
@@ -7692,13 +7718,13 @@
     </row>
     <row r="46" spans="1:9" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A46" s="29" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B46" s="29" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C46" s="29" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D46" s="29">
         <v>1</v>
@@ -7713,13 +7739,13 @@
     </row>
     <row r="47" spans="1:9" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A47" s="29" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B47" s="29" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C47" s="29" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D47" s="29">
         <v>1</v>
@@ -7734,13 +7760,13 @@
     </row>
     <row r="48" spans="1:9" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A48" s="29" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B48" s="29" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C48" s="29" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D48" s="29">
         <v>1</v>
@@ -7755,13 +7781,13 @@
     </row>
     <row r="49" spans="1:9" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A49" s="29" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B49" s="29" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C49" s="29" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D49" s="29">
         <v>2</v>
@@ -7776,13 +7802,13 @@
     </row>
     <row r="50" spans="1:9" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A50" s="29" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B50" s="29" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C50" s="29" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D50" s="29">
         <v>1</v>
@@ -7795,18 +7821,18 @@
         <v>304.75</v>
       </c>
       <c r="I50" s="29" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="51" spans="1:9" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A51" s="29" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B51" s="29" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C51" s="29" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D51" s="29">
         <v>1</v>
@@ -7819,18 +7845,18 @@
         <v>148.21</v>
       </c>
       <c r="I51" s="29" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="52" spans="1:9" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A52" s="29" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B52" s="29" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C52" s="29" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D52" s="29">
         <v>1</v>
@@ -7843,18 +7869,18 @@
         <v>348.45</v>
       </c>
       <c r="I52" s="29" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="53" spans="1:9" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A53" s="29" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B53" s="29" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C53" s="29" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D53" s="29">
         <v>1</v>
@@ -7869,13 +7895,13 @@
     </row>
     <row r="54" spans="1:9" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A54" s="29" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B54" s="29" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C54" s="29" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D54" s="29">
         <v>1</v>
@@ -7888,18 +7914,18 @@
         <v>34.5</v>
       </c>
       <c r="I54" s="29" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="55" spans="1:9" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A55" s="29" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B55" s="29" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C55" s="29" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D55" s="29">
         <v>1</v>
@@ -7912,18 +7938,18 @@
         <v>51.45</v>
       </c>
       <c r="I55" s="29" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="56" spans="1:9" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A56" s="29" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B56" s="29" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C56" s="29" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D56" s="29">
         <v>2</v>
@@ -7938,13 +7964,13 @@
     </row>
     <row r="57" spans="1:9" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A57" s="29" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B57" s="29" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C57" s="29" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D57" s="29">
         <v>1</v>
@@ -7959,13 +7985,13 @@
     </row>
     <row r="58" spans="1:9" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A58" s="29" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B58" s="29" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C58" s="29" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D58" s="29">
         <v>2</v>
@@ -7978,18 +8004,18 @@
         <v>81.02</v>
       </c>
       <c r="I58" s="29" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="59" spans="1:9" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A59" s="29" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B59" s="29" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C59" s="29" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D59" s="29">
         <v>2</v>
@@ -8002,18 +8028,18 @@
         <v>167.19623200000001</v>
       </c>
       <c r="I59" s="29" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="60" spans="1:9" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A60" s="29" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B60" s="29" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C60" s="29" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D60" s="29">
         <v>4</v>
@@ -8026,18 +8052,18 @@
         <v>280.416</v>
       </c>
       <c r="I60" s="29" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="61" spans="1:9" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A61" s="29" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B61" s="29" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C61" s="29" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D61" s="29">
         <v>2</v>
@@ -8050,18 +8076,18 @@
         <v>57.5</v>
       </c>
       <c r="I61" s="40" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="62" spans="1:9" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A62" s="29" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B62" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="C62" s="29" t="s">
         <v>101</v>
-      </c>
-      <c r="C62" s="29" t="s">
-        <v>105</v>
       </c>
       <c r="D62" s="29">
         <v>2</v>
@@ -8076,10 +8102,10 @@
     </row>
     <row r="63" spans="1:9" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B63" s="29" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C63" s="29" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D63" s="29">
         <v>1</v>
@@ -8092,15 +8118,15 @@
         <v>205</v>
       </c>
       <c r="I63" s="29" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="64" spans="1:9" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B64" s="29" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C64" s="29" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D64" s="29">
         <v>2</v>
@@ -8113,24 +8139,24 @@
         <v>24</v>
       </c>
       <c r="I64" s="29" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="66" spans="1:10" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A66" s="7" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="F66" s="8"/>
     </row>
     <row r="67" spans="1:10" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A67" s="29" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B67" s="29" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C67" s="29" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D67" s="29">
         <v>2</v>
@@ -8143,18 +8169,18 @@
         <v>280</v>
       </c>
       <c r="I67" s="29" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="B68" s="29" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C68" s="29" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="D68" s="29">
         <v>2</v>
@@ -8167,18 +8193,18 @@
         <v>168</v>
       </c>
       <c r="I68" s="29" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B69" s="29" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C69" s="29" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="D69" s="29">
         <v>1</v>
@@ -8191,18 +8217,18 @@
         <v>54</v>
       </c>
       <c r="I69" s="29" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="71" spans="1:10" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A71" s="7" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="F71" s="8"/>
     </row>
     <row r="72" spans="1:10" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A72" s="29" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="C72" s="30"/>
       <c r="E72" s="32"/>
@@ -8211,7 +8237,7 @@
     </row>
     <row r="73" spans="1:10" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A73" s="29" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="C73" s="30"/>
       <c r="E73" s="32"/>
@@ -8226,23 +8252,23 @@
     </row>
     <row r="75" spans="1:10" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A75" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
     </row>
     <row r="76" spans="1:10" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A76" s="29" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="B76" s="29" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C76" s="29" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="D76" s="29">
         <v>1</v>
@@ -8255,18 +8281,18 @@
         <v>518.5</v>
       </c>
       <c r="I76" s="29" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="77" spans="1:10" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A77" s="29" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="B77" s="29" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C77" s="29" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="D77" s="29">
         <v>1</v>
@@ -8281,13 +8307,13 @@
     </row>
     <row r="78" spans="1:10" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A78" s="29" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B78" s="29" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C78" s="29" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D78" s="29">
         <v>1</v>
@@ -8300,18 +8326,18 @@
         <v>816</v>
       </c>
       <c r="I78" s="29" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="79" spans="1:10" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A79" s="29" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B79" s="29" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C79" s="29" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D79" s="29">
         <v>1</v>
@@ -8326,13 +8352,13 @@
     </row>
     <row r="80" spans="1:10" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A80" s="29" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="B80" s="29" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C80" s="29" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="D80" s="29">
         <v>1</v>
@@ -8347,13 +8373,13 @@
     </row>
     <row r="81" spans="1:6" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A81" s="29" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B81" s="29" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C81" s="29" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="D81" s="29">
         <v>1</v>
@@ -8368,13 +8394,13 @@
     </row>
     <row r="82" spans="1:6" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A82" s="29" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B82" s="29" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C82" s="29" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="D82" s="29">
         <v>1</v>
@@ -8389,13 +8415,13 @@
     </row>
     <row r="83" spans="1:6" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A83" s="29" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B83" s="29" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C83" s="29" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="D83" s="29">
         <v>1</v>

--- a/Benchtop-2024(default-version)/parts-list/Benchtop-partslist-latest.xlsx
+++ b/Benchtop-2024(default-version)/parts-list/Benchtop-partslist-latest.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nikita\Documents\GitHub\mesoSPIM-bt-hardware\Benchtop-2024(default-version)\parts-list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C155FACD-69CA-4C2F-A286-0D993D317F0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FF312D3-3BEC-47D0-B8F1-5AC10A8C615C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="34560" windowHeight="18600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -2215,7 +2215,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="2" fontId="4" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
@@ -2312,10 +2312,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Excel Built-in Heading 1" xfId="3" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -2705,8 +2701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J202"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2846,7 +2842,7 @@
       <c r="F9" s="57"/>
     </row>
     <row r="10" spans="1:9" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A10" s="84" t="s">
+      <c r="A10" s="29" t="s">
         <v>600</v>
       </c>
       <c r="B10" s="29" t="s">
@@ -2984,7 +2980,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A15" s="85" t="s">
+      <c r="A15" s="29" t="s">
         <v>601</v>
       </c>
       <c r="B15" s="29" t="s">
@@ -3149,13 +3145,13 @@
       </c>
     </row>
     <row r="22" spans="1:9" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A22" s="86" t="s">
+      <c r="A22" s="54" t="s">
         <v>602</v>
       </c>
       <c r="B22" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="87" t="s">
+      <c r="C22" s="29" t="s">
         <v>603</v>
       </c>
       <c r="D22" s="29">
@@ -6930,7 +6926,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>

--- a/Benchtop-2024(default-version)/parts-list/Benchtop-partslist-latest.xlsx
+++ b/Benchtop-2024(default-version)/parts-list/Benchtop-partslist-latest.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nikita\Documents\GitHub\mesoSPIM-bt-hardware\Benchtop-2024(default-version)\parts-list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FF312D3-3BEC-47D0-B8F1-5AC10A8C615C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{190D8683-5624-49AD-AAB6-F9BC7C322F8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="34560" windowHeight="18600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8040" yWindow="2676" windowWidth="32484" windowHeight="21096" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="607">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="614">
   <si>
     <t xml:space="preserve">Part # </t>
   </si>
@@ -1850,37 +1850,6 @@
     <t>SM2 Series Extension Tube, 6"</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Recommendations:128 GB RAM, 2 TB or larger SSD </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>NVMe</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> drive, one PCIe x1 (or higher) and one PCIe x4 (or higher) slot.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
     <t>4x: Table mounting for the Y axis (two parallel LS-100 servo actuators Dual-LS100-FTP); 1x: for galvo board heat sink mounting</t>
   </si>
   <si>
@@ -1936,6 +1905,30 @@
   </si>
   <si>
     <t>see more at https://github.com/mesoSPIM/benchtop-hardware/wiki/Electronics</t>
+  </si>
+  <si>
+    <t>CPU</t>
+  </si>
+  <si>
+    <t>RAM</t>
+  </si>
+  <si>
+    <t>128 GB</t>
+  </si>
+  <si>
+    <t>Fast storage</t>
+  </si>
+  <si>
+    <t>IO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">one PCIe x1 (or higher) and one PCIe x4 (or higher) slot. </t>
+  </si>
+  <si>
+    <t>2 TB or more SSD NVMe drive</t>
+  </si>
+  <si>
+    <t>Intel Xeon W-2145 or Intel Core i9-9900K, or similar, high-performance for single-threaded applications</t>
   </si>
 </sst>
 </file>
@@ -2115,7 +2108,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2162,6 +2155,12 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -2215,7 +2214,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="2" fontId="4" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
@@ -2229,7 +2228,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="4" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="4" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="4" applyFont="1" applyProtection="1"/>
     <xf numFmtId="2" fontId="6" fillId="3" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyProtection="1"/>
@@ -2312,6 +2310,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" xfId="4" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" xfId="4" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="1" fontId="9" fillId="9" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Excel Built-in Heading 1" xfId="3" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -2699,10 +2700,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J202"/>
+  <dimension ref="A1:J205"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2711,8 +2712,8 @@
     <col min="2" max="2" width="24.109375" style="3" customWidth="1"/>
     <col min="3" max="3" width="81.77734375" style="3" customWidth="1"/>
     <col min="4" max="4" width="6.44140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="11.21875" style="56" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" style="56" customWidth="1"/>
+    <col min="5" max="5" width="11.21875" style="55" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" style="55" customWidth="1"/>
     <col min="7" max="7" width="17.6640625" style="3" customWidth="1"/>
     <col min="8" max="8" width="24" style="3" customWidth="1"/>
     <col min="9" max="9" width="69.33203125" style="3" customWidth="1"/>
@@ -2720,12 +2721,12 @@
     <col min="11" max="16384" width="8.6640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+    <row r="1" spans="1:9" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="68" t="s">
         <v>445</v>
       </c>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -2734,16 +2735,16 @@
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="15" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="55" t="s">
+      <c r="E2" s="54" t="s">
         <v>441</v>
       </c>
-      <c r="F2" s="55" t="s">
+      <c r="F2" s="54" t="s">
         <v>440</v>
       </c>
       <c r="G2" s="1" t="s">
@@ -2760,8 +2761,8 @@
       <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -2776,10 +2777,10 @@
       <c r="D4" s="3">
         <v>1</v>
       </c>
-      <c r="E4" s="56">
+      <c r="E4" s="55">
         <v>15000</v>
       </c>
-      <c r="F4" s="56">
+      <c r="F4" s="55">
         <f>E4*D4</f>
         <v>15000</v>
       </c>
@@ -2794,21 +2795,21 @@
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
-      <c r="E5" s="58"/>
+      <c r="E5" s="57"/>
     </row>
     <row r="6" spans="1:9" s="6" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
     </row>
     <row r="7" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
@@ -2820,10 +2821,10 @@
       <c r="D8" s="3">
         <v>1</v>
       </c>
-      <c r="E8" s="56">
+      <c r="E8" s="55">
         <v>25000</v>
       </c>
-      <c r="F8" s="56">
+      <c r="F8" s="55">
         <f>D8*E8</f>
         <v>25000</v>
       </c>
@@ -2838,252 +2839,252 @@
       <c r="A9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="57"/>
-      <c r="F9" s="57"/>
-    </row>
-    <row r="10" spans="1:9" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A10" s="29" t="s">
-        <v>600</v>
-      </c>
-      <c r="B10" s="29" t="s">
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+    </row>
+    <row r="10" spans="1:9" s="28" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A10" s="28" t="s">
+        <v>599</v>
+      </c>
+      <c r="B10" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="28" t="s">
         <v>395</v>
       </c>
-      <c r="D10" s="29">
+      <c r="D10" s="28">
         <v>0</v>
       </c>
-      <c r="E10" s="44">
+      <c r="E10" s="43">
         <v>6500</v>
       </c>
-      <c r="F10" s="44">
+      <c r="F10" s="43">
         <f t="shared" ref="F10:F27" si="0">E10*D10</f>
         <v>0</v>
       </c>
-      <c r="G10" s="29" t="s">
+      <c r="G10" s="28" t="s">
         <v>219</v>
       </c>
-      <c r="I10" s="29" t="s">
+      <c r="I10" s="28" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A11" s="29" t="s">
+    <row r="11" spans="1:9" s="28" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A11" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="29">
+      <c r="D11" s="28">
         <v>0</v>
       </c>
-      <c r="E11" s="44">
+      <c r="E11" s="43">
         <v>2250</v>
       </c>
-      <c r="F11" s="44">
+      <c r="F11" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G11" s="29" t="s">
+      <c r="G11" s="28" t="s">
         <v>219</v>
       </c>
-      <c r="I11" s="29" t="s">
+      <c r="I11" s="28" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A12" s="29" t="s">
+    <row r="12" spans="1:9" s="28" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A12" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="29">
+      <c r="D12" s="28">
         <v>0</v>
       </c>
-      <c r="E12" s="44">
+      <c r="E12" s="43">
         <v>160</v>
       </c>
-      <c r="F12" s="44">
+      <c r="F12" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G12" s="29" t="s">
+      <c r="G12" s="28" t="s">
         <v>214</v>
       </c>
-      <c r="H12" s="29" t="s">
+      <c r="H12" s="28" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A13" s="29" t="s">
+    <row r="13" spans="1:9" s="28" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A13" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="29">
+      <c r="D13" s="28">
         <v>0</v>
       </c>
-      <c r="E13" s="44">
+      <c r="E13" s="43">
         <v>2250</v>
       </c>
-      <c r="F13" s="44">
+      <c r="F13" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G13" s="29" t="s">
+      <c r="G13" s="28" t="s">
         <v>214</v>
       </c>
-      <c r="H13" s="29" t="s">
+      <c r="H13" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="I13" s="29" t="s">
+      <c r="I13" s="28" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A14" s="29" t="s">
+    <row r="14" spans="1:9" s="28" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A14" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="29">
+      <c r="D14" s="28">
         <v>0</v>
       </c>
-      <c r="E14" s="44">
+      <c r="E14" s="43">
         <v>230</v>
       </c>
-      <c r="F14" s="44">
+      <c r="F14" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G14" s="29" t="s">
+      <c r="G14" s="28" t="s">
         <v>219</v>
       </c>
-      <c r="I14" s="29" t="s">
+      <c r="I14" s="28" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="15" spans="1:9" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A15" s="29" t="s">
-        <v>601</v>
-      </c>
-      <c r="B15" s="29" t="s">
+    <row r="15" spans="1:9" s="28" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A15" s="28" t="s">
+        <v>600</v>
+      </c>
+      <c r="B15" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="29" t="s">
+      <c r="C15" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="29">
+      <c r="D15" s="28">
         <v>0</v>
       </c>
-      <c r="E15" s="44">
+      <c r="E15" s="43">
         <v>2425</v>
       </c>
-      <c r="F15" s="44">
+      <c r="F15" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G15" s="29" t="s">
+      <c r="G15" s="28" t="s">
         <v>219</v>
       </c>
-      <c r="I15" s="29" t="s">
+      <c r="I15" s="28" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A16" s="29" t="s">
+    <row r="16" spans="1:9" s="28" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A16" s="28" t="s">
         <v>392</v>
       </c>
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="29" t="s">
+      <c r="C16" s="28" t="s">
         <v>393</v>
       </c>
-      <c r="D16" s="29">
+      <c r="D16" s="28">
         <v>0</v>
       </c>
-      <c r="E16" s="44">
+      <c r="E16" s="43">
         <v>3000</v>
       </c>
-      <c r="F16" s="44">
+      <c r="F16" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G16" s="29" t="s">
+      <c r="G16" s="28" t="s">
         <v>219</v>
       </c>
-      <c r="I16" s="29" t="s">
+      <c r="I16" s="28" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="17" spans="1:9" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A17" s="29" t="s">
+    <row r="17" spans="1:9" s="28" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A17" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="29" t="s">
+      <c r="B17" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="29" t="s">
+      <c r="C17" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="29">
+      <c r="D17" s="28">
         <v>0</v>
       </c>
-      <c r="E17" s="44">
+      <c r="E17" s="43">
         <v>150</v>
       </c>
-      <c r="F17" s="44">
+      <c r="F17" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G17" s="29" t="s">
+      <c r="G17" s="28" t="s">
         <v>219</v>
       </c>
-      <c r="I17" s="29" t="s">
+      <c r="I17" s="28" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A18" s="54" t="s">
+    <row r="18" spans="1:9" s="28" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A18" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="29" t="s">
+      <c r="B18" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="29" t="s">
+      <c r="C18" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="29">
+      <c r="D18" s="28">
         <v>0</v>
       </c>
-      <c r="E18" s="44">
+      <c r="E18" s="43">
         <v>3000</v>
       </c>
-      <c r="F18" s="44">
+      <c r="F18" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G18" s="29" t="s">
+      <c r="G18" s="28" t="s">
         <v>212</v>
       </c>
-      <c r="I18" s="29" t="s">
+      <c r="I18" s="28" t="s">
         <v>222</v>
       </c>
     </row>
@@ -3100,10 +3101,10 @@
       <c r="D19" s="4">
         <v>1</v>
       </c>
-      <c r="E19" s="59">
+      <c r="E19" s="58">
         <v>19965</v>
       </c>
-      <c r="F19" s="59">
+      <c r="F19" s="58">
         <f t="shared" si="0"/>
         <v>19965</v>
       </c>
@@ -3117,57 +3118,57 @@
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
     </row>
-    <row r="21" spans="1:9" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A21" s="29" t="s">
+    <row r="21" spans="1:9" s="28" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A21" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="29" t="s">
+      <c r="B21" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="29" t="s">
+      <c r="C21" s="28" t="s">
         <v>160</v>
       </c>
-      <c r="D21" s="29">
+      <c r="D21" s="28">
         <v>0</v>
       </c>
-      <c r="E21" s="44">
+      <c r="E21" s="43">
         <v>5800</v>
       </c>
-      <c r="F21" s="44">
+      <c r="F21" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G21" s="29" t="s">
+      <c r="G21" s="28" t="s">
         <v>218</v>
       </c>
-      <c r="I21" s="29" t="s">
+      <c r="I21" s="28" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="22" spans="1:9" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A22" s="54" t="s">
+    <row r="22" spans="1:9" s="28" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A22" s="53" t="s">
+        <v>601</v>
+      </c>
+      <c r="B22" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="28" t="s">
         <v>602</v>
       </c>
-      <c r="B22" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" s="29" t="s">
-        <v>603</v>
-      </c>
-      <c r="D22" s="29">
+      <c r="D22" s="28">
         <v>0</v>
       </c>
-      <c r="E22" s="44">
+      <c r="E22" s="43">
         <v>1100</v>
       </c>
-      <c r="F22" s="44">
+      <c r="F22" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G22" s="29" t="s">
+      <c r="G22" s="28" t="s">
         <v>218</v>
       </c>
-      <c r="I22" s="29" t="s">
+      <c r="I22" s="28" t="s">
         <v>216</v>
       </c>
     </row>
@@ -3184,10 +3185,10 @@
       <c r="D23" s="4">
         <v>1</v>
       </c>
-      <c r="E23" s="59">
+      <c r="E23" s="58">
         <v>6900</v>
       </c>
-      <c r="F23" s="59">
+      <c r="F23" s="58">
         <f t="shared" si="0"/>
         <v>6900</v>
       </c>
@@ -3196,8 +3197,8 @@
       </c>
     </row>
     <row r="24" spans="1:9" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="E24" s="59"/>
-      <c r="F24" s="59"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="58"/>
     </row>
     <row r="25" spans="1:9" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
@@ -3212,10 +3213,10 @@
       <c r="D25" s="4">
         <v>1</v>
       </c>
-      <c r="E25" s="59">
+      <c r="E25" s="58">
         <v>160</v>
       </c>
-      <c r="F25" s="59">
+      <c r="F25" s="58">
         <v>0</v>
       </c>
       <c r="G25" s="4" t="s">
@@ -3238,10 +3239,10 @@
       <c r="D26" s="4">
         <v>0</v>
       </c>
-      <c r="E26" s="59">
+      <c r="E26" s="58">
         <v>1740</v>
       </c>
-      <c r="F26" s="59">
+      <c r="F26" s="58">
         <v>1740</v>
       </c>
       <c r="G26" s="4" t="s">
@@ -3264,10 +3265,10 @@
       <c r="D27" s="3">
         <v>5</v>
       </c>
-      <c r="E27" s="56">
+      <c r="E27" s="55">
         <v>27</v>
       </c>
-      <c r="F27" s="56">
+      <c r="F27" s="55">
         <f t="shared" si="0"/>
         <v>135</v>
       </c>
@@ -3275,15 +3276,15 @@
         <v>219</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="28" spans="1:9" s="6" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="E28" s="57"/>
-      <c r="F28" s="57"/>
+      <c r="E28" s="56"/>
+      <c r="F28" s="56"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
@@ -3298,10 +3299,10 @@
       <c r="D29" s="3">
         <v>2</v>
       </c>
-      <c r="E29" s="56">
+      <c r="E29" s="55">
         <v>70</v>
       </c>
-      <c r="F29" s="56">
+      <c r="F29" s="55">
         <f t="shared" ref="F29:F36" si="1">E29*D29</f>
         <v>140</v>
       </c>
@@ -3325,10 +3326,10 @@
       <c r="D30" s="3">
         <v>6</v>
       </c>
-      <c r="E30" s="56">
+      <c r="E30" s="55">
         <v>36</v>
       </c>
-      <c r="F30" s="56">
+      <c r="F30" s="55">
         <f t="shared" si="1"/>
         <v>216</v>
       </c>
@@ -3340,7 +3341,7 @@
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="26" t="s">
+      <c r="A31" s="25" t="s">
         <v>476</v>
       </c>
       <c r="B31" s="9" t="s">
@@ -3352,10 +3353,10 @@
       <c r="D31" s="3">
         <v>1</v>
       </c>
-      <c r="E31" s="56">
+      <c r="E31" s="55">
         <v>6</v>
       </c>
-      <c r="F31" s="56">
+      <c r="F31" s="55">
         <f>D31*E31</f>
         <v>6</v>
       </c>
@@ -3363,11 +3364,11 @@
         <v>237</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="26" t="s">
+      <c r="A32" s="25" t="s">
         <v>474</v>
       </c>
       <c r="B32" s="9" t="s">
@@ -3379,10 +3380,10 @@
       <c r="D32" s="3">
         <v>1</v>
       </c>
-      <c r="E32" s="56">
+      <c r="E32" s="55">
         <v>9</v>
       </c>
-      <c r="F32" s="56">
+      <c r="F32" s="55">
         <f>D32*E32</f>
         <v>9</v>
       </c>
@@ -3390,11 +3391,11 @@
         <v>237</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="26" t="s">
+      <c r="A33" s="25" t="s">
         <v>239</v>
       </c>
       <c r="B33" s="9" t="s">
@@ -3406,10 +3407,10 @@
       <c r="D33" s="3">
         <v>1</v>
       </c>
-      <c r="E33" s="56">
+      <c r="E33" s="55">
         <v>43</v>
       </c>
-      <c r="F33" s="56">
+      <c r="F33" s="55">
         <f t="shared" si="1"/>
         <v>43</v>
       </c>
@@ -3421,7 +3422,7 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="26" t="s">
+      <c r="A34" s="25" t="s">
         <v>242</v>
       </c>
       <c r="B34" s="9" t="s">
@@ -3433,10 +3434,10 @@
       <c r="D34" s="3">
         <v>1</v>
       </c>
-      <c r="E34" s="56">
+      <c r="E34" s="55">
         <v>29</v>
       </c>
-      <c r="F34" s="56">
+      <c r="F34" s="55">
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
@@ -3448,7 +3449,7 @@
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="26" t="s">
+      <c r="A35" s="25" t="s">
         <v>245</v>
       </c>
       <c r="B35" s="9" t="s">
@@ -3460,10 +3461,10 @@
       <c r="D35" s="3">
         <v>1</v>
       </c>
-      <c r="E35" s="56">
+      <c r="E35" s="55">
         <v>195</v>
       </c>
-      <c r="F35" s="56">
+      <c r="F35" s="55">
         <f t="shared" si="1"/>
         <v>195</v>
       </c>
@@ -3475,8 +3476,8 @@
       </c>
     </row>
     <row r="36" spans="1:9" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A36" s="83" t="s">
-        <v>595</v>
+      <c r="A36" s="82" t="s">
+        <v>594</v>
       </c>
       <c r="B36" s="10" t="s">
         <v>209</v>
@@ -3487,3435 +3488,3468 @@
       <c r="D36" s="4">
         <v>1</v>
       </c>
-      <c r="E36" s="59">
+      <c r="E36" s="58">
         <v>10</v>
       </c>
-      <c r="F36" s="59">
+      <c r="F36" s="58">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="37" spans="1:9" s="12" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A37" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="E37" s="60"/>
-      <c r="F37" s="60"/>
-    </row>
-    <row r="38" spans="1:9" s="12" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A38" s="13" t="s">
-        <v>587</v>
-      </c>
-      <c r="E38" s="60"/>
-      <c r="F38" s="60"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C39" s="3" t="s">
+      <c r="E37" s="59"/>
+      <c r="F37" s="59"/>
+    </row>
+    <row r="38" spans="1:9" s="84" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="83" t="s">
+        <v>606</v>
+      </c>
+      <c r="B38" s="83" t="s">
+        <v>613</v>
+      </c>
+      <c r="E38" s="85"/>
+      <c r="F38" s="85"/>
+    </row>
+    <row r="39" spans="1:9" s="84" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="83" t="s">
+        <v>607</v>
+      </c>
+      <c r="B39" s="83" t="s">
+        <v>608</v>
+      </c>
+      <c r="E39" s="85"/>
+      <c r="F39" s="85"/>
+    </row>
+    <row r="40" spans="1:9" s="84" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="83" t="s">
+        <v>609</v>
+      </c>
+      <c r="B40" s="83" t="s">
+        <v>612</v>
+      </c>
+      <c r="E40" s="85"/>
+      <c r="F40" s="85"/>
+    </row>
+    <row r="41" spans="1:9" s="84" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="83" t="s">
+        <v>610</v>
+      </c>
+      <c r="B41" s="83" t="s">
+        <v>611</v>
+      </c>
+      <c r="E41" s="85"/>
+      <c r="F41" s="85"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C42" s="3" t="s">
         <v>540</v>
       </c>
-      <c r="D39" s="3">
-        <v>1</v>
-      </c>
-      <c r="E39" s="56" t="s">
+      <c r="D42" s="3">
+        <v>1</v>
+      </c>
+      <c r="E42" s="55" t="s">
         <v>274</v>
       </c>
-      <c r="F39" s="56">
+      <c r="F42" s="55">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:9" s="6" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A40" s="5" t="s">
+    <row r="43" spans="1:9" s="6" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A43" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="E40" s="57"/>
-      <c r="F40" s="57"/>
-    </row>
-    <row r="41" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="76" t="s">
+      <c r="E43" s="56"/>
+      <c r="F43" s="56"/>
+    </row>
+    <row r="44" spans="1:9" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="75" t="s">
         <v>493</v>
       </c>
-      <c r="B41" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="C41" s="41" t="s">
+      <c r="B44" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="C44" s="40" t="s">
         <v>492</v>
       </c>
-      <c r="D41" s="41">
-        <v>1</v>
-      </c>
-      <c r="E41" s="75">
+      <c r="D44" s="40">
+        <v>1</v>
+      </c>
+      <c r="E44" s="74">
         <v>728</v>
       </c>
-      <c r="F41" s="75">
-        <f>D41*E41</f>
+      <c r="F44" s="74">
+        <f>D44*E44</f>
         <v>728</v>
       </c>
-      <c r="G41" s="41" t="s">
+      <c r="G44" s="40" t="s">
         <v>491</v>
       </c>
-      <c r="I41" s="41" t="s">
+      <c r="I44" s="40" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="42" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="76" t="s">
+    <row r="45" spans="1:9" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="75" t="s">
         <v>545</v>
       </c>
-      <c r="B42" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="C42" s="41" t="s">
+      <c r="B45" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="C45" s="40" t="s">
         <v>544</v>
       </c>
-      <c r="D42" s="41">
-        <v>1</v>
-      </c>
-      <c r="E42" s="75">
+      <c r="D45" s="40">
+        <v>1</v>
+      </c>
+      <c r="E45" s="74">
         <v>33</v>
       </c>
-      <c r="F42" s="75">
+      <c r="F45" s="74">
         <v>33</v>
       </c>
-      <c r="G42" s="41" t="s">
+      <c r="G45" s="40" t="s">
         <v>491</v>
       </c>
-      <c r="I42" s="41" t="s">
+      <c r="I45" s="40" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="9" t="s">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B43" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C43" s="9" t="s">
+      <c r="B46" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C46" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D46" s="3">
         <v>2</v>
       </c>
-      <c r="E43" s="58">
+      <c r="E46" s="57">
         <v>31</v>
       </c>
-      <c r="F43" s="56">
-        <f t="shared" ref="F43:F48" si="2">E43*D43</f>
+      <c r="F46" s="55">
+        <f t="shared" ref="F46:F51" si="2">E46*D46</f>
         <v>62</v>
       </c>
-      <c r="G43" s="3" t="s">
+      <c r="G46" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H43" s="78" t="s">
+      <c r="H46" s="77" t="s">
         <v>181</v>
       </c>
-      <c r="I43" s="3" t="s">
+      <c r="I46" s="3" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="9" t="s">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="B44" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C44" s="9" t="s">
+      <c r="B47" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C47" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="D44" s="3">
+      <c r="D47" s="3">
         <v>2</v>
       </c>
-      <c r="E44" s="58">
+      <c r="E47" s="57">
         <v>99</v>
       </c>
-      <c r="F44" s="56">
+      <c r="F47" s="55">
         <f t="shared" si="2"/>
         <v>198</v>
       </c>
-      <c r="G44" s="3" t="s">
+      <c r="G47" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H44" s="78" t="s">
+      <c r="H47" s="77" t="s">
         <v>181</v>
       </c>
-      <c r="I44" s="3" t="s">
+      <c r="I47" s="3" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B45" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C45" s="3" t="s">
+      <c r="B48" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C48" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D45" s="3">
+      <c r="D48" s="3">
         <v>2</v>
       </c>
-      <c r="E45" s="56">
+      <c r="E48" s="55">
         <v>17</v>
       </c>
-      <c r="F45" s="56">
+      <c r="F48" s="55">
         <f t="shared" si="2"/>
         <v>34</v>
       </c>
-      <c r="G45" s="3" t="s">
+      <c r="G48" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H45" s="78" t="s">
+      <c r="H48" s="77" t="s">
         <v>181</v>
       </c>
-      <c r="I45" s="3" t="s">
+      <c r="I48" s="3" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
         <v>518</v>
       </c>
-      <c r="B46" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C46" s="3" t="s">
+      <c r="B49" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C49" s="3" t="s">
         <v>519</v>
       </c>
-      <c r="D46" s="3">
+      <c r="D49" s="3">
         <v>2</v>
       </c>
-      <c r="E46" s="56">
+      <c r="E49" s="55">
         <v>12</v>
       </c>
-      <c r="F46" s="56">
+      <c r="F49" s="55">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="G46" s="3" t="s">
+      <c r="G49" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H46" s="78" t="s">
+      <c r="H49" s="77" t="s">
         <v>181</v>
       </c>
-      <c r="I46" s="3" t="s">
+      <c r="I49" s="3" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
         <v>520</v>
       </c>
-      <c r="B47" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C47" s="3" t="s">
+      <c r="B50" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C50" s="3" t="s">
         <v>521</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D50" s="3">
         <v>2</v>
       </c>
-      <c r="E47" s="56">
+      <c r="E50" s="55">
         <v>12</v>
       </c>
-      <c r="F47" s="56">
+      <c r="F50" s="55">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="G47" s="3" t="s">
+      <c r="G50" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H47" s="78" t="s">
+      <c r="H50" s="77" t="s">
         <v>181</v>
       </c>
-      <c r="I47" s="3" t="s">
+      <c r="I50" s="3" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="B48" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C48" s="3" t="s">
+      <c r="B51" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C51" s="3" t="s">
         <v>522</v>
       </c>
-      <c r="D48" s="3">
+      <c r="D51" s="3">
         <v>2</v>
       </c>
-      <c r="E48" s="56">
+      <c r="E51" s="55">
         <v>14</v>
       </c>
-      <c r="F48" s="56">
+      <c r="F51" s="55">
         <f t="shared" si="2"/>
         <v>28</v>
       </c>
-      <c r="G48" s="3" t="s">
+      <c r="G51" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H48" s="78" t="s">
+      <c r="H51" s="77" t="s">
         <v>181</v>
       </c>
-      <c r="I48" s="3" t="s">
+      <c r="I51" s="3" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="B49" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C49" s="3" t="s">
+      <c r="B52" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C52" s="3" t="s">
         <v>469</v>
       </c>
-      <c r="D49" s="3">
+      <c r="D52" s="3">
         <v>2</v>
       </c>
-      <c r="E49" s="56">
+      <c r="E52" s="55">
         <v>18.412749600000001</v>
       </c>
-      <c r="F49" s="56">
+      <c r="F52" s="55">
         <v>36.825499200000003</v>
       </c>
-      <c r="G49" s="3" t="s">
+      <c r="G52" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H49" s="3" t="s">
+      <c r="H52" s="3" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B53" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C53" s="3" t="s">
         <v>466</v>
       </c>
-      <c r="D50" s="3">
+      <c r="D53" s="3">
         <v>2</v>
       </c>
-      <c r="E50" s="56">
+      <c r="E53" s="55">
         <v>935</v>
       </c>
-      <c r="F50" s="56">
-        <f t="shared" ref="F50:F56" si="3">E50*D50</f>
+      <c r="F53" s="55">
+        <f t="shared" ref="F53:F59" si="3">E53*D53</f>
         <v>1870</v>
       </c>
-      <c r="G50" s="3" t="s">
+      <c r="G53" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H50" s="3" t="s">
+      <c r="H53" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="51" spans="1:9" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A51" s="4" t="s">
+    <row r="54" spans="1:9" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A54" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="B54" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="C54" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D51" s="4">
+      <c r="D54" s="4">
         <v>2</v>
       </c>
-      <c r="E51" s="59">
+      <c r="E54" s="58">
         <v>365</v>
       </c>
-      <c r="F51" s="59">
+      <c r="F54" s="58">
         <f t="shared" si="3"/>
         <v>730</v>
       </c>
-      <c r="G51" s="4" t="s">
+      <c r="G54" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="H51" s="4" t="s">
+      <c r="H54" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="I51" s="4" t="s">
+      <c r="I54" s="4" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B55" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="C55" s="3" t="s">
         <v>564</v>
       </c>
-      <c r="D52" s="3">
-        <v>1</v>
-      </c>
-      <c r="E52" s="56">
+      <c r="D55" s="3">
+        <v>1</v>
+      </c>
+      <c r="E55" s="55">
         <v>40</v>
       </c>
-      <c r="F52" s="56">
-        <f>D52*E52</f>
+      <c r="F55" s="55">
+        <f>D55*E55</f>
         <v>40</v>
       </c>
-      <c r="G52" s="3" t="s">
+      <c r="G55" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H52" s="3" t="s">
+      <c r="H55" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="I52" s="3" t="s">
+      <c r="I55" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B56" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="C56" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D53" s="3">
+      <c r="D56" s="3">
         <v>2</v>
       </c>
-      <c r="E53" s="56">
+      <c r="E56" s="55">
         <v>90</v>
       </c>
-      <c r="F53" s="56">
+      <c r="F56" s="55">
         <f t="shared" si="3"/>
         <v>180</v>
       </c>
-      <c r="G53" s="3" t="s">
+      <c r="G56" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H53" s="3" t="s">
+      <c r="H56" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="9" t="s">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="9" t="s">
         <v>489</v>
       </c>
-      <c r="B54" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C54" s="9" t="s">
+      <c r="B57" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C57" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="D54" s="3">
+      <c r="D57" s="3">
         <v>2</v>
       </c>
-      <c r="E54" s="58">
+      <c r="E57" s="57">
         <v>18</v>
       </c>
-      <c r="F54" s="56">
-        <f>E54*D54</f>
+      <c r="F57" s="55">
+        <f>E57*D57</f>
         <v>36</v>
       </c>
-      <c r="G54" s="3" t="s">
+      <c r="G57" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H54" s="3" t="s">
+      <c r="H57" s="3" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B55" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C55" s="3" t="s">
+      <c r="B58" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C58" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D55" s="3">
+      <c r="D58" s="3">
         <v>2</v>
       </c>
-      <c r="E55" s="56">
+      <c r="E58" s="55">
         <v>21.21</v>
       </c>
-      <c r="F55" s="56">
-        <f t="shared" ref="F55" si="4">E55*D55</f>
+      <c r="F58" s="55">
+        <f t="shared" ref="F58" si="4">E58*D58</f>
         <v>42.42</v>
       </c>
-      <c r="G55" s="3" t="s">
+      <c r="G58" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H55" s="3" t="s">
+      <c r="H58" s="3" t="s">
         <v>470</v>
       </c>
-      <c r="I55" s="3" t="s">
+      <c r="I58" s="3" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="9" t="s">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="B56" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C56" s="9" t="s">
+      <c r="B59" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C59" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="D56" s="3">
+      <c r="D59" s="3">
         <v>2</v>
       </c>
-      <c r="E56" s="58">
+      <c r="E59" s="57">
         <v>13</v>
       </c>
-      <c r="F56" s="56">
+      <c r="F59" s="55">
         <f t="shared" si="3"/>
         <v>26</v>
       </c>
-      <c r="G56" s="3" t="s">
+      <c r="G59" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H56" s="3" t="s">
+      <c r="H59" s="3" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="9" t="s">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="B57" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C57" s="9" t="s">
+      <c r="B60" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C60" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="D57" s="3">
+      <c r="D60" s="3">
         <v>4</v>
       </c>
-      <c r="E57" s="58">
+      <c r="E60" s="57">
         <v>189</v>
       </c>
-      <c r="F57" s="56">
-        <f t="shared" ref="F57:F64" si="5">E57*D57</f>
+      <c r="F60" s="55">
+        <f t="shared" ref="F60:F67" si="5">E60*D60</f>
         <v>756</v>
       </c>
-      <c r="G57" s="3" t="s">
+      <c r="G60" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H57" s="3" t="s">
+      <c r="H60" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="I57" s="3" t="s">
+      <c r="I60" s="3" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="9" t="s">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="B58" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C58" s="9" t="s">
+      <c r="B61" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C61" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D61" s="3">
         <v>4</v>
       </c>
-      <c r="E58" s="58">
+      <c r="E61" s="57">
         <v>110</v>
       </c>
-      <c r="F58" s="56">
+      <c r="F61" s="55">
         <f t="shared" si="5"/>
         <v>440</v>
       </c>
-      <c r="G58" s="3" t="s">
+      <c r="G61" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H58" s="3" t="s">
+      <c r="H61" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="I58" s="3" t="s">
+      <c r="I61" s="3" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="9" t="s">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="B59" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C59" s="9" t="s">
+      <c r="B62" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C62" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="D59" s="3">
+      <c r="D62" s="3">
         <v>8</v>
       </c>
-      <c r="E59" s="58">
+      <c r="E62" s="57">
         <v>16</v>
       </c>
-      <c r="F59" s="56">
+      <c r="F62" s="55">
         <f t="shared" si="5"/>
         <v>128</v>
       </c>
-      <c r="G59" s="3" t="s">
+      <c r="G62" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H59" s="3" t="s">
+      <c r="H62" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="I59" s="3" t="s">
+      <c r="I62" s="3" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="9" t="s">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="B60" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C60" s="9" t="s">
+      <c r="B63" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C63" s="9" t="s">
         <v>390</v>
       </c>
-      <c r="D60" s="3">
+      <c r="D63" s="3">
         <v>4</v>
       </c>
-      <c r="E60" s="58">
+      <c r="E63" s="57">
         <v>104</v>
       </c>
-      <c r="F60" s="56">
+      <c r="F63" s="55">
         <f t="shared" si="5"/>
         <v>416</v>
       </c>
-      <c r="G60" s="3" t="s">
+      <c r="G63" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H60" s="3" t="s">
+      <c r="H63" s="3" t="s">
         <v>475</v>
       </c>
-      <c r="I60" s="3" t="s">
+      <c r="I63" s="3" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="9" t="s">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="B61" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C61" s="9" t="s">
+      <c r="B64" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C64" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="D61" s="3">
+      <c r="D64" s="3">
         <v>2</v>
       </c>
-      <c r="E61" s="58">
+      <c r="E64" s="57">
         <v>41</v>
       </c>
-      <c r="F61" s="56">
+      <c r="F64" s="55">
         <f t="shared" si="5"/>
         <v>82</v>
       </c>
-      <c r="G61" s="3" t="s">
+      <c r="G64" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H61" s="3" t="s">
+      <c r="H64" s="3" t="s">
         <v>475</v>
       </c>
-      <c r="I61" s="3" t="s">
+      <c r="I64" s="3" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="9" t="s">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65" s="9" t="s">
         <v>482</v>
       </c>
-      <c r="B62" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C62" s="9" t="s">
+      <c r="B65" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C65" s="9" t="s">
         <v>483</v>
       </c>
-      <c r="D62" s="3">
+      <c r="D65" s="3">
         <v>2</v>
       </c>
-      <c r="E62" s="58">
+      <c r="E65" s="57">
         <v>17</v>
       </c>
-      <c r="F62" s="56">
+      <c r="F65" s="55">
         <f t="shared" si="5"/>
         <v>34</v>
       </c>
-      <c r="G62" s="3" t="s">
+      <c r="G65" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H62" s="3" t="s">
+      <c r="H65" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="I62" s="3" t="s">
+      <c r="I65" s="3" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="9" t="s">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66" s="9" t="s">
         <v>484</v>
       </c>
-      <c r="B63" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C63" s="9" t="s">
+      <c r="B66" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C66" s="9" t="s">
         <v>485</v>
       </c>
-      <c r="D63" s="3">
+      <c r="D66" s="3">
         <v>4</v>
       </c>
-      <c r="E63" s="58">
+      <c r="E66" s="57">
         <v>7</v>
       </c>
-      <c r="F63" s="56">
+      <c r="F66" s="55">
         <f t="shared" si="5"/>
         <v>28</v>
       </c>
-      <c r="G63" s="3" t="s">
+      <c r="G66" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H63" s="3" t="s">
+      <c r="H66" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="I63" s="3" t="s">
+      <c r="I66" s="3" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="9" t="s">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67" s="9" t="s">
         <v>487</v>
       </c>
-      <c r="B64" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C64" s="9" t="s">
+      <c r="B67" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C67" s="9" t="s">
         <v>486</v>
       </c>
-      <c r="D64" s="3">
+      <c r="D67" s="3">
         <v>4</v>
       </c>
-      <c r="E64" s="58">
+      <c r="E67" s="57">
         <v>5</v>
       </c>
-      <c r="F64" s="56">
+      <c r="F67" s="55">
         <f t="shared" si="5"/>
         <v>20</v>
       </c>
-      <c r="G64" s="3" t="s">
+      <c r="G67" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H64" s="3" t="s">
+      <c r="H67" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="I64" s="3" t="s">
+      <c r="I67" s="3" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="65" spans="1:10" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A65" s="48">
+    <row r="68" spans="1:10" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A68" s="47">
         <v>91863</v>
       </c>
-      <c r="B65" s="4" t="s">
+      <c r="B68" s="4" t="s">
         <v>480</v>
       </c>
-      <c r="C65" s="4" t="s">
+      <c r="C68" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D65" s="4">
+      <c r="D68" s="4">
         <v>2</v>
       </c>
-      <c r="E65" s="59">
+      <c r="E68" s="58">
         <v>400</v>
       </c>
-      <c r="F65" s="59">
-        <f t="shared" ref="F65:F88" si="6">E65*D65</f>
+      <c r="F68" s="58">
+        <f t="shared" ref="F68:F91" si="6">E68*D68</f>
         <v>800</v>
       </c>
-      <c r="G65" s="4" t="s">
+      <c r="G68" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="H65" s="4" t="s">
+      <c r="H68" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="I65" s="4" t="s">
+      <c r="I68" s="4" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="66" spans="1:10" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A66" s="4" t="s">
+    <row r="69" spans="1:10" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A69" s="4" t="s">
         <v>537</v>
       </c>
-      <c r="B66" s="4" t="s">
+      <c r="B69" s="4" t="s">
         <v>530</v>
       </c>
-      <c r="C66" s="49" t="s">
+      <c r="C69" s="48" t="s">
         <v>498</v>
       </c>
-      <c r="D66" s="4">
+      <c r="D69" s="4">
         <v>2</v>
       </c>
-      <c r="E66" s="59">
+      <c r="E69" s="58">
         <v>300</v>
       </c>
-      <c r="F66" s="59">
+      <c r="F69" s="58">
         <f t="shared" si="6"/>
         <v>600</v>
       </c>
-      <c r="G66" s="4" t="s">
+      <c r="G69" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="H66" s="4" t="s">
+      <c r="H69" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="I66" s="4" t="s">
+      <c r="I69" s="4" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="67" spans="1:10" s="45" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A67" s="46" t="s">
+    <row r="70" spans="1:10" s="44" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A70" s="45" t="s">
         <v>400</v>
       </c>
-      <c r="B67" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="C67" s="46" t="s">
+      <c r="B70" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="C70" s="45" t="s">
         <v>397</v>
       </c>
-      <c r="D67" s="45">
+      <c r="D70" s="44">
         <v>0</v>
       </c>
-      <c r="E67" s="64">
+      <c r="E70" s="63">
         <v>36</v>
       </c>
-      <c r="F67" s="65">
+      <c r="F70" s="64">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G67" s="45" t="s">
+      <c r="G70" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="H67" s="45" t="s">
+      <c r="H70" s="44" t="s">
         <v>207</v>
       </c>
-      <c r="I67" s="45" t="s">
+      <c r="I70" s="44" t="s">
         <v>479</v>
       </c>
-      <c r="J67" s="74"/>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="9" t="s">
+      <c r="J70" s="73"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71" s="9" t="s">
         <v>539</v>
       </c>
-      <c r="B68" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C68" s="9" t="s">
+      <c r="B71" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C71" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="D68" s="3">
+      <c r="D71" s="3">
         <v>2</v>
       </c>
-      <c r="E68" s="58">
+      <c r="E71" s="57">
         <v>92</v>
       </c>
-      <c r="F68" s="56">
+      <c r="F71" s="55">
         <f t="shared" si="6"/>
         <v>184</v>
       </c>
-      <c r="G68" s="3" t="s">
+      <c r="G71" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H68" s="3" t="s">
+      <c r="H71" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="I68" s="3" t="s">
+      <c r="I71" s="3" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="69" spans="1:10" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A69" s="10" t="s">
+    <row r="72" spans="1:10" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A72" s="10" t="s">
         <v>421</v>
       </c>
-      <c r="B69" s="4" t="s">
+      <c r="B72" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="C69" s="73" t="s">
+      <c r="C72" s="72" t="s">
         <v>249</v>
       </c>
-      <c r="D69" s="4">
+      <c r="D72" s="4">
         <v>2</v>
       </c>
-      <c r="E69" s="61">
-        <v>1</v>
-      </c>
-      <c r="F69" s="59">
+      <c r="E72" s="60">
+        <v>1</v>
+      </c>
+      <c r="F72" s="58">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="G69" s="4" t="s">
+      <c r="G72" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="H69" s="4" t="s">
+      <c r="H72" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="I69" s="4" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="9" t="s">
+      <c r="I72" s="4" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73" s="9" t="s">
         <v>474</v>
       </c>
-      <c r="B70" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C70" s="9" t="s">
+      <c r="B73" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C73" s="9" t="s">
         <v>473</v>
       </c>
-      <c r="D70" s="3">
+      <c r="D73" s="3">
         <v>4</v>
       </c>
-      <c r="E70" s="58">
+      <c r="E73" s="57">
         <v>7</v>
       </c>
-      <c r="F70" s="56">
-        <f>E70*D70</f>
+      <c r="F73" s="55">
+        <f>E73*D73</f>
         <v>28</v>
       </c>
-      <c r="G70" s="3" t="s">
+      <c r="G73" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H70" s="3" t="s">
+      <c r="H73" s="3" t="s">
         <v>475</v>
       </c>
-      <c r="I70" s="3" t="s">
+      <c r="I73" s="3" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="9" t="s">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="B71" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C71" s="9" t="s">
+      <c r="B74" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C74" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="D71" s="3">
+      <c r="D74" s="3">
         <v>2</v>
       </c>
-      <c r="E71" s="58">
+      <c r="E74" s="57">
         <v>8</v>
       </c>
-      <c r="F71" s="56">
+      <c r="F74" s="55">
         <f t="shared" si="6"/>
         <v>16</v>
       </c>
-      <c r="G71" s="3" t="s">
+      <c r="G74" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H71" s="3" t="s">
+      <c r="H74" s="3" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" s="9" t="s">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A75" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="B72" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C72" s="9" t="s">
+      <c r="B75" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C75" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="D72" s="3">
+      <c r="D75" s="3">
         <v>4</v>
       </c>
-      <c r="E72" s="58">
+      <c r="E75" s="57">
         <v>5</v>
       </c>
-      <c r="F72" s="56">
+      <c r="F75" s="55">
         <f t="shared" si="6"/>
         <v>20</v>
       </c>
-      <c r="G72" s="3" t="s">
+      <c r="G75" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H72" s="3" t="s">
+      <c r="H75" s="3" t="s">
         <v>475</v>
       </c>
-      <c r="I72" s="3" t="s">
+      <c r="I75" s="3" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" s="9" t="s">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A76" s="9" t="s">
         <v>476</v>
       </c>
-      <c r="B73" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C73" s="9" t="s">
+      <c r="B76" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C76" s="9" t="s">
         <v>477</v>
       </c>
-      <c r="D73" s="3">
+      <c r="D76" s="3">
         <v>2</v>
       </c>
-      <c r="E73" s="58">
+      <c r="E76" s="57">
         <v>5</v>
       </c>
-      <c r="F73" s="56">
+      <c r="F76" s="55">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
-      <c r="G73" s="3" t="s">
+      <c r="G76" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H73" s="3" t="s">
+      <c r="H76" s="3" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" s="9" t="s">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A77" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="B74" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C74" s="9" t="s">
+      <c r="B77" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C77" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="D74" s="3">
+      <c r="D77" s="3">
         <v>2</v>
       </c>
-      <c r="E74" s="58">
+      <c r="E77" s="57">
         <v>5</v>
       </c>
-      <c r="F74" s="56">
-        <f>E74*D74</f>
+      <c r="F77" s="55">
+        <f>E77*D77</f>
         <v>10</v>
       </c>
-      <c r="G74" s="3" t="s">
+      <c r="G77" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H74" s="3" t="s">
+      <c r="H77" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="I74" s="3" t="s">
+      <c r="I77" s="3" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="75" spans="1:10" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="23" t="s">
+    <row r="78" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="22" t="s">
         <v>490</v>
       </c>
-      <c r="B75" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C75" s="23" t="s">
+      <c r="B78" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C78" s="22" t="s">
         <v>198</v>
       </c>
-      <c r="D75" s="24">
+      <c r="D78" s="23">
         <v>2</v>
       </c>
-      <c r="E75" s="62">
+      <c r="E78" s="61">
         <v>398</v>
       </c>
-      <c r="F75" s="63">
+      <c r="F78" s="62">
         <f t="shared" si="6"/>
         <v>796</v>
       </c>
-      <c r="G75" s="3" t="s">
+      <c r="G78" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H75" s="24" t="s">
+      <c r="H78" s="23" t="s">
         <v>202</v>
       </c>
-      <c r="I75" s="24" t="s">
+      <c r="I78" s="23" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="76" spans="1:10" s="79" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A76" s="47" t="s">
+    <row r="79" spans="1:10" s="78" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A79" s="46" t="s">
         <v>535</v>
       </c>
-      <c r="B76" s="4" t="s">
+      <c r="B79" s="4" t="s">
         <v>530</v>
       </c>
-      <c r="C76" s="47" t="s">
+      <c r="C79" s="46" t="s">
         <v>275</v>
       </c>
-      <c r="D76" s="79">
+      <c r="D79" s="78">
         <v>2</v>
       </c>
-      <c r="E76" s="80">
+      <c r="E79" s="79">
         <v>150</v>
       </c>
-      <c r="F76" s="81">
+      <c r="F79" s="80">
         <v>0</v>
       </c>
-      <c r="G76" s="4" t="s">
+      <c r="G79" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="H76" s="79" t="s">
+      <c r="H79" s="78" t="s">
         <v>202</v>
       </c>
-      <c r="I76" s="79" t="s">
+      <c r="I79" s="78" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="77" spans="1:10" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="23" t="s">
+    <row r="80" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="22" t="s">
         <v>199</v>
       </c>
-      <c r="B77" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C77" s="23" t="s">
+      <c r="B80" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C80" s="22" t="s">
         <v>200</v>
       </c>
-      <c r="D77" s="24">
+      <c r="D80" s="23">
         <v>2</v>
       </c>
-      <c r="E77" s="62">
+      <c r="E80" s="61">
         <v>30</v>
       </c>
-      <c r="F77" s="63">
+      <c r="F80" s="62">
         <f t="shared" si="6"/>
         <v>60</v>
       </c>
-      <c r="G77" s="3" t="s">
+      <c r="G80" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H77" s="24" t="s">
+      <c r="H80" s="23" t="s">
         <v>202</v>
       </c>
-      <c r="I77" s="24" t="s">
+      <c r="I80" s="23" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="78" spans="1:10" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A78" s="10" t="s">
+    <row r="81" spans="1:9" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A81" s="10" t="s">
         <v>534</v>
       </c>
-      <c r="B78" s="4" t="s">
+      <c r="B81" s="4" t="s">
         <v>530</v>
       </c>
-      <c r="C78" s="10" t="s">
+      <c r="C81" s="10" t="s">
         <v>398</v>
       </c>
-      <c r="D78" s="4">
+      <c r="D81" s="4">
         <v>2</v>
       </c>
-      <c r="E78" s="61">
+      <c r="E81" s="60">
         <v>300</v>
       </c>
-      <c r="F78" s="59">
+      <c r="F81" s="58">
         <v>0</v>
       </c>
-      <c r="G78" s="4" t="s">
+      <c r="G81" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="H78" s="4" t="s">
+      <c r="H81" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="I78" s="4" t="s">
+      <c r="I81" s="4" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="79" spans="1:10" s="45" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A79" s="46" t="s">
+    <row r="82" spans="1:9" s="44" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A82" s="45" t="s">
         <v>400</v>
       </c>
-      <c r="B79" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="C79" s="46" t="s">
+      <c r="B82" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="C82" s="45" t="s">
         <v>397</v>
       </c>
-      <c r="D79" s="45">
+      <c r="D82" s="44">
         <v>0</v>
       </c>
-      <c r="E79" s="64">
+      <c r="E82" s="63">
         <v>36</v>
       </c>
-      <c r="F79" s="65">
+      <c r="F82" s="64">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G79" s="45" t="s">
+      <c r="G82" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="H79" s="45" t="s">
+      <c r="H82" s="44" t="s">
         <v>204</v>
       </c>
-      <c r="I79" s="45" t="s">
+      <c r="I82" s="44" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" s="9" t="s">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83" s="9" t="s">
         <v>499</v>
       </c>
-      <c r="B80" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C80" s="9" t="s">
+      <c r="B83" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C83" s="9" t="s">
         <v>500</v>
       </c>
-      <c r="D80" s="3">
+      <c r="D83" s="3">
         <v>2</v>
       </c>
-      <c r="E80" s="58">
+      <c r="E83" s="57">
         <v>32</v>
       </c>
-      <c r="F80" s="56">
+      <c r="F83" s="55">
         <f t="shared" si="6"/>
         <v>64</v>
       </c>
-      <c r="G80" s="3" t="s">
+      <c r="G83" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H80" s="3" t="s">
+      <c r="H83" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="I80" s="3" t="s">
+      <c r="I83" s="3" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81" s="9" t="s">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84" s="9" t="s">
         <v>400</v>
       </c>
-      <c r="B81" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C81" s="82" t="s">
+      <c r="B84" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C84" s="81" t="s">
         <v>497</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D84" s="3">
         <v>2</v>
       </c>
-      <c r="E81" s="58">
+      <c r="E84" s="57">
         <v>36</v>
       </c>
-      <c r="F81" s="56">
-        <f t="shared" ref="F81" si="7">E81*D81</f>
+      <c r="F84" s="55">
+        <f t="shared" ref="F84" si="7">E84*D84</f>
         <v>72</v>
       </c>
-      <c r="G81" s="3" t="s">
+      <c r="G84" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H81" s="3" t="s">
+      <c r="H84" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="I81" s="3" t="s">
+      <c r="I84" s="3" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A82" s="9" t="s">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="B82" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C82" s="9" t="s">
+      <c r="B85" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C85" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="D82" s="3">
+      <c r="D85" s="3">
         <v>2</v>
       </c>
-      <c r="E82" s="58">
+      <c r="E85" s="57">
         <v>2104</v>
       </c>
-      <c r="F82" s="56">
+      <c r="F85" s="55">
         <f t="shared" si="6"/>
         <v>4208</v>
       </c>
-      <c r="G82" s="3" t="s">
+      <c r="G85" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H82" s="3" t="s">
+      <c r="H85" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="I82" s="3" t="s">
+      <c r="I85" s="3" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" s="9" t="s">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="B83" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C83" s="9" t="s">
+      <c r="B86" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C86" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="D83" s="3">
+      <c r="D86" s="3">
         <v>2</v>
       </c>
-      <c r="E83" s="58">
+      <c r="E86" s="57">
         <v>82</v>
       </c>
-      <c r="F83" s="56">
+      <c r="F86" s="55">
         <f t="shared" si="6"/>
         <v>164</v>
       </c>
-      <c r="G83" s="3" t="s">
+      <c r="G86" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H83" s="3" t="s">
+      <c r="H86" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="I83" s="3" t="s">
+      <c r="I86" s="3" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" s="27" t="s">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87" s="26" t="s">
         <v>415</v>
       </c>
-      <c r="B84" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C84" s="9" t="s">
+      <c r="B87" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C87" s="9" t="s">
         <v>416</v>
       </c>
-      <c r="D84" s="3">
-        <v>1</v>
-      </c>
-      <c r="E84" s="58">
+      <c r="D87" s="3">
+        <v>1</v>
+      </c>
+      <c r="E87" s="57">
         <v>520</v>
       </c>
-      <c r="F84" s="56">
+      <c r="F87" s="55">
         <f t="shared" si="6"/>
         <v>520</v>
       </c>
-      <c r="G84" s="3" t="s">
+      <c r="G87" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H84" s="3" t="s">
+      <c r="H87" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="I84" s="3" t="s">
+      <c r="I87" s="3" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="85" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="27" t="s">
+    <row r="88" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="26" t="s">
         <v>513</v>
       </c>
-      <c r="B85" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="C85" s="27" t="s">
+      <c r="B88" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C88" s="26" t="s">
         <v>514</v>
       </c>
-      <c r="D85" s="20">
+      <c r="D88" s="19">
         <v>2</v>
       </c>
-      <c r="E85" s="77">
+      <c r="E88" s="76">
         <v>148</v>
       </c>
-      <c r="F85" s="68">
+      <c r="F88" s="67">
         <f t="shared" si="6"/>
         <v>296</v>
       </c>
-      <c r="G85" s="20" t="s">
+      <c r="G88" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="H85" s="20" t="s">
+      <c r="H88" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="I85" s="20" t="s">
+      <c r="I88" s="19" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A86" s="10" t="s">
+    <row r="89" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A89" s="10" t="s">
         <v>532</v>
       </c>
-      <c r="B86" s="4" t="s">
+      <c r="B89" s="4" t="s">
         <v>530</v>
       </c>
-      <c r="C86" s="9" t="s">
+      <c r="C89" s="9" t="s">
         <v>280</v>
       </c>
-      <c r="D86" s="3">
+      <c r="D89" s="3">
         <v>14</v>
       </c>
-      <c r="E86" s="58">
+      <c r="E89" s="57">
         <v>20</v>
       </c>
-      <c r="F86" s="56">
+      <c r="F89" s="55">
         <v>0</v>
       </c>
-      <c r="G86" s="3" t="s">
+      <c r="G89" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H86" s="3" t="s">
+      <c r="H89" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="I86" s="4" t="s">
+      <c r="I89" s="4" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="87" spans="1:9" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A87" s="10" t="s">
-        <v>592</v>
-      </c>
-      <c r="B87" s="4" t="s">
-        <v>594</v>
-      </c>
-      <c r="C87" s="10" t="s">
+    <row r="90" spans="1:9" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A90" s="10" t="s">
         <v>591</v>
       </c>
-      <c r="D87" s="4">
-        <v>1</v>
-      </c>
-      <c r="E87" s="61">
+      <c r="B90" s="4" t="s">
+        <v>593</v>
+      </c>
+      <c r="C90" s="10" t="s">
+        <v>590</v>
+      </c>
+      <c r="D90" s="4">
+        <v>1</v>
+      </c>
+      <c r="E90" s="60">
         <v>10</v>
       </c>
-      <c r="F87" s="59">
+      <c r="F90" s="58">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
-      <c r="G87" s="4" t="s">
+      <c r="G90" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="H87" s="4" t="s">
+      <c r="H90" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="I87" s="4" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A88" s="9" t="s">
+      <c r="I90" s="4" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91" s="9" t="s">
         <v>435</v>
       </c>
-      <c r="B88" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C88" s="9" t="s">
-        <v>589</v>
-      </c>
-      <c r="D88" s="3">
+      <c r="B91" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C91" s="9" t="s">
+        <v>588</v>
+      </c>
+      <c r="D91" s="3">
         <v>0</v>
       </c>
-      <c r="E88" s="58">
+      <c r="E91" s="57">
         <v>28</v>
       </c>
-      <c r="F88" s="56">
+      <c r="F91" s="55">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G88" s="3" t="s">
+      <c r="G91" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H88" s="3" t="s">
+      <c r="H91" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="I88" s="3" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" s="6" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A89" s="5" t="s">
+      <c r="I91" s="3" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" s="6" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A92" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="E89" s="57"/>
-      <c r="F89" s="57"/>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A90" s="9" t="s">
+      <c r="E92" s="56"/>
+      <c r="F92" s="56"/>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93" s="9" t="s">
         <v>23</v>
-      </c>
-      <c r="B90" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C90" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D90" s="3">
-        <v>1</v>
-      </c>
-      <c r="E90" s="58"/>
-      <c r="I90" s="3" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A91" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="B91" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C91" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="D91" s="3">
-        <v>1</v>
-      </c>
-      <c r="E91" s="58">
-        <v>63</v>
-      </c>
-      <c r="F91" s="56">
-        <f>D91*E91</f>
-        <v>63</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A92" s="25" t="s">
-        <v>229</v>
-      </c>
-      <c r="B92" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C92" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="D92" s="3">
-        <v>2</v>
-      </c>
-      <c r="E92" s="58">
-        <v>69</v>
-      </c>
-      <c r="F92" s="56">
-        <f>D92*E92</f>
-        <v>138</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A93" s="3" t="s">
-        <v>21</v>
       </c>
       <c r="B93" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C93" s="3" t="s">
-        <v>22</v>
+      <c r="C93" s="9" t="s">
+        <v>20</v>
       </c>
       <c r="D93" s="3">
         <v>1</v>
       </c>
-      <c r="E93" s="58"/>
+      <c r="E93" s="57"/>
       <c r="I93" s="3" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="94" spans="1:9" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A94" s="4" t="s">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A94" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C94" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="D94" s="3">
+        <v>1</v>
+      </c>
+      <c r="E94" s="57">
+        <v>63</v>
+      </c>
+      <c r="F94" s="55">
+        <f>D94*E94</f>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A95" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C95" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="D95" s="3">
+        <v>2</v>
+      </c>
+      <c r="E95" s="57">
+        <v>69</v>
+      </c>
+      <c r="F95" s="55">
+        <f>D95*E95</f>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D96" s="3">
+        <v>1</v>
+      </c>
+      <c r="E96" s="57"/>
+      <c r="I96" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A97" s="4" t="s">
         <v>508</v>
       </c>
-      <c r="B94" s="4" t="s">
+      <c r="B97" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="C94" s="4" t="s">
+      <c r="C97" s="4" t="s">
         <v>509</v>
       </c>
-      <c r="D94" s="4">
+      <c r="D97" s="4">
         <v>5</v>
       </c>
-      <c r="E94" s="61">
-        <v>1</v>
-      </c>
-      <c r="F94" s="59">
+      <c r="E97" s="60">
+        <v>1</v>
+      </c>
+      <c r="F97" s="58">
         <v>5</v>
       </c>
-      <c r="I94" s="4" t="s">
+      <c r="I97" s="4" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="95" spans="1:9" s="6" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A95" s="5" t="s">
+    <row r="98" spans="1:10" s="6" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A98" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="E95" s="57"/>
-      <c r="F95" s="57"/>
-    </row>
-    <row r="96" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="6" t="s">
+      <c r="E98" s="56"/>
+      <c r="F98" s="56"/>
+    </row>
+    <row r="99" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="6" t="s">
         <v>374</v>
       </c>
-      <c r="E96" s="57"/>
-      <c r="F96" s="57"/>
-    </row>
-    <row r="97" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A97" s="3" t="s">
+      <c r="E99" s="56"/>
+      <c r="F99" s="56"/>
+    </row>
+    <row r="100" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A100" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="B97" s="3" t="s">
+      <c r="B100" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="C97" s="52" t="s">
+      <c r="C100" s="51" t="s">
         <v>375</v>
       </c>
-      <c r="D97" s="3">
-        <v>1</v>
-      </c>
-      <c r="E97" s="56">
+      <c r="D100" s="3">
+        <v>1</v>
+      </c>
+      <c r="E100" s="55">
         <v>200</v>
       </c>
-      <c r="F97" s="56">
-        <f>E97*D97</f>
+      <c r="F100" s="55">
+        <f>E100*D100</f>
         <v>200</v>
       </c>
-      <c r="I97" s="3" t="s">
+      <c r="I100" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="J97" s="4"/>
-    </row>
-    <row r="98" spans="1:10" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A98" s="4" t="s">
+      <c r="J100" s="4"/>
+    </row>
+    <row r="101" spans="1:10" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A101" s="4" t="s">
         <v>424</v>
       </c>
-      <c r="B98" s="4" t="s">
+      <c r="B101" s="4" t="s">
         <v>434</v>
       </c>
-      <c r="C98" s="4" t="s">
+      <c r="C101" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="D98" s="4">
+      <c r="D101" s="4">
         <v>5</v>
       </c>
-      <c r="E98" s="59">
-        <v>1</v>
-      </c>
-      <c r="F98" s="59">
+      <c r="E101" s="58">
+        <v>1</v>
+      </c>
+      <c r="F101" s="58">
         <v>5</v>
       </c>
-      <c r="I98" s="4" t="s">
+      <c r="I101" s="4" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A99" s="3" t="s">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A102" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="B99" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C99" s="3" t="s">
+      <c r="B102" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C102" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="D99" s="3">
-        <v>1</v>
-      </c>
-      <c r="E99" s="56">
+      <c r="D102" s="3">
+        <v>1</v>
+      </c>
+      <c r="E102" s="55">
         <v>26</v>
       </c>
-      <c r="F99" s="56">
-        <f>E99*D99</f>
+      <c r="F102" s="55">
+        <f>E102*D102</f>
         <v>26</v>
       </c>
-      <c r="I99" s="3" t="s">
+      <c r="I102" s="3" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A100" s="3" t="s">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A103" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="B100" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C100" s="3" t="s">
+      <c r="B103" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C103" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="D100" s="3">
-        <v>1</v>
-      </c>
-      <c r="E100" s="56">
+      <c r="D103" s="3">
+        <v>1</v>
+      </c>
+      <c r="E103" s="55">
         <v>37</v>
       </c>
-      <c r="F100" s="56">
-        <f>E100*D100</f>
+      <c r="F103" s="55">
+        <f>E103*D103</f>
         <v>37</v>
       </c>
-      <c r="I100" s="3" t="s">
+      <c r="I103" s="3" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A101" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="B101" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C101" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="D101" s="3">
-        <v>2</v>
-      </c>
-      <c r="E101" s="56">
-        <v>24</v>
-      </c>
-      <c r="F101" s="56">
-        <f>E101*D101</f>
-        <v>48</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A102" s="43" t="s">
-        <v>155</v>
-      </c>
-      <c r="E102" s="66"/>
-      <c r="F102" s="66"/>
-    </row>
-    <row r="103" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="15" t="s">
-        <v>541</v>
-      </c>
-      <c r="E103" s="66"/>
-      <c r="F103" s="66"/>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="D104" s="3">
+        <v>2</v>
+      </c>
+      <c r="E104" s="55">
+        <v>24</v>
+      </c>
+      <c r="F104" s="55">
+        <f>E104*D104</f>
+        <v>48</v>
+      </c>
+      <c r="I104" s="3" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A105" s="42" t="s">
+        <v>155</v>
+      </c>
+      <c r="E105" s="65"/>
+      <c r="F105" s="65"/>
+    </row>
+    <row r="106" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="14" t="s">
+        <v>541</v>
+      </c>
+      <c r="E106" s="65"/>
+      <c r="F106" s="65"/>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A107" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="B104" s="3" t="s">
+      <c r="B107" s="3" t="s">
         <v>542</v>
       </c>
-      <c r="C104" s="3" t="s">
+      <c r="C107" s="3" t="s">
         <v>543</v>
       </c>
-      <c r="D104" s="3">
-        <v>1</v>
-      </c>
-      <c r="E104" s="56">
+      <c r="D107" s="3">
+        <v>1</v>
+      </c>
+      <c r="E107" s="55">
         <v>625</v>
       </c>
-      <c r="F104" s="56">
-        <f>E104*D104</f>
+      <c r="F107" s="55">
+        <f>E107*D107</f>
         <v>625</v>
       </c>
-      <c r="G104" s="3" t="s">
+      <c r="G107" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I104" s="3" t="s">
+      <c r="I107" s="3" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="105" spans="1:10" s="18" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A105" s="17" t="s">
+    <row r="108" spans="1:10" s="17" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A108" s="16" t="s">
         <v>319</v>
       </c>
-      <c r="E105" s="67"/>
-      <c r="F105" s="67"/>
-    </row>
-    <row r="106" spans="1:10" s="20" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A106" s="21" t="s">
+      <c r="E108" s="66"/>
+      <c r="F108" s="66"/>
+    </row>
+    <row r="109" spans="1:10" s="19" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A109" s="20" t="s">
         <v>447</v>
       </c>
-      <c r="B106" s="20" t="s">
+      <c r="B109" s="19" t="s">
         <v>293</v>
       </c>
-      <c r="C106" s="71" t="s">
+      <c r="C109" s="70" t="s">
         <v>448</v>
       </c>
-      <c r="D106" s="20">
-        <v>1</v>
-      </c>
-      <c r="E106" s="68">
+      <c r="D109" s="19">
+        <v>1</v>
+      </c>
+      <c r="E109" s="67">
         <v>900</v>
       </c>
-      <c r="F106" s="68">
-        <f t="shared" ref="F106:F112" si="8">E106*D106</f>
+      <c r="F109" s="67">
+        <f t="shared" ref="F109:F115" si="8">E109*D109</f>
         <v>900</v>
       </c>
-      <c r="G106" s="3" t="s">
+      <c r="G109" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I106" s="20" t="s">
+      <c r="I109" s="19" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="107" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A107" s="22" t="s">
+    <row r="110" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A110" s="21" t="s">
         <v>451</v>
       </c>
-      <c r="B107" s="20" t="s">
+      <c r="B110" s="19" t="s">
         <v>293</v>
       </c>
-      <c r="C107" s="72" t="s">
+      <c r="C110" s="71" t="s">
         <v>449</v>
       </c>
-      <c r="D107" s="3">
-        <v>1</v>
-      </c>
-      <c r="E107" s="56">
+      <c r="D110" s="3">
+        <v>1</v>
+      </c>
+      <c r="E110" s="55">
         <v>767</v>
       </c>
-      <c r="F107" s="68">
+      <c r="F110" s="67">
         <f t="shared" si="8"/>
         <v>767</v>
       </c>
-      <c r="G107" s="3" t="s">
+      <c r="G110" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H107" s="20"/>
-      <c r="I107" s="3" t="s">
+      <c r="H110" s="19"/>
+      <c r="I110" s="3" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="108" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A108" s="22" t="s">
+    <row r="111" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A111" s="21" t="s">
         <v>452</v>
       </c>
-      <c r="B108" s="20" t="s">
+      <c r="B111" s="19" t="s">
         <v>293</v>
       </c>
-      <c r="C108" s="72" t="s">
+      <c r="C111" s="71" t="s">
         <v>450</v>
       </c>
-      <c r="D108" s="3">
+      <c r="D111" s="3">
         <v>0</v>
       </c>
-      <c r="E108" s="56">
+      <c r="E111" s="55">
         <v>1540</v>
       </c>
-      <c r="F108" s="68">
+      <c r="F111" s="67">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="G108" s="3" t="s">
+      <c r="G111" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H108" s="20"/>
-      <c r="I108" s="3" t="s">
+      <c r="H111" s="19"/>
+      <c r="I111" s="3" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="109" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A109" s="3" t="s">
+    <row r="112" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A112" s="3" t="s">
         <v>454</v>
       </c>
-      <c r="B109" s="20" t="s">
+      <c r="B112" s="19" t="s">
         <v>293</v>
       </c>
-      <c r="C109" s="72" t="s">
+      <c r="C112" s="71" t="s">
         <v>453</v>
       </c>
-      <c r="D109" s="3">
-        <v>1</v>
-      </c>
-      <c r="E109" s="56">
+      <c r="D112" s="3">
+        <v>1</v>
+      </c>
+      <c r="E112" s="55">
         <v>877</v>
       </c>
-      <c r="F109" s="68">
+      <c r="F112" s="67">
         <f t="shared" si="8"/>
         <v>877</v>
       </c>
-      <c r="G109" s="3" t="s">
+      <c r="G112" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H109" s="20"/>
-      <c r="I109" s="3" t="s">
+      <c r="H112" s="19"/>
+      <c r="I112" s="3" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="110" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A110" s="3" t="s">
+    <row r="113" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A113" s="3" t="s">
         <v>455</v>
       </c>
-      <c r="B110" s="20" t="s">
+      <c r="B113" s="19" t="s">
         <v>293</v>
       </c>
-      <c r="C110" s="72" t="s">
+      <c r="C113" s="71" t="s">
         <v>389</v>
       </c>
-      <c r="D110" s="3">
+      <c r="D113" s="3">
         <v>0</v>
       </c>
-      <c r="E110" s="56">
+      <c r="E113" s="55">
         <v>4700</v>
       </c>
-      <c r="F110" s="68">
+      <c r="F113" s="67">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="G110" s="3" t="s">
+      <c r="G113" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H110" s="20"/>
-      <c r="I110" s="3" t="s">
+      <c r="H113" s="19"/>
+      <c r="I113" s="3" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A111" s="3" t="s">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A114" s="3" t="s">
         <v>458</v>
       </c>
-      <c r="B111" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="C111" s="3" t="s">
+      <c r="B114" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C114" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="D111" s="3">
-        <v>1</v>
-      </c>
-      <c r="E111" s="56">
+      <c r="D114" s="3">
+        <v>1</v>
+      </c>
+      <c r="E114" s="55">
         <v>20</v>
       </c>
-      <c r="F111" s="68">
+      <c r="F114" s="67">
         <f t="shared" si="8"/>
         <v>20</v>
       </c>
-      <c r="G111" s="3" t="s">
+      <c r="G114" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H111" s="20"/>
-      <c r="I111" s="3" t="s">
+      <c r="H114" s="19"/>
+      <c r="I114" s="3" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A112" s="3" t="s">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A115" s="3" t="s">
         <v>460</v>
       </c>
-      <c r="B112" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="C112" s="28" t="s">
+      <c r="B115" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C115" s="27" t="s">
         <v>461</v>
       </c>
-      <c r="D112" s="3">
-        <v>1</v>
-      </c>
-      <c r="E112" s="56">
+      <c r="D115" s="3">
+        <v>1</v>
+      </c>
+      <c r="E115" s="55">
         <v>25</v>
       </c>
-      <c r="F112" s="68">
+      <c r="F115" s="67">
         <f t="shared" si="8"/>
         <v>25</v>
       </c>
-      <c r="G112" s="3" t="s">
+      <c r="G115" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H112" s="20"/>
-      <c r="I112" s="3" t="s">
+      <c r="H115" s="19"/>
+      <c r="I115" s="3" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="113" spans="1:9" s="18" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A113" s="17" t="s">
+    <row r="116" spans="1:9" s="17" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A116" s="16" t="s">
         <v>320</v>
       </c>
-      <c r="E113" s="67"/>
-      <c r="F113" s="67"/>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A114" s="3" t="s">
+      <c r="E116" s="66"/>
+      <c r="F116" s="66"/>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A117" s="3" t="s">
         <v>467</v>
       </c>
-      <c r="B114" s="20" t="s">
+      <c r="B117" s="19" t="s">
         <v>293</v>
       </c>
-      <c r="C114" s="53" t="s">
+      <c r="C117" s="52" t="s">
         <v>322</v>
       </c>
-      <c r="D114" s="3">
-        <v>1</v>
-      </c>
-      <c r="E114" s="56">
+      <c r="D117" s="3">
+        <v>1</v>
+      </c>
+      <c r="E117" s="55">
         <v>752</v>
       </c>
-      <c r="F114" s="56">
-        <f t="shared" ref="F114:F119" si="9">D114*E114</f>
+      <c r="F117" s="55">
+        <f t="shared" ref="F117:F122" si="9">D117*E117</f>
         <v>752</v>
       </c>
-      <c r="G114" s="3" t="s">
+      <c r="G117" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I114" s="3" t="s">
+      <c r="I117" s="3" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="115" spans="1:9" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A115" s="4" t="s">
+    <row r="118" spans="1:9" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A118" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="B115" s="49" t="s">
+      <c r="B118" s="48" t="s">
         <v>209</v>
       </c>
-      <c r="C115" s="4" t="s">
+      <c r="C118" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="D115" s="4">
+      <c r="D118" s="4">
         <v>5</v>
       </c>
-      <c r="E115" s="59">
-        <v>1</v>
-      </c>
-      <c r="F115" s="59">
+      <c r="E118" s="58">
+        <v>1</v>
+      </c>
+      <c r="F118" s="58">
         <v>5</v>
       </c>
-      <c r="G115" s="4" t="s">
+      <c r="G118" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I115" s="4" t="s">
+      <c r="I118" s="4" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A116" s="3" t="s">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A119" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="B116" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="C116" s="3" t="s">
+      <c r="B119" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C119" s="3" t="s">
         <v>586</v>
       </c>
-      <c r="D116" s="3">
-        <v>1</v>
-      </c>
-      <c r="E116" s="56">
+      <c r="D119" s="3">
+        <v>1</v>
+      </c>
+      <c r="E119" s="55">
         <v>65</v>
       </c>
-      <c r="F116" s="56">
+      <c r="F119" s="55">
         <f t="shared" si="9"/>
         <v>65</v>
       </c>
-      <c r="G116" s="3" t="s">
+      <c r="G119" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I116" s="3" t="s">
+      <c r="I119" s="3" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A117" s="3" t="s">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A120" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="B117" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="C117" s="3" t="s">
+      <c r="B120" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C120" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="D117" s="3">
-        <v>1</v>
-      </c>
-      <c r="E117" s="56">
+      <c r="D120" s="3">
+        <v>1</v>
+      </c>
+      <c r="E120" s="55">
         <v>32</v>
       </c>
-      <c r="F117" s="56">
+      <c r="F120" s="55">
         <f t="shared" si="9"/>
         <v>32</v>
       </c>
-      <c r="G117" s="3" t="s">
+      <c r="G120" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I117" s="3" t="s">
+      <c r="I120" s="3" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A118" s="3" t="s">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A121" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="B118" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="C118" s="3" t="s">
+      <c r="B121" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C121" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="D118" s="3">
-        <v>1</v>
-      </c>
-      <c r="E118" s="56">
+      <c r="D121" s="3">
+        <v>1</v>
+      </c>
+      <c r="E121" s="55">
         <v>112</v>
       </c>
-      <c r="F118" s="56">
+      <c r="F121" s="55">
         <f t="shared" si="9"/>
         <v>112</v>
       </c>
-      <c r="G118" s="3" t="s">
+      <c r="G121" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I118" s="3" t="s">
+      <c r="I121" s="3" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="119" spans="1:9" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A119" s="4" t="s">
+    <row r="122" spans="1:9" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A122" s="4" t="s">
         <v>511</v>
       </c>
-      <c r="B119" s="49" t="s">
+      <c r="B122" s="48" t="s">
         <v>209</v>
       </c>
-      <c r="C119" s="4" t="s">
+      <c r="C122" s="4" t="s">
         <v>506</v>
       </c>
-      <c r="D119" s="4">
+      <c r="D122" s="4">
         <v>5</v>
       </c>
-      <c r="E119" s="59">
+      <c r="E122" s="58">
         <v>2</v>
       </c>
-      <c r="F119" s="59">
+      <c r="F122" s="58">
         <f t="shared" si="9"/>
         <v>10</v>
       </c>
-      <c r="G119" s="4" t="s">
+      <c r="G122" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I119" s="4" t="s">
+      <c r="I122" s="4" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="120" spans="1:9" s="6" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A120" s="5" t="s">
+    <row r="123" spans="1:9" s="6" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A123" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E120" s="57"/>
-      <c r="F120" s="57"/>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A121" s="3" t="s">
+      <c r="E123" s="56"/>
+      <c r="F123" s="56"/>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A124" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B121" s="3" t="s">
+      <c r="B124" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C121" s="3" t="s">
+      <c r="C124" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D121" s="3">
-        <v>1</v>
-      </c>
-      <c r="E121" s="56">
+      <c r="D124" s="3">
+        <v>1</v>
+      </c>
+      <c r="E124" s="55">
         <v>5420</v>
       </c>
-      <c r="F121" s="56">
-        <f t="shared" ref="F121:F134" si="10">E121*D121</f>
+      <c r="F124" s="55">
+        <f t="shared" ref="F124:F137" si="10">E124*D124</f>
         <v>5420</v>
       </c>
-      <c r="G121" s="3" t="s">
+      <c r="G124" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="I121" s="3" t="s">
+      <c r="I124" s="3" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A122" s="3" t="s">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A125" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="B122" s="3" t="s">
+      <c r="B125" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C122" s="3" t="s">
+      <c r="C125" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="D122" s="3">
-        <v>1</v>
-      </c>
-      <c r="E122" s="56">
+      <c r="D125" s="3">
+        <v>1</v>
+      </c>
+      <c r="E125" s="55">
         <v>2560</v>
       </c>
-      <c r="F122" s="56">
+      <c r="F125" s="55">
         <f t="shared" si="10"/>
         <v>2560</v>
       </c>
-      <c r="G122" s="3" t="s">
+      <c r="G125" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="I122" s="3" t="s">
+      <c r="I125" s="3" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A123" s="3" t="s">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A126" s="3" t="s">
         <v>570</v>
       </c>
-      <c r="B123" s="3" t="s">
+      <c r="B126" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C123" s="3" t="s">
+      <c r="C126" s="3" t="s">
         <v>504</v>
       </c>
-      <c r="D123" s="3">
-        <v>1</v>
-      </c>
-      <c r="E123" s="56">
+      <c r="D126" s="3">
+        <v>1</v>
+      </c>
+      <c r="E126" s="55">
         <v>900</v>
       </c>
-      <c r="F123" s="56">
+      <c r="F126" s="55">
         <f t="shared" si="10"/>
         <v>900</v>
       </c>
-      <c r="G123" s="3" t="s">
+      <c r="G126" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="I123" s="3" t="s">
+      <c r="I126" s="3" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A124" s="3" t="s">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A127" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="B124" s="3" t="s">
+      <c r="B127" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C124" s="3" t="s">
+      <c r="C127" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="D124" s="3">
-        <v>1</v>
-      </c>
-      <c r="E124" s="56">
+      <c r="D127" s="3">
+        <v>1</v>
+      </c>
+      <c r="E127" s="55">
         <v>163</v>
       </c>
-      <c r="F124" s="56">
+      <c r="F127" s="55">
         <f t="shared" si="10"/>
         <v>163</v>
       </c>
-      <c r="G124" s="3" t="s">
+      <c r="G127" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="I124" s="3" t="s">
+      <c r="I127" s="3" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A125" s="3" t="s">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A128" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B125" s="3" t="s">
+      <c r="B128" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C125" s="3" t="s">
+      <c r="C128" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="D125" s="3">
-        <v>1</v>
-      </c>
-      <c r="E125" s="56">
+      <c r="D128" s="3">
+        <v>1</v>
+      </c>
+      <c r="E128" s="55">
         <v>11</v>
       </c>
-      <c r="F125" s="56">
+      <c r="F128" s="55">
         <f t="shared" si="10"/>
         <v>11</v>
       </c>
-      <c r="G125" s="3" t="s">
+      <c r="G128" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A126" s="3" t="s">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A129" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B126" s="3" t="s">
+      <c r="B129" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C126" s="3" t="s">
+      <c r="C129" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D126" s="3">
-        <v>1</v>
-      </c>
-      <c r="E126" s="56">
+      <c r="D129" s="3">
+        <v>1</v>
+      </c>
+      <c r="E129" s="55">
         <v>520</v>
       </c>
-      <c r="F126" s="56">
+      <c r="F129" s="55">
         <f t="shared" si="10"/>
         <v>520</v>
       </c>
-      <c r="G126" s="3" t="s">
+      <c r="G129" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A127" s="3" t="s">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A130" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="B127" s="3" t="s">
+      <c r="B130" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C127" s="3" t="s">
+      <c r="C130" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="D127" s="3">
-        <v>1</v>
-      </c>
-      <c r="E127" s="56">
+      <c r="D130" s="3">
+        <v>1</v>
+      </c>
+      <c r="E130" s="55">
         <v>193</v>
       </c>
-      <c r="F127" s="56">
+      <c r="F130" s="55">
         <f t="shared" si="10"/>
         <v>193</v>
       </c>
-      <c r="G127" s="3" t="s">
+      <c r="G130" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A128" s="3" t="s">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A131" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="B128" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C128" s="3" t="s">
+      <c r="B131" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C131" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="D128" s="3">
+      <c r="D131" s="3">
         <v>10</v>
       </c>
-      <c r="E128" s="56">
+      <c r="E131" s="55">
         <v>12</v>
       </c>
-      <c r="F128" s="56">
+      <c r="F131" s="55">
         <f t="shared" si="10"/>
         <v>120</v>
       </c>
-      <c r="G128" s="3" t="s">
+      <c r="G131" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="I128" s="3" t="s">
+      <c r="I131" s="3" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A129" s="3" t="s">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A132" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="B129" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C129" s="3" t="s">
+      <c r="B132" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C132" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="D129" s="3">
-        <v>1</v>
-      </c>
-      <c r="E129" s="56">
+      <c r="D132" s="3">
+        <v>1</v>
+      </c>
+      <c r="E132" s="55">
         <v>14</v>
       </c>
-      <c r="F129" s="56">
+      <c r="F132" s="55">
         <f t="shared" si="10"/>
         <v>14</v>
       </c>
-      <c r="G129" s="3" t="s">
+      <c r="G132" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="I129" s="3" t="s">
+      <c r="I132" s="3" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A130" s="3" t="s">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A133" s="3" t="s">
         <v>569</v>
       </c>
-      <c r="B130" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C130" s="3" t="s">
+      <c r="B133" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C133" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="D130" s="3">
+      <c r="D133" s="3">
         <v>5</v>
       </c>
-      <c r="E130" s="56">
+      <c r="E133" s="55">
         <v>15.25</v>
       </c>
-      <c r="F130" s="56">
+      <c r="F133" s="55">
         <f t="shared" si="10"/>
         <v>76.25</v>
       </c>
-      <c r="G130" s="3" t="s">
+      <c r="G133" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A131" s="3" t="s">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A134" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B131" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C131" s="3" t="s">
+      <c r="B134" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C134" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="D131" s="3">
+      <c r="D134" s="3">
         <v>10</v>
       </c>
-      <c r="E131" s="56">
+      <c r="E134" s="55">
         <v>16.5</v>
       </c>
-      <c r="F131" s="56">
+      <c r="F134" s="55">
         <f t="shared" si="10"/>
         <v>165</v>
       </c>
-      <c r="G131" s="3" t="s">
+      <c r="G134" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A132" s="3" t="s">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A135" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B132" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C132" s="3" t="s">
+      <c r="B135" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C135" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="D132" s="3">
+      <c r="D135" s="3">
         <v>10</v>
       </c>
-      <c r="E132" s="56">
+      <c r="E135" s="55">
         <v>24</v>
       </c>
-      <c r="F132" s="56">
+      <c r="F135" s="55">
         <f t="shared" si="10"/>
         <v>240</v>
       </c>
-      <c r="G132" s="3" t="s">
+      <c r="G135" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A133" s="3" t="s">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A136" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B133" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C133" s="3" t="s">
+      <c r="B136" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C136" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="D133" s="3">
+      <c r="D136" s="3">
         <v>6</v>
       </c>
-      <c r="E133" s="56">
+      <c r="E136" s="55">
         <v>24</v>
       </c>
-      <c r="F133" s="56">
+      <c r="F136" s="55">
         <f t="shared" si="10"/>
         <v>144</v>
       </c>
-      <c r="G133" s="3" t="s">
+      <c r="G136" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A134" s="26" t="s">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A137" s="25" t="s">
         <v>581</v>
       </c>
-      <c r="B134" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C134" s="3" t="s">
+      <c r="B137" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C137" s="3" t="s">
         <v>582</v>
       </c>
-      <c r="D134" s="3">
-        <v>1</v>
-      </c>
-      <c r="E134" s="56">
+      <c r="D137" s="3">
+        <v>1</v>
+      </c>
+      <c r="E137" s="55">
         <v>11</v>
       </c>
-      <c r="F134" s="56">
+      <c r="F137" s="55">
         <f t="shared" si="10"/>
         <v>11</v>
       </c>
-      <c r="G134" s="3" t="s">
+      <c r="G137" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="I134" s="3" t="s">
+      <c r="I137" s="3" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="136" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A136" s="10"/>
-      <c r="B136" s="10"/>
-      <c r="C136" s="9"/>
-    </row>
-    <row r="137" spans="1:9" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A137" s="7" t="s">
+    <row r="139" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A139" s="10"/>
+      <c r="B139" s="10"/>
+      <c r="C139" s="9"/>
+    </row>
+    <row r="140" spans="1:9" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A140" s="7" t="s">
         <v>548</v>
       </c>
-      <c r="E137" s="57"/>
-      <c r="F137" s="57"/>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A138" s="3" t="s">
+      <c r="E140" s="56"/>
+      <c r="F140" s="56"/>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A141" s="3" t="s">
         <v>563</v>
       </c>
-      <c r="B138" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C138" s="3" t="s">
+      <c r="B141" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C141" s="3" t="s">
         <v>562</v>
       </c>
-      <c r="D138" s="3">
+      <c r="D141" s="3">
         <v>2</v>
       </c>
-      <c r="E138" s="56">
+      <c r="E141" s="55">
         <v>25</v>
       </c>
-      <c r="F138" s="56">
-        <f t="shared" ref="F138:F163" si="11">E138*D138</f>
+      <c r="F141" s="55">
+        <f t="shared" ref="F141:F166" si="11">E141*D141</f>
         <v>50</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A139" s="3" t="s">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A142" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B139" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C139" s="3" t="s">
+      <c r="B142" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C142" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="D139" s="3">
-        <v>1</v>
-      </c>
-      <c r="E139" s="56">
+      <c r="D142" s="3">
+        <v>1</v>
+      </c>
+      <c r="E142" s="55">
         <v>85.1</v>
       </c>
-      <c r="F139" s="56">
+      <c r="F142" s="55">
         <f t="shared" si="11"/>
         <v>85.1</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A140" s="3" t="s">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A143" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="B140" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C140" s="3" t="s">
+      <c r="B143" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C143" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="D140" s="3">
+      <c r="D143" s="3">
         <v>2</v>
       </c>
-      <c r="E140" s="56">
+      <c r="E143" s="55">
         <v>32</v>
       </c>
-      <c r="F140" s="56">
+      <c r="F143" s="55">
         <f t="shared" si="11"/>
         <v>64</v>
       </c>
-      <c r="I140" s="3" t="s">
+      <c r="I143" s="3" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A141" s="3" t="s">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A144" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="B141" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C141" s="3" t="s">
+      <c r="B144" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C144" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="D141" s="3">
+      <c r="D144" s="3">
         <v>2</v>
       </c>
-      <c r="E141" s="56">
+      <c r="E144" s="55">
         <v>51.58</v>
       </c>
-      <c r="F141" s="56">
+      <c r="F144" s="55">
         <f t="shared" si="11"/>
         <v>103.16</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A142" s="3" t="s">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A145" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="B142" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C142" s="3" t="s">
+      <c r="B145" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C145" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="D142" s="3">
-        <v>1</v>
-      </c>
-      <c r="E142" s="56">
+      <c r="D145" s="3">
+        <v>1</v>
+      </c>
+      <c r="E145" s="55">
         <v>60</v>
       </c>
-      <c r="F142" s="56">
+      <c r="F145" s="55">
         <f t="shared" si="11"/>
         <v>60</v>
       </c>
-      <c r="I142" s="3" t="s">
+      <c r="I145" s="3" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A143" s="3" t="s">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A146" s="3" t="s">
         <v>568</v>
       </c>
-      <c r="B143" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C143" s="3" t="s">
+      <c r="B146" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C146" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="D143" s="3">
-        <v>1</v>
-      </c>
-      <c r="E143" s="56">
+      <c r="D146" s="3">
+        <v>1</v>
+      </c>
+      <c r="E146" s="55">
         <v>136.47999999999999</v>
       </c>
-      <c r="F143" s="56">
+      <c r="F146" s="55">
         <f t="shared" si="11"/>
         <v>136.47999999999999</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A144" s="3" t="s">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A147" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="B144" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C144" s="3" t="s">
+      <c r="B147" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C147" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D144" s="3">
-        <v>1</v>
-      </c>
-      <c r="E144" s="56">
+      <c r="D147" s="3">
+        <v>1</v>
+      </c>
+      <c r="E147" s="55">
         <v>136.47999999999999</v>
       </c>
-      <c r="F144" s="56">
+      <c r="F147" s="55">
         <f t="shared" si="11"/>
         <v>136.47999999999999</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A145" s="3" t="s">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A148" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B145" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C145" s="3" t="s">
+      <c r="B148" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C148" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="D145" s="3">
-        <v>1</v>
-      </c>
-      <c r="E145" s="56">
+      <c r="D148" s="3">
+        <v>1</v>
+      </c>
+      <c r="E148" s="55">
         <v>60.95</v>
       </c>
-      <c r="F145" s="56">
+      <c r="F148" s="55">
         <f t="shared" si="11"/>
         <v>60.95</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A146" s="3" t="s">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A149" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="B146" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C146" s="3" t="s">
+      <c r="B149" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C149" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="D146" s="3">
-        <v>1</v>
-      </c>
-      <c r="E146" s="56">
+      <c r="D149" s="3">
+        <v>1</v>
+      </c>
+      <c r="E149" s="55">
         <v>119.416</v>
       </c>
-      <c r="F146" s="56">
+      <c r="F149" s="55">
         <f t="shared" si="11"/>
         <v>119.416</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A147" s="3" t="s">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A150" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B147" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C147" s="3" t="s">
+      <c r="B150" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C150" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="D147" s="3">
-        <v>1</v>
-      </c>
-      <c r="E147" s="56">
+      <c r="D150" s="3">
+        <v>1</v>
+      </c>
+      <c r="E150" s="55">
         <v>105.8</v>
       </c>
-      <c r="F147" s="56">
+      <c r="F150" s="55">
         <f t="shared" si="11"/>
         <v>105.8</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A148" s="3" t="s">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A151" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="B148" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C148" s="3" t="s">
+      <c r="B151" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C151" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="D148" s="3">
+      <c r="D151" s="3">
         <v>2</v>
       </c>
-      <c r="E148" s="56">
+      <c r="E151" s="55">
         <v>119.6</v>
       </c>
-      <c r="F148" s="56">
+      <c r="F151" s="55">
         <f t="shared" si="11"/>
         <v>239.2</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A149" s="3" t="s">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A152" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="B149" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C149" s="3" t="s">
+      <c r="B152" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C152" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="D149" s="3">
-        <v>1</v>
-      </c>
-      <c r="E149" s="56">
+      <c r="D152" s="3">
+        <v>1</v>
+      </c>
+      <c r="E152" s="55">
         <v>100</v>
       </c>
-      <c r="F149" s="56">
+      <c r="F152" s="55">
         <f t="shared" si="11"/>
         <v>100</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A150" s="3" t="s">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A153" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="B150" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C150" s="3" t="s">
+      <c r="B153" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C153" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="D150" s="3">
+      <c r="D153" s="3">
         <v>2</v>
       </c>
-      <c r="E150" s="56">
+      <c r="E153" s="55">
         <v>92</v>
       </c>
-      <c r="F150" s="56">
+      <c r="F153" s="55">
         <f t="shared" si="11"/>
         <v>184</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A151" s="3" t="s">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A154" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="B151" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C151" s="3" t="s">
+      <c r="B154" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C154" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="D151" s="3">
-        <v>1</v>
-      </c>
-      <c r="E151" s="56">
+      <c r="D154" s="3">
+        <v>1</v>
+      </c>
+      <c r="E154" s="55">
         <v>96.23</v>
       </c>
-      <c r="F151" s="56">
+      <c r="F154" s="55">
         <f t="shared" si="11"/>
         <v>96.23</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A152" s="3" t="s">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A155" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="B152" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C152" s="3" t="s">
+      <c r="B155" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C155" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="D152" s="3">
-        <v>1</v>
-      </c>
-      <c r="E152" s="56">
+      <c r="D155" s="3">
+        <v>1</v>
+      </c>
+      <c r="E155" s="55">
         <v>102.44</v>
       </c>
-      <c r="F152" s="56">
+      <c r="F155" s="55">
         <f t="shared" si="11"/>
         <v>102.44</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A153" s="3" t="s">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A156" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="B153" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C153" s="3" t="s">
+      <c r="B156" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C156" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="D153" s="3">
+      <c r="D156" s="3">
         <v>2</v>
       </c>
-      <c r="E153" s="56">
+      <c r="E156" s="55">
         <v>28</v>
       </c>
-      <c r="F153" s="56">
+      <c r="F156" s="55">
         <f t="shared" si="11"/>
         <v>56</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A154" s="3" t="s">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A157" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B154" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C154" s="3" t="s">
+      <c r="B157" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C157" s="3" t="s">
         <v>549</v>
       </c>
-      <c r="D154" s="3">
-        <v>1</v>
-      </c>
-      <c r="E154" s="56">
+      <c r="D157" s="3">
+        <v>1</v>
+      </c>
+      <c r="E157" s="55">
         <v>490</v>
       </c>
-      <c r="F154" s="56">
+      <c r="F157" s="55">
         <f t="shared" si="11"/>
         <v>490</v>
       </c>
-      <c r="I154" s="3" t="s">
+      <c r="I157" s="3" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="155" spans="1:9" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A155" s="29" t="s">
+    <row r="158" spans="1:9" s="28" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A158" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="B155" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="C155" s="29" t="s">
+      <c r="B158" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="C158" s="28" t="s">
         <v>550</v>
       </c>
-      <c r="D155" s="29">
-        <v>1</v>
-      </c>
-      <c r="E155" s="44">
+      <c r="D158" s="28">
+        <v>1</v>
+      </c>
+      <c r="E158" s="43">
         <v>77</v>
       </c>
-      <c r="F155" s="44">
+      <c r="F158" s="43">
         <f t="shared" si="11"/>
         <v>77</v>
       </c>
-      <c r="I155" s="29" t="s">
+      <c r="I158" s="28" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="156" spans="1:9" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A156" s="29" t="s">
+    <row r="159" spans="1:9" s="28" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A159" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="B156" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="C156" s="29" t="s">
+      <c r="B159" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="C159" s="28" t="s">
         <v>552</v>
       </c>
-      <c r="D156" s="29">
-        <v>1</v>
-      </c>
-      <c r="E156" s="44">
+      <c r="D159" s="28">
+        <v>1</v>
+      </c>
+      <c r="E159" s="43">
         <v>20</v>
       </c>
-      <c r="F156" s="44">
+      <c r="F159" s="43">
         <f t="shared" si="11"/>
         <v>20</v>
       </c>
-      <c r="I156" s="29" t="s">
+      <c r="I159" s="28" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="157" spans="1:9" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A157" s="29" t="s">
+    <row r="160" spans="1:9" s="28" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A160" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="B157" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="C157" s="29" t="s">
+      <c r="B160" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="C160" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="D157" s="29">
-        <v>1</v>
-      </c>
-      <c r="E157" s="44">
+      <c r="D160" s="28">
+        <v>1</v>
+      </c>
+      <c r="E160" s="43">
         <v>177</v>
       </c>
-      <c r="F157" s="44">
+      <c r="F160" s="43">
         <f t="shared" si="11"/>
         <v>177</v>
       </c>
-      <c r="I157" s="29" t="s">
+      <c r="I160" s="28" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A158" s="3" t="s">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A161" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B158" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C158" s="3" t="s">
+      <c r="B161" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C161" s="3" t="s">
         <v>554</v>
       </c>
-      <c r="D158" s="3">
+      <c r="D161" s="3">
         <v>2</v>
       </c>
-      <c r="E158" s="56">
+      <c r="E161" s="55">
         <v>13</v>
       </c>
-      <c r="F158" s="56">
+      <c r="F161" s="55">
         <f t="shared" si="11"/>
         <v>26</v>
       </c>
-      <c r="I158" s="3" t="s">
+      <c r="I161" s="3" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A159" s="3" t="s">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A162" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B159" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C159" s="3" t="s">
+      <c r="B162" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C162" s="3" t="s">
         <v>555</v>
       </c>
-      <c r="D159" s="3">
+      <c r="D162" s="3">
         <v>2</v>
       </c>
-      <c r="E159" s="56">
+      <c r="E162" s="55">
         <v>19</v>
       </c>
-      <c r="F159" s="56">
+      <c r="F162" s="55">
         <f t="shared" si="11"/>
         <v>38</v>
       </c>
-      <c r="I159" s="3" t="s">
+      <c r="I162" s="3" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A160" s="3" t="s">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A163" s="3" t="s">
         <v>558</v>
       </c>
-      <c r="B160" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C160" s="3" t="s">
+      <c r="B163" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C163" s="3" t="s">
         <v>557</v>
       </c>
-      <c r="D160" s="3">
-        <v>1</v>
-      </c>
-      <c r="E160" s="56">
+      <c r="D163" s="3">
+        <v>1</v>
+      </c>
+      <c r="E163" s="55">
         <v>12</v>
       </c>
-      <c r="F160" s="56">
+      <c r="F163" s="55">
         <f t="shared" si="11"/>
         <v>12</v>
       </c>
-      <c r="I160" s="3" t="s">
+      <c r="I163" s="3" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A161" s="3" t="s">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A164" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B161" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C161" s="3" t="s">
+      <c r="B164" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C164" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D161" s="3">
+      <c r="D164" s="3">
         <v>2</v>
       </c>
-      <c r="E161" s="56">
+      <c r="E164" s="55">
         <v>35</v>
       </c>
-      <c r="F161" s="56">
+      <c r="F164" s="55">
         <f t="shared" si="11"/>
         <v>70</v>
       </c>
-      <c r="I161" s="3" t="s">
+      <c r="I164" s="3" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A162" s="3" t="s">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A165" s="3" t="s">
         <v>571</v>
       </c>
-      <c r="B162" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C162" s="3" t="s">
+      <c r="B165" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C165" s="3" t="s">
         <v>572</v>
       </c>
-      <c r="D162" s="3">
+      <c r="D165" s="3">
         <v>2</v>
       </c>
-      <c r="E162" s="56">
+      <c r="E165" s="55">
         <v>9</v>
       </c>
-      <c r="F162" s="56">
+      <c r="F165" s="55">
         <f t="shared" si="11"/>
         <v>18</v>
       </c>
-      <c r="I162" s="3" t="s">
+      <c r="I165" s="3" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A163" s="3" t="s">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A166" s="3" t="s">
         <v>561</v>
       </c>
-      <c r="B163" s="3" t="s">
+      <c r="B166" s="3" t="s">
         <v>559</v>
       </c>
-      <c r="C163" s="3" t="s">
+      <c r="C166" s="3" t="s">
         <v>560</v>
       </c>
-      <c r="D163" s="3">
+      <c r="D166" s="3">
         <v>0</v>
       </c>
-      <c r="E163" s="56">
+      <c r="E166" s="55">
         <v>520</v>
       </c>
-      <c r="F163" s="56">
+      <c r="F166" s="55">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="I163" s="3" t="s">
+      <c r="I166" s="3" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C164" s="3" t="s">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C167" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="D164" s="3">
+      <c r="D167" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C165" s="3" t="s">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C168" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="D165" s="3">
-        <v>1</v>
-      </c>
-      <c r="I165" s="3" t="s">
+      <c r="D168" s="3">
+        <v>1</v>
+      </c>
+      <c r="I168" s="3" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C166" s="3" t="s">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C169" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="D166" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168" spans="1:10" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A168" s="7" t="s">
+      <c r="D169" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A171" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="B168" s="6" t="s">
+      <c r="B171" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="E168" s="57"/>
-      <c r="F168" s="57"/>
-    </row>
-    <row r="169" spans="1:10" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="3"/>
-      <c r="B169" s="3" t="s">
+      <c r="E171" s="56"/>
+      <c r="F171" s="56"/>
+    </row>
+    <row r="172" spans="1:10" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="3"/>
+      <c r="B172" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="C169" s="20" t="s">
+      <c r="C172" s="19" t="s">
         <v>148</v>
-      </c>
-      <c r="D169" s="3">
-        <v>4</v>
-      </c>
-      <c r="E169" s="56">
-        <v>40</v>
-      </c>
-      <c r="F169" s="56">
-        <f>E169*D169</f>
-        <v>160</v>
-      </c>
-      <c r="G169" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="H169" s="3" t="s">
-        <v>403</v>
-      </c>
-      <c r="I169" s="3" t="s">
-        <v>401</v>
-      </c>
-      <c r="J169" s="20"/>
-    </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B170" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="C170" s="3" t="s">
-        <v>528</v>
-      </c>
-      <c r="D170" s="3">
-        <v>2</v>
-      </c>
-      <c r="E170" s="56">
-        <v>515</v>
-      </c>
-      <c r="F170" s="56">
-        <f>E170*D170</f>
-        <v>1030</v>
-      </c>
-      <c r="G170" s="3" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B171" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="C171" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="D171" s="3">
-        <v>4</v>
-      </c>
-      <c r="E171" s="56">
-        <v>25</v>
-      </c>
-      <c r="F171" s="56">
-        <f>E171*D171</f>
-        <v>100</v>
-      </c>
-      <c r="G171" s="3" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B172" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="C172" s="3" t="s">
-        <v>264</v>
       </c>
       <c r="D172" s="3">
         <v>4</v>
       </c>
-      <c r="E172" s="56">
-        <v>28</v>
-      </c>
-      <c r="F172" s="56">
+      <c r="E172" s="55">
+        <v>40</v>
+      </c>
+      <c r="F172" s="55">
         <f>E172*D172</f>
-        <v>112</v>
+        <v>160</v>
       </c>
       <c r="G172" s="3" t="s">
-        <v>405</v>
-      </c>
+        <v>402</v>
+      </c>
+      <c r="H172" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="I172" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="J172" s="19"/>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B173" s="3" t="s">
         <v>150</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>265</v>
+        <v>528</v>
       </c>
       <c r="D173" s="3">
-        <v>6</v>
-      </c>
-      <c r="E173" s="56">
-        <v>121.5</v>
-      </c>
-      <c r="F173" s="56">
+        <v>2</v>
+      </c>
+      <c r="E173" s="55">
+        <v>515</v>
+      </c>
+      <c r="F173" s="55">
         <f>E173*D173</f>
-        <v>729</v>
+        <v>1030</v>
       </c>
       <c r="G173" s="3" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="176" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="E176" s="51" t="s">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B174" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C174" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="D174" s="3">
+        <v>4</v>
+      </c>
+      <c r="E174" s="55">
+        <v>25</v>
+      </c>
+      <c r="F174" s="55">
+        <f>E174*D174</f>
+        <v>100</v>
+      </c>
+      <c r="G174" s="3" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B175" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C175" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="D175" s="3">
+        <v>4</v>
+      </c>
+      <c r="E175" s="55">
+        <v>28</v>
+      </c>
+      <c r="F175" s="55">
+        <f>E175*D175</f>
+        <v>112</v>
+      </c>
+      <c r="G175" s="3" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B176" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C176" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="D176" s="3">
+        <v>6</v>
+      </c>
+      <c r="E176" s="55">
+        <v>121.5</v>
+      </c>
+      <c r="F176" s="55">
+        <f>E176*D176</f>
+        <v>729</v>
+      </c>
+      <c r="G176" s="3" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="E179" s="50" t="s">
         <v>432</v>
       </c>
-      <c r="F176" s="51">
-        <f>SUM(F3:F174)</f>
+      <c r="F179" s="50">
+        <f>SUM(F3:F177)</f>
         <v>103251.75149919999</v>
       </c>
-      <c r="G176" s="3" t="s">
+      <c r="G179" s="3" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="180" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A180" s="50" t="s">
+    <row r="183" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A183" s="49" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="181" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A181" s="4" t="s">
+    <row r="184" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A184" s="4" t="s">
         <v>410</v>
       </c>
-      <c r="B181" s="4" t="s">
+      <c r="B184" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="C181" s="4" t="s">
+      <c r="C184" s="4" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A182" s="3" t="s">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A185" s="3" t="s">
         <v>407</v>
       </c>
-      <c r="B182" s="3">
+      <c r="B185" s="3">
         <v>14</v>
       </c>
-      <c r="C182" s="3" t="s">
+      <c r="C185" s="3" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A183" s="3" t="s">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A186" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="B183" s="3">
+      <c r="B186" s="3">
         <v>2</v>
       </c>
-      <c r="C183" s="3" t="s">
+      <c r="C186" s="3" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A184" s="3" t="s">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A187" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="B184" s="3">
+      <c r="B187" s="3">
         <v>2</v>
       </c>
-      <c r="C184" s="3" t="s">
+      <c r="C187" s="3" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A185" s="3" t="s">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A188" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="B185" s="3">
+      <c r="B188" s="3">
         <v>2</v>
       </c>
-      <c r="C185" s="3" t="s">
+      <c r="C188" s="3" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="188" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A188" s="50" t="s">
+    <row r="191" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A191" s="49" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="189" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A189" s="4" t="s">
+    <row r="192" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A192" s="4" t="s">
         <v>410</v>
       </c>
-      <c r="B189" s="4" t="s">
+      <c r="B192" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="C189" s="4" t="s">
+      <c r="C192" s="4" t="s">
         <v>408</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A190" s="3" t="s">
-        <v>421</v>
-      </c>
-      <c r="B190" s="3">
-        <v>2</v>
-      </c>
-      <c r="C190" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A191" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="B191" s="3">
-        <v>5</v>
-      </c>
-      <c r="C191" s="3" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A192" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="B192" s="3">
-        <v>1</v>
-      </c>
-      <c r="C192" s="3" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" s="3" t="s">
-        <v>508</v>
+        <v>421</v>
       </c>
       <c r="B193" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A194" s="3" t="s">
-        <v>511</v>
+        <v>294</v>
       </c>
       <c r="B194" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>512</v>
+        <v>427</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" s="3" t="s">
-        <v>595</v>
+        <v>324</v>
       </c>
       <c r="B195" s="3">
         <v>1</v>
       </c>
       <c r="C195" s="3" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="B196" s="3">
+        <v>1</v>
+      </c>
+      <c r="C196" s="3" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="B197" s="3">
+        <v>1</v>
+      </c>
+      <c r="C197" s="3" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="B198" s="3">
+        <v>1</v>
+      </c>
+      <c r="C198" s="3" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="198" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A198" s="50" t="s">
+    <row r="201" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A201" s="49" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="199" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A199" s="4" t="s">
+    <row r="202" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A202" s="4" t="s">
         <v>410</v>
       </c>
-      <c r="B199" s="4" t="s">
+      <c r="B202" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="C199" s="4" t="s">
+      <c r="C202" s="4" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A200" s="3" t="s">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="B200" s="3">
+      <c r="B203" s="3">
         <v>5</v>
       </c>
-      <c r="C200" s="3" t="s">
+      <c r="C203" s="3" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A201" s="3" t="s">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="B201" s="3">
+      <c r="B204" s="3">
         <v>3</v>
       </c>
-      <c r="C201" s="3" t="s">
+      <c r="C204" s="3" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A202" s="3" t="s">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205" s="3" t="s">
         <v>430</v>
       </c>
-      <c r="B202" s="3" t="s">
+      <c r="B205" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="C202" s="3" t="s">
+      <c r="C205" s="3" t="s">
         <v>431</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="13" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C106" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="C107" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="C108" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="C109" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="C114" r:id="rId5" display="MT-1 Accessory Tube Lens" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="C97" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="C110" r:id="rId7" xr:uid="{3002EF90-377A-4FAD-A836-B22D0D243A96}"/>
+    <hyperlink ref="C109" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C110" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C111" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C112" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="C117" r:id="rId5" display="MT-1 Accessory Tube Lens" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="C100" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="C113" r:id="rId7" xr:uid="{3002EF90-377A-4FAD-A836-B22D0D243A96}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId8"/>
@@ -6948,7 +6982,7 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -6977,74 +7011,74 @@
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
     </row>
-    <row r="3" spans="1:9" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A3" s="29">
+    <row r="3" spans="1:9" s="28" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A3" s="28">
         <v>1008062</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="29">
-        <v>1</v>
-      </c>
-      <c r="E3" s="44">
+      <c r="D3" s="28">
+        <v>1</v>
+      </c>
+      <c r="E3" s="43">
         <v>7400</v>
       </c>
-      <c r="F3" s="32">
+      <c r="F3" s="31">
         <f>E3*D3</f>
         <v>7400</v>
       </c>
-      <c r="I3" s="29" t="s">
+      <c r="I3" s="28" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B4" s="29" t="s">
+    <row r="4" spans="1:9" s="28" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B4" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="28" t="s">
         <v>163</v>
       </c>
-      <c r="D4" s="29">
-        <v>1</v>
-      </c>
-      <c r="E4" s="44">
+      <c r="D4" s="28">
+        <v>1</v>
+      </c>
+      <c r="E4" s="43">
         <v>20000</v>
       </c>
-      <c r="F4" s="32">
+      <c r="F4" s="31">
         <f>D4*E4</f>
         <v>20000</v>
       </c>
-      <c r="I4" s="29" t="s">
+      <c r="I4" s="28" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B5" s="29" t="s">
+    <row r="5" spans="1:9" s="28" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B5" s="28" t="s">
         <v>352</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="28" t="s">
         <v>353</v>
       </c>
-      <c r="D5" s="29">
-        <v>1</v>
-      </c>
-      <c r="E5" s="29">
+      <c r="D5" s="28">
+        <v>1</v>
+      </c>
+      <c r="E5" s="28">
         <v>50000</v>
       </c>
-      <c r="F5" s="29">
+      <c r="F5" s="28">
         <v>50000</v>
       </c>
-      <c r="I5" s="29" t="s">
+      <c r="I5" s="28" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B6" s="29" t="s">
-        <v>604</v>
+    <row r="6" spans="1:9" s="28" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B6" s="28" t="s">
+        <v>603</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="6" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -7054,187 +7088,187 @@
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
     </row>
-    <row r="8" spans="1:9" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B8" s="29" t="s">
+    <row r="8" spans="1:9" s="28" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B8" s="28" t="s">
         <v>158</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="28" t="s">
         <v>159</v>
       </c>
-      <c r="D8" s="29">
-        <v>1</v>
-      </c>
-      <c r="E8" s="32">
+      <c r="D8" s="28">
+        <v>1</v>
+      </c>
+      <c r="E8" s="31">
         <v>25000</v>
       </c>
-      <c r="F8" s="32">
+      <c r="F8" s="31">
         <f>D8*E8</f>
         <v>25000</v>
       </c>
-      <c r="I8" s="29" t="s">
+      <c r="I8" s="28" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B9" s="29" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:9" s="18" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A11" s="17" t="s">
+    <row r="9" spans="1:9" s="28" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B9" s="28" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="28" customFormat="1" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:9" s="17" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A11" s="16" t="s">
         <v>321</v>
       </c>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-    </row>
-    <row r="12" spans="1:9" s="29" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="29" t="s">
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+    </row>
+    <row r="12" spans="1:9" s="28" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="28" t="s">
         <v>304</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="29" t="s">
         <v>293</v>
       </c>
-      <c r="C12" s="31" t="s">
+      <c r="C12" s="30" t="s">
         <v>303</v>
       </c>
-      <c r="D12" s="29">
-        <v>1</v>
-      </c>
-      <c r="E12" s="32">
+      <c r="D12" s="28">
+        <v>1</v>
+      </c>
+      <c r="E12" s="31">
         <v>525</v>
       </c>
-      <c r="F12" s="32">
+      <c r="F12" s="31">
         <f>D12*E12</f>
         <v>525</v>
       </c>
-      <c r="G12" s="29" t="s">
+      <c r="G12" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="H12" s="29" t="s">
+      <c r="H12" s="28" t="s">
         <v>335</v>
       </c>
-      <c r="I12" s="29" t="s">
+      <c r="I12" s="28" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="29" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="29" t="s">
+    <row r="13" spans="1:9" s="28" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="28" t="s">
         <v>307</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="29" t="s">
         <v>293</v>
       </c>
-      <c r="C13" s="31" t="s">
+      <c r="C13" s="30" t="s">
         <v>306</v>
       </c>
-      <c r="D13" s="29">
-        <v>1</v>
-      </c>
-      <c r="E13" s="32">
+      <c r="D13" s="28">
+        <v>1</v>
+      </c>
+      <c r="E13" s="31">
         <v>214</v>
       </c>
-      <c r="F13" s="32">
+      <c r="F13" s="31">
         <f t="shared" ref="F13:F15" si="0">D13*E13</f>
         <v>214</v>
       </c>
-      <c r="G13" s="29" t="s">
+      <c r="G13" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="29" t="s">
+      <c r="H13" s="28" t="s">
         <v>335</v>
       </c>
-      <c r="I13" s="29" t="s">
+      <c r="I13" s="28" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A14" s="29" t="s">
+    <row r="14" spans="1:9" s="28" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A14" s="28" t="s">
         <v>309</v>
       </c>
-      <c r="B14" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" s="29" t="s">
+      <c r="B14" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="28" t="s">
         <v>308</v>
       </c>
-      <c r="D14" s="29">
-        <v>1</v>
-      </c>
-      <c r="E14" s="32">
+      <c r="D14" s="28">
+        <v>1</v>
+      </c>
+      <c r="E14" s="31">
         <v>23</v>
       </c>
-      <c r="F14" s="32">
+      <c r="F14" s="31">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="G14" s="29" t="s">
+      <c r="G14" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="H14" s="29" t="s">
+      <c r="H14" s="28" t="s">
         <v>335</v>
       </c>
-      <c r="I14" s="29" t="s">
+      <c r="I14" s="28" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="15" spans="1:9" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A15" s="29" t="s">
+    <row r="15" spans="1:9" s="28" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A15" s="28" t="s">
         <v>312</v>
       </c>
-      <c r="B15" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" s="29" t="s">
+      <c r="B15" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="28" t="s">
         <v>311</v>
       </c>
-      <c r="D15" s="29">
-        <v>1</v>
-      </c>
-      <c r="E15" s="32">
+      <c r="D15" s="28">
+        <v>1</v>
+      </c>
+      <c r="E15" s="31">
         <v>23</v>
       </c>
-      <c r="F15" s="32">
+      <c r="F15" s="31">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="G15" s="29" t="s">
+      <c r="G15" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="H15" s="29" t="s">
+      <c r="H15" s="28" t="s">
         <v>335</v>
       </c>
-      <c r="I15" s="29" t="s">
+      <c r="I15" s="28" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A16" s="33" t="s">
+    <row r="16" spans="1:9" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A16" s="32" t="s">
         <v>227</v>
       </c>
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="29" t="s">
         <v>226</v>
       </c>
-      <c r="C16" s="33" t="s">
+      <c r="C16" s="32" t="s">
         <v>228</v>
       </c>
-      <c r="D16" s="30">
-        <v>1</v>
-      </c>
-      <c r="E16" s="34">
+      <c r="D16" s="29">
+        <v>1</v>
+      </c>
+      <c r="E16" s="33">
         <v>2</v>
       </c>
-      <c r="F16" s="35">
+      <c r="F16" s="34">
         <f>D16*E16</f>
         <v>2</v>
       </c>
-      <c r="G16" s="29" t="s">
+      <c r="G16" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="H16" s="30" t="s">
+      <c r="H16" s="29" t="s">
         <v>336</v>
       </c>
-      <c r="I16" s="30" t="s">
+      <c r="I16" s="29" t="s">
         <v>334</v>
       </c>
     </row>
@@ -7265,10 +7299,10 @@
       <c r="D19" s="3">
         <v>1</v>
       </c>
-      <c r="E19" s="42">
+      <c r="E19" s="41">
         <v>250</v>
       </c>
-      <c r="F19" s="42">
+      <c r="F19" s="41">
         <f>E19*D19</f>
         <v>250</v>
       </c>
@@ -7293,10 +7327,10 @@
       <c r="D20" s="3">
         <v>1</v>
       </c>
-      <c r="E20" s="42">
+      <c r="E20" s="41">
         <v>13</v>
       </c>
-      <c r="F20" s="42">
+      <c r="F20" s="41">
         <f>E20*D20</f>
         <v>13</v>
       </c>
@@ -7321,10 +7355,10 @@
       <c r="D21" s="3">
         <v>1</v>
       </c>
-      <c r="E21" s="42">
+      <c r="E21" s="41">
         <v>43</v>
       </c>
-      <c r="F21" s="42">
+      <c r="F21" s="41">
         <f>E21*D21</f>
         <v>43</v>
       </c>
@@ -7348,8 +7382,8 @@
       <c r="D22" s="3">
         <v>1</v>
       </c>
-      <c r="E22" s="42"/>
-      <c r="F22" s="42"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
       <c r="I22" s="3" t="s">
         <v>261</v>
       </c>
@@ -7361,244 +7395,244 @@
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
     </row>
-    <row r="25" spans="1:10" s="38" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A25" s="37" t="s">
+    <row r="25" spans="1:10" s="37" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A25" s="36" t="s">
         <v>333</v>
       </c>
-      <c r="E25" s="39"/>
-      <c r="F25" s="39"/>
-    </row>
-    <row r="26" spans="1:10" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A26" s="33" t="s">
+      <c r="E25" s="38"/>
+      <c r="F25" s="38"/>
+    </row>
+    <row r="26" spans="1:10" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A26" s="32" t="s">
         <v>282</v>
       </c>
-      <c r="B26" s="30" t="s">
+      <c r="B26" s="29" t="s">
         <v>209</v>
       </c>
-      <c r="C26" s="33" t="s">
+      <c r="C26" s="32" t="s">
         <v>283</v>
       </c>
-      <c r="D26" s="30">
+      <c r="D26" s="29">
         <v>2</v>
       </c>
-      <c r="E26" s="34">
+      <c r="E26" s="33">
         <v>5</v>
       </c>
-      <c r="F26" s="35">
+      <c r="F26" s="34">
         <f t="shared" ref="F26:F33" si="1">E26*D26</f>
         <v>10</v>
       </c>
-      <c r="G26" s="30" t="s">
+      <c r="G26" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="H26" s="30" t="s">
+      <c r="H26" s="29" t="s">
         <v>331</v>
       </c>
-      <c r="I26" s="30" t="s">
+      <c r="I26" s="29" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="27" spans="1:10" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A27" s="33" t="s">
+    <row r="27" spans="1:10" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A27" s="32" t="s">
         <v>285</v>
       </c>
-      <c r="B27" s="30" t="s">
+      <c r="B27" s="29" t="s">
         <v>250</v>
       </c>
-      <c r="C27" s="33" t="s">
+      <c r="C27" s="32" t="s">
         <v>289</v>
       </c>
-      <c r="D27" s="30">
+      <c r="D27" s="29">
         <v>2</v>
       </c>
-      <c r="E27" s="34">
+      <c r="E27" s="33">
         <v>62</v>
       </c>
-      <c r="F27" s="35">
+      <c r="F27" s="34">
         <f t="shared" si="1"/>
         <v>124</v>
       </c>
-      <c r="G27" s="30" t="s">
+      <c r="G27" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="H27" s="30" t="s">
+      <c r="H27" s="29" t="s">
         <v>331</v>
       </c>
-      <c r="I27" s="30" t="s">
+      <c r="I27" s="29" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="28" spans="1:10" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A28" s="33" t="s">
+    <row r="28" spans="1:10" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A28" s="32" t="s">
         <v>274</v>
       </c>
-      <c r="B28" s="30" t="s">
+      <c r="B28" s="29" t="s">
         <v>295</v>
       </c>
-      <c r="C28" s="33" t="s">
+      <c r="C28" s="32" t="s">
         <v>296</v>
       </c>
-      <c r="D28" s="30">
+      <c r="D28" s="29">
         <v>8</v>
       </c>
-      <c r="E28" s="34">
-        <v>1</v>
-      </c>
-      <c r="F28" s="35">
+      <c r="E28" s="33">
+        <v>1</v>
+      </c>
+      <c r="F28" s="34">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="G28" s="30" t="s">
+      <c r="G28" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="H28" s="30" t="s">
+      <c r="H28" s="29" t="s">
         <v>331</v>
       </c>
-      <c r="I28" s="30" t="s">
+      <c r="I28" s="29" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="29" spans="1:10" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A29" s="33" t="s">
+    <row r="29" spans="1:10" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A29" s="32" t="s">
         <v>299</v>
       </c>
-      <c r="B29" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="C29" s="33" t="s">
+      <c r="B29" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" s="32" t="s">
         <v>298</v>
       </c>
-      <c r="D29" s="30">
+      <c r="D29" s="29">
         <v>6</v>
       </c>
-      <c r="E29" s="34">
+      <c r="E29" s="33">
         <v>6</v>
       </c>
-      <c r="F29" s="35">
+      <c r="F29" s="34">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="G29" s="30" t="s">
+      <c r="G29" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="H29" s="30" t="s">
+      <c r="H29" s="29" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="30" spans="1:10" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A30" s="33" t="s">
+    <row r="30" spans="1:10" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A30" s="32" t="s">
         <v>300</v>
       </c>
-      <c r="B30" s="30" t="s">
+      <c r="B30" s="29" t="s">
         <v>209</v>
       </c>
-      <c r="C30" s="33" t="s">
+      <c r="C30" s="32" t="s">
         <v>301</v>
       </c>
-      <c r="D30" s="30">
+      <c r="D30" s="29">
         <v>2</v>
       </c>
-      <c r="E30" s="34">
-        <v>1</v>
-      </c>
-      <c r="F30" s="35">
+      <c r="E30" s="33">
+        <v>1</v>
+      </c>
+      <c r="F30" s="34">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="G30" s="30" t="s">
+      <c r="G30" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="H30" s="30" t="s">
+      <c r="H30" s="29" t="s">
         <v>331</v>
       </c>
-      <c r="I30" s="30" t="s">
+      <c r="I30" s="29" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="31" spans="1:10" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A31" s="36" t="s">
+    <row r="31" spans="1:10" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A31" s="35" t="s">
         <v>287</v>
       </c>
-      <c r="B31" s="30" t="s">
+      <c r="B31" s="29" t="s">
         <v>250</v>
       </c>
-      <c r="C31" s="33" t="s">
+      <c r="C31" s="32" t="s">
         <v>286</v>
       </c>
-      <c r="D31" s="30">
-        <v>1</v>
-      </c>
-      <c r="E31" s="34">
+      <c r="D31" s="29">
+        <v>1</v>
+      </c>
+      <c r="E31" s="33">
         <v>2</v>
       </c>
-      <c r="F31" s="35">
+      <c r="F31" s="34">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="G31" s="30" t="s">
+      <c r="G31" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="H31" s="30" t="s">
+      <c r="H31" s="29" t="s">
         <v>331</v>
       </c>
-      <c r="I31" s="30" t="s">
+      <c r="I31" s="29" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="32" spans="1:10" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A32" s="36" t="s">
+    <row r="32" spans="1:10" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A32" s="35" t="s">
         <v>287</v>
       </c>
-      <c r="B32" s="30" t="s">
+      <c r="B32" s="29" t="s">
         <v>250</v>
       </c>
-      <c r="C32" s="33" t="s">
+      <c r="C32" s="32" t="s">
         <v>291</v>
       </c>
-      <c r="D32" s="30">
-        <v>1</v>
-      </c>
-      <c r="E32" s="34">
+      <c r="D32" s="29">
+        <v>1</v>
+      </c>
+      <c r="E32" s="33">
         <v>15</v>
       </c>
-      <c r="F32" s="35">
+      <c r="F32" s="34">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="G32" s="30" t="s">
+      <c r="G32" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="H32" s="30" t="s">
+      <c r="H32" s="29" t="s">
         <v>331</v>
       </c>
-      <c r="I32" s="30" t="s">
+      <c r="I32" s="29" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="33" spans="1:9" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A33" s="33" t="s">
+    <row r="33" spans="1:9" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A33" s="32" t="s">
         <v>205</v>
       </c>
-      <c r="B33" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="C33" s="33" t="s">
+      <c r="B33" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="C33" s="32" t="s">
         <v>206</v>
       </c>
-      <c r="D33" s="30">
+      <c r="D33" s="29">
         <v>2</v>
       </c>
-      <c r="E33" s="34">
+      <c r="E33" s="33">
         <v>25</v>
       </c>
-      <c r="F33" s="35">
+      <c r="F33" s="34">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="G33" s="30" t="s">
+      <c r="G33" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="H33" s="30" t="s">
+      <c r="H33" s="29" t="s">
         <v>331</v>
       </c>
     </row>
@@ -7609,36 +7643,36 @@
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
     </row>
-    <row r="38" spans="1:9" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A38" s="29" t="s">
+    <row r="38" spans="1:9" s="28" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A38" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="B38" s="29" t="s">
+      <c r="B38" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="C38" s="29" t="s">
+      <c r="C38" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="D38" s="29">
-        <v>1</v>
-      </c>
-      <c r="E38" s="32">
+      <c r="D38" s="28">
+        <v>1</v>
+      </c>
+      <c r="E38" s="31">
         <v>2800</v>
       </c>
-      <c r="F38" s="32">
+      <c r="F38" s="31">
         <f>E38*D38</f>
         <v>2800</v>
       </c>
-      <c r="G38" s="29" t="s">
+      <c r="G38" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="I38" s="29" t="s">
+      <c r="I38" s="28" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="42" spans="1:9" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -7646,495 +7680,495 @@
         <v>52</v>
       </c>
       <c r="C42" s="6"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-    </row>
-    <row r="43" spans="1:9" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A43" s="29" t="s">
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+    </row>
+    <row r="43" spans="1:9" s="28" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A43" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="B43" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="C43" s="29" t="s">
+      <c r="B43" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="C43" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="D43" s="29">
-        <v>1</v>
-      </c>
-      <c r="E43" s="32">
+      <c r="D43" s="28">
+        <v>1</v>
+      </c>
+      <c r="E43" s="31">
         <v>488</v>
       </c>
-      <c r="F43" s="32">
+      <c r="F43" s="31">
         <f t="shared" ref="F43:F64" si="2">E43*D43</f>
         <v>488</v>
       </c>
     </row>
-    <row r="44" spans="1:9" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A44" s="29" t="s">
+    <row r="44" spans="1:9" s="28" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A44" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="B44" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="C44" s="29" t="s">
+      <c r="B44" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="C44" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="D44" s="29">
-        <v>1</v>
-      </c>
-      <c r="E44" s="32">
+      <c r="D44" s="28">
+        <v>1</v>
+      </c>
+      <c r="E44" s="31">
         <v>184</v>
       </c>
-      <c r="F44" s="32">
+      <c r="F44" s="31">
         <f t="shared" si="2"/>
         <v>184</v>
       </c>
     </row>
-    <row r="45" spans="1:9" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A45" s="29" t="s">
+    <row r="45" spans="1:9" s="28" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A45" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="B45" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="C45" s="29" t="s">
+      <c r="B45" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="C45" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="D45" s="29">
-        <v>1</v>
-      </c>
-      <c r="E45" s="32">
+      <c r="D45" s="28">
+        <v>1</v>
+      </c>
+      <c r="E45" s="31">
         <v>76</v>
       </c>
-      <c r="F45" s="32">
+      <c r="F45" s="31">
         <f t="shared" si="2"/>
         <v>76</v>
       </c>
     </row>
-    <row r="46" spans="1:9" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A46" s="29" t="s">
+    <row r="46" spans="1:9" s="28" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A46" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="B46" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="C46" s="29" t="s">
+      <c r="B46" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="C46" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="D46" s="29">
-        <v>1</v>
-      </c>
-      <c r="E46" s="32">
+      <c r="D46" s="28">
+        <v>1</v>
+      </c>
+      <c r="E46" s="31">
         <v>184</v>
       </c>
-      <c r="F46" s="32">
+      <c r="F46" s="31">
         <f t="shared" si="2"/>
         <v>184</v>
       </c>
     </row>
-    <row r="47" spans="1:9" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A47" s="29" t="s">
+    <row r="47" spans="1:9" s="28" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A47" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="B47" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="C47" s="29" t="s">
+      <c r="B47" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="C47" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="D47" s="29">
-        <v>1</v>
-      </c>
-      <c r="E47" s="32">
+      <c r="D47" s="28">
+        <v>1</v>
+      </c>
+      <c r="E47" s="31">
         <v>94.180155999999997</v>
       </c>
-      <c r="F47" s="32">
+      <c r="F47" s="31">
         <f t="shared" si="2"/>
         <v>94.180155999999997</v>
       </c>
     </row>
-    <row r="48" spans="1:9" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A48" s="29" t="s">
+    <row r="48" spans="1:9" s="28" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A48" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="B48" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="C48" s="29" t="s">
+      <c r="B48" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="C48" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="D48" s="29">
-        <v>1</v>
-      </c>
-      <c r="E48" s="32">
+      <c r="D48" s="28">
+        <v>1</v>
+      </c>
+      <c r="E48" s="31">
         <v>36.799999999999997</v>
       </c>
-      <c r="F48" s="32">
+      <c r="F48" s="31">
         <f t="shared" si="2"/>
         <v>36.799999999999997</v>
       </c>
     </row>
-    <row r="49" spans="1:9" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A49" s="29" t="s">
+    <row r="49" spans="1:9" s="28" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A49" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="B49" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="C49" s="29" t="s">
+      <c r="B49" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="C49" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="D49" s="29">
+      <c r="D49" s="28">
         <v>2</v>
       </c>
-      <c r="E49" s="32">
+      <c r="E49" s="31">
         <v>21.21</v>
       </c>
-      <c r="F49" s="32">
+      <c r="F49" s="31">
         <f t="shared" si="2"/>
         <v>42.42</v>
       </c>
     </row>
-    <row r="50" spans="1:9" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A50" s="29" t="s">
+    <row r="50" spans="1:9" s="28" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A50" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="B50" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="C50" s="29" t="s">
+      <c r="B50" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="C50" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="D50" s="29">
-        <v>1</v>
-      </c>
-      <c r="E50" s="32">
+      <c r="D50" s="28">
+        <v>1</v>
+      </c>
+      <c r="E50" s="31">
         <v>304.75</v>
       </c>
-      <c r="F50" s="32">
+      <c r="F50" s="31">
         <f t="shared" si="2"/>
         <v>304.75</v>
       </c>
-      <c r="I50" s="29" t="s">
+      <c r="I50" s="28" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="51" spans="1:9" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A51" s="29" t="s">
+    <row r="51" spans="1:9" s="28" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A51" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="B51" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="C51" s="29" t="s">
+      <c r="B51" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="C51" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="D51" s="29">
-        <v>1</v>
-      </c>
-      <c r="E51" s="32">
+      <c r="D51" s="28">
+        <v>1</v>
+      </c>
+      <c r="E51" s="31">
         <v>148.21</v>
       </c>
-      <c r="F51" s="32">
+      <c r="F51" s="31">
         <f t="shared" si="2"/>
         <v>148.21</v>
       </c>
-      <c r="I51" s="29" t="s">
+      <c r="I51" s="28" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="52" spans="1:9" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A52" s="29" t="s">
+    <row r="52" spans="1:9" s="28" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A52" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="B52" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="C52" s="29" t="s">
+      <c r="B52" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="C52" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="D52" s="29">
-        <v>1</v>
-      </c>
-      <c r="E52" s="32">
+      <c r="D52" s="28">
+        <v>1</v>
+      </c>
+      <c r="E52" s="31">
         <v>348.45</v>
       </c>
-      <c r="F52" s="32">
+      <c r="F52" s="31">
         <f t="shared" si="2"/>
         <v>348.45</v>
       </c>
-      <c r="I52" s="29" t="s">
+      <c r="I52" s="28" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="53" spans="1:9" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A53" s="29" t="s">
+    <row r="53" spans="1:9" s="28" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A53" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="B53" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="C53" s="29" t="s">
+      <c r="B53" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="C53" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="D53" s="29">
-        <v>1</v>
-      </c>
-      <c r="E53" s="32">
+      <c r="D53" s="28">
+        <v>1</v>
+      </c>
+      <c r="E53" s="31">
         <v>60.95</v>
       </c>
-      <c r="F53" s="32">
+      <c r="F53" s="31">
         <f t="shared" si="2"/>
         <v>60.95</v>
       </c>
     </row>
-    <row r="54" spans="1:9" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A54" s="29" t="s">
+    <row r="54" spans="1:9" s="28" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A54" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="B54" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="C54" s="29" t="s">
+      <c r="B54" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="C54" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="D54" s="29">
-        <v>1</v>
-      </c>
-      <c r="E54" s="32">
+      <c r="D54" s="28">
+        <v>1</v>
+      </c>
+      <c r="E54" s="31">
         <v>34.5</v>
       </c>
-      <c r="F54" s="32">
+      <c r="F54" s="31">
         <f t="shared" si="2"/>
         <v>34.5</v>
       </c>
-      <c r="I54" s="29" t="s">
+      <c r="I54" s="28" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="55" spans="1:9" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A55" s="29" t="s">
+    <row r="55" spans="1:9" s="28" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A55" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="B55" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="C55" s="29" t="s">
+      <c r="B55" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="C55" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="D55" s="29">
-        <v>1</v>
-      </c>
-      <c r="E55" s="32">
+      <c r="D55" s="28">
+        <v>1</v>
+      </c>
+      <c r="E55" s="31">
         <v>51.45</v>
       </c>
-      <c r="F55" s="32">
+      <c r="F55" s="31">
         <f t="shared" si="2"/>
         <v>51.45</v>
       </c>
-      <c r="I55" s="29" t="s">
+      <c r="I55" s="28" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="56" spans="1:9" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A56" s="29" t="s">
+    <row r="56" spans="1:9" s="28" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A56" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="B56" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="C56" s="29" t="s">
+      <c r="B56" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="C56" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="D56" s="29">
+      <c r="D56" s="28">
         <v>2</v>
       </c>
-      <c r="E56" s="32">
+      <c r="E56" s="31">
         <v>13.8</v>
       </c>
-      <c r="F56" s="32">
+      <c r="F56" s="31">
         <f t="shared" si="2"/>
         <v>27.6</v>
       </c>
     </row>
-    <row r="57" spans="1:9" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A57" s="29" t="s">
+    <row r="57" spans="1:9" s="28" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A57" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="B57" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="C57" s="29" t="s">
+      <c r="B57" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="C57" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="D57" s="29">
-        <v>1</v>
-      </c>
-      <c r="E57" s="32">
+      <c r="D57" s="28">
+        <v>1</v>
+      </c>
+      <c r="E57" s="31">
         <v>19.09</v>
       </c>
-      <c r="F57" s="32">
+      <c r="F57" s="31">
         <f t="shared" si="2"/>
         <v>19.09</v>
       </c>
     </row>
-    <row r="58" spans="1:9" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A58" s="29" t="s">
+    <row r="58" spans="1:9" s="28" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A58" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="B58" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="C58" s="29" t="s">
+      <c r="B58" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="C58" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="D58" s="29">
+      <c r="D58" s="28">
         <v>2</v>
       </c>
-      <c r="E58" s="32">
+      <c r="E58" s="31">
         <v>40.51</v>
       </c>
-      <c r="F58" s="32">
+      <c r="F58" s="31">
         <f t="shared" si="2"/>
         <v>81.02</v>
       </c>
-      <c r="I58" s="29" t="s">
+      <c r="I58" s="28" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="59" spans="1:9" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A59" s="29" t="s">
+    <row r="59" spans="1:9" s="28" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A59" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="B59" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="C59" s="29" t="s">
+      <c r="B59" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="C59" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="D59" s="29">
+      <c r="D59" s="28">
         <v>2</v>
       </c>
-      <c r="E59" s="32">
+      <c r="E59" s="31">
         <v>83.598116000000005</v>
       </c>
-      <c r="F59" s="32">
+      <c r="F59" s="31">
         <f t="shared" si="2"/>
         <v>167.19623200000001</v>
       </c>
-      <c r="I59" s="29" t="s">
+      <c r="I59" s="28" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="60" spans="1:9" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A60" s="29" t="s">
+    <row r="60" spans="1:9" s="28" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A60" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="B60" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="C60" s="29" t="s">
+      <c r="B60" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="C60" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="D60" s="29">
+      <c r="D60" s="28">
         <v>4</v>
       </c>
-      <c r="E60" s="32">
+      <c r="E60" s="31">
         <v>70.103999999999999</v>
       </c>
-      <c r="F60" s="32">
+      <c r="F60" s="31">
         <f t="shared" si="2"/>
         <v>280.416</v>
       </c>
-      <c r="I60" s="29" t="s">
+      <c r="I60" s="28" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="61" spans="1:9" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A61" s="29" t="s">
+    <row r="61" spans="1:9" s="28" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A61" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="B61" s="29" t="s">
+      <c r="B61" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="C61" s="29" t="s">
+      <c r="C61" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="D61" s="29">
+      <c r="D61" s="28">
         <v>2</v>
       </c>
-      <c r="E61" s="32">
+      <c r="E61" s="31">
         <v>28.75</v>
       </c>
-      <c r="F61" s="32">
+      <c r="F61" s="31">
         <f t="shared" si="2"/>
         <v>57.5</v>
       </c>
-      <c r="I61" s="40" t="s">
+      <c r="I61" s="39" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="62" spans="1:9" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A62" s="29" t="s">
+    <row r="62" spans="1:9" s="28" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A62" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="B62" s="29" t="s">
+      <c r="B62" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="C62" s="29" t="s">
+      <c r="C62" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="D62" s="29">
+      <c r="D62" s="28">
         <v>2</v>
       </c>
-      <c r="E62" s="32">
+      <c r="E62" s="31">
         <v>38.872799999999998</v>
       </c>
-      <c r="F62" s="32">
+      <c r="F62" s="31">
         <f t="shared" si="2"/>
         <v>77.745599999999996</v>
       </c>
     </row>
-    <row r="63" spans="1:9" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B63" s="29" t="s">
+    <row r="63" spans="1:9" s="28" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B63" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="C63" s="29" t="s">
+      <c r="C63" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="D63" s="29">
-        <v>1</v>
-      </c>
-      <c r="E63" s="32">
+      <c r="D63" s="28">
+        <v>1</v>
+      </c>
+      <c r="E63" s="31">
         <v>205</v>
       </c>
-      <c r="F63" s="32">
+      <c r="F63" s="31">
         <f t="shared" si="2"/>
         <v>205</v>
       </c>
-      <c r="I63" s="29" t="s">
+      <c r="I63" s="28" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="64" spans="1:9" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B64" s="29" t="s">
+    <row r="64" spans="1:9" s="28" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B64" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="C64" s="29" t="s">
+      <c r="C64" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="D64" s="29">
+      <c r="D64" s="28">
         <v>2</v>
       </c>
-      <c r="E64" s="32">
+      <c r="E64" s="31">
         <v>12</v>
       </c>
-      <c r="F64" s="32">
+      <c r="F64" s="31">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="I64" s="29" t="s">
+      <c r="I64" s="28" t="s">
         <v>73</v>
       </c>
     </row>
@@ -8144,27 +8178,27 @@
       </c>
       <c r="F66" s="8"/>
     </row>
-    <row r="67" spans="1:10" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A67" s="29" t="s">
+    <row r="67" spans="1:10" s="28" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A67" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="B67" s="29" t="s">
+      <c r="B67" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="C67" s="29" t="s">
+      <c r="C67" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="D67" s="29">
+      <c r="D67" s="28">
         <v>2</v>
       </c>
-      <c r="E67" s="32">
+      <c r="E67" s="31">
         <v>140</v>
       </c>
-      <c r="F67" s="32">
+      <c r="F67" s="31">
         <f>E67*D67</f>
         <v>280</v>
       </c>
-      <c r="I67" s="29" t="s">
+      <c r="I67" s="28" t="s">
         <v>343</v>
       </c>
     </row>
@@ -8172,23 +8206,23 @@
       <c r="A68" t="s">
         <v>339</v>
       </c>
-      <c r="B68" s="29" t="s">
+      <c r="B68" s="28" t="s">
         <v>340</v>
       </c>
-      <c r="C68" s="29" t="s">
+      <c r="C68" s="28" t="s">
         <v>341</v>
       </c>
-      <c r="D68" s="29">
+      <c r="D68" s="28">
         <v>2</v>
       </c>
-      <c r="E68" s="32">
+      <c r="E68" s="31">
         <v>84</v>
       </c>
       <c r="F68">
         <f>D68*E68</f>
         <v>168</v>
       </c>
-      <c r="I68" s="29" t="s">
+      <c r="I68" s="28" t="s">
         <v>342</v>
       </c>
     </row>
@@ -8196,23 +8230,23 @@
       <c r="A69" t="s">
         <v>346</v>
       </c>
-      <c r="B69" s="29" t="s">
+      <c r="B69" s="28" t="s">
         <v>345</v>
       </c>
-      <c r="C69" s="29" t="s">
+      <c r="C69" s="28" t="s">
         <v>344</v>
       </c>
-      <c r="D69" s="29">
-        <v>1</v>
-      </c>
-      <c r="E69" s="32">
+      <c r="D69" s="28">
+        <v>1</v>
+      </c>
+      <c r="E69" s="31">
         <v>54</v>
       </c>
       <c r="F69">
         <f>D69*E69</f>
         <v>54</v>
       </c>
-      <c r="I69" s="29" t="s">
+      <c r="I69" s="28" t="s">
         <v>347</v>
       </c>
     </row>
@@ -8222,29 +8256,29 @@
       </c>
       <c r="F71" s="8"/>
     </row>
-    <row r="72" spans="1:10" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A72" s="29" t="s">
+    <row r="72" spans="1:10" s="28" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A72" s="28" t="s">
         <v>349</v>
       </c>
-      <c r="C72" s="30"/>
-      <c r="E72" s="32"/>
-      <c r="F72" s="32"/>
-      <c r="J72" s="30"/>
-    </row>
-    <row r="73" spans="1:10" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A73" s="29" t="s">
+      <c r="C72" s="29"/>
+      <c r="E72" s="31"/>
+      <c r="F72" s="31"/>
+      <c r="J72" s="29"/>
+    </row>
+    <row r="73" spans="1:10" s="28" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A73" s="28" t="s">
         <v>350</v>
       </c>
-      <c r="C73" s="30"/>
-      <c r="E73" s="32"/>
-      <c r="F73" s="32"/>
-      <c r="J73" s="30"/>
-    </row>
-    <row r="74" spans="1:10" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C74" s="30"/>
-      <c r="E74" s="32"/>
-      <c r="F74" s="32"/>
-      <c r="J74" s="30"/>
+      <c r="C73" s="29"/>
+      <c r="E73" s="31"/>
+      <c r="F73" s="31"/>
+      <c r="J73" s="29"/>
+    </row>
+    <row r="74" spans="1:10" s="28" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="C74" s="29"/>
+      <c r="E74" s="31"/>
+      <c r="F74" s="31"/>
+      <c r="J74" s="29"/>
     </row>
     <row r="75" spans="1:10" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A75" s="7" t="s">
@@ -8256,176 +8290,176 @@
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
     </row>
-    <row r="76" spans="1:10" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A76" s="29" t="s">
+    <row r="76" spans="1:10" s="28" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A76" s="28" t="s">
         <v>355</v>
       </c>
-      <c r="B76" s="29" t="s">
+      <c r="B76" s="28" t="s">
         <v>150</v>
       </c>
-      <c r="C76" s="29" t="s">
+      <c r="C76" s="28" t="s">
         <v>356</v>
       </c>
-      <c r="D76" s="29">
-        <v>1</v>
-      </c>
-      <c r="E76" s="32">
+      <c r="D76" s="28">
+        <v>1</v>
+      </c>
+      <c r="E76" s="31">
         <v>518.5</v>
       </c>
-      <c r="F76" s="32">
+      <c r="F76" s="31">
         <f t="shared" ref="F76:F83" si="3">E76*D76</f>
         <v>518.5</v>
       </c>
-      <c r="I76" s="29" t="s">
+      <c r="I76" s="28" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="77" spans="1:10" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A77" s="29" t="s">
+    <row r="77" spans="1:10" s="28" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A77" s="28" t="s">
         <v>358</v>
       </c>
-      <c r="B77" s="29" t="s">
+      <c r="B77" s="28" t="s">
         <v>150</v>
       </c>
-      <c r="C77" s="29" t="s">
+      <c r="C77" s="28" t="s">
         <v>357</v>
       </c>
-      <c r="D77" s="29">
-        <v>1</v>
-      </c>
-      <c r="E77" s="32">
+      <c r="D77" s="28">
+        <v>1</v>
+      </c>
+      <c r="E77" s="31">
         <v>764</v>
       </c>
-      <c r="F77" s="32">
+      <c r="F77" s="31">
         <f t="shared" si="3"/>
         <v>764</v>
       </c>
     </row>
-    <row r="78" spans="1:10" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A78" s="29" t="s">
+    <row r="78" spans="1:10" s="28" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A78" s="28" t="s">
         <v>360</v>
       </c>
-      <c r="B78" s="29" t="s">
+      <c r="B78" s="28" t="s">
         <v>150</v>
       </c>
-      <c r="C78" s="29" t="s">
+      <c r="C78" s="28" t="s">
         <v>359</v>
       </c>
-      <c r="D78" s="29">
-        <v>1</v>
-      </c>
-      <c r="E78" s="32">
+      <c r="D78" s="28">
+        <v>1</v>
+      </c>
+      <c r="E78" s="31">
         <v>816</v>
       </c>
-      <c r="F78" s="32">
+      <c r="F78" s="31">
         <f t="shared" si="3"/>
         <v>816</v>
       </c>
-      <c r="I78" s="29" t="s">
+      <c r="I78" s="28" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="79" spans="1:10" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A79" s="29" t="s">
+    <row r="79" spans="1:10" s="28" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A79" s="28" t="s">
         <v>362</v>
       </c>
-      <c r="B79" s="29" t="s">
+      <c r="B79" s="28" t="s">
         <v>150</v>
       </c>
-      <c r="C79" s="29" t="s">
+      <c r="C79" s="28" t="s">
         <v>361</v>
       </c>
-      <c r="D79" s="29">
-        <v>1</v>
-      </c>
-      <c r="E79" s="32">
+      <c r="D79" s="28">
+        <v>1</v>
+      </c>
+      <c r="E79" s="31">
         <v>952</v>
       </c>
-      <c r="F79" s="32">
+      <c r="F79" s="31">
         <f t="shared" si="3"/>
         <v>952</v>
       </c>
     </row>
-    <row r="80" spans="1:10" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A80" s="29" t="s">
+    <row r="80" spans="1:10" s="28" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A80" s="28" t="s">
         <v>369</v>
       </c>
-      <c r="B80" s="29" t="s">
+      <c r="B80" s="28" t="s">
         <v>150</v>
       </c>
-      <c r="C80" s="29" t="s">
+      <c r="C80" s="28" t="s">
         <v>370</v>
       </c>
-      <c r="D80" s="29">
-        <v>1</v>
-      </c>
-      <c r="E80" s="32">
+      <c r="D80" s="28">
+        <v>1</v>
+      </c>
+      <c r="E80" s="31">
         <v>99.5</v>
       </c>
-      <c r="F80" s="32">
+      <c r="F80" s="31">
         <f t="shared" si="3"/>
         <v>99.5</v>
       </c>
     </row>
-    <row r="81" spans="1:6" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A81" s="29" t="s">
+    <row r="81" spans="1:6" s="28" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A81" s="28" t="s">
         <v>364</v>
       </c>
-      <c r="B81" s="29" t="s">
+      <c r="B81" s="28" t="s">
         <v>150</v>
       </c>
-      <c r="C81" s="29" t="s">
+      <c r="C81" s="28" t="s">
         <v>363</v>
       </c>
-      <c r="D81" s="29">
-        <v>1</v>
-      </c>
-      <c r="E81" s="32">
+      <c r="D81" s="28">
+        <v>1</v>
+      </c>
+      <c r="E81" s="31">
         <v>128.5</v>
       </c>
-      <c r="F81" s="32">
+      <c r="F81" s="31">
         <f t="shared" si="3"/>
         <v>128.5</v>
       </c>
     </row>
-    <row r="82" spans="1:6" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A82" s="29" t="s">
+    <row r="82" spans="1:6" s="28" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A82" s="28" t="s">
         <v>366</v>
       </c>
-      <c r="B82" s="29" t="s">
+      <c r="B82" s="28" t="s">
         <v>150</v>
       </c>
-      <c r="C82" s="29" t="s">
+      <c r="C82" s="28" t="s">
         <v>365</v>
       </c>
-      <c r="D82" s="29">
-        <v>1</v>
-      </c>
-      <c r="E82" s="32">
+      <c r="D82" s="28">
+        <v>1</v>
+      </c>
+      <c r="E82" s="31">
         <v>156</v>
       </c>
-      <c r="F82" s="32">
+      <c r="F82" s="31">
         <f t="shared" si="3"/>
         <v>156</v>
       </c>
     </row>
-    <row r="83" spans="1:6" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A83" s="29" t="s">
+    <row r="83" spans="1:6" s="28" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A83" s="28" t="s">
         <v>368</v>
       </c>
-      <c r="B83" s="29" t="s">
+      <c r="B83" s="28" t="s">
         <v>150</v>
       </c>
-      <c r="C83" s="29" t="s">
+      <c r="C83" s="28" t="s">
         <v>367</v>
       </c>
-      <c r="D83" s="29">
-        <v>1</v>
-      </c>
-      <c r="E83" s="32">
+      <c r="D83" s="28">
+        <v>1</v>
+      </c>
+      <c r="E83" s="31">
         <v>184.5</v>
       </c>
-      <c r="F83" s="32">
+      <c r="F83" s="31">
         <f t="shared" si="3"/>
         <v>184.5</v>
       </c>

--- a/Benchtop-2024(default-version)/parts-list/Benchtop-partslist-latest.xlsx
+++ b/Benchtop-2024(default-version)/parts-list/Benchtop-partslist-latest.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nikita\Documents\GitHub\mesoSPIM-bt-hardware\Benchtop-2024(default-version)\parts-list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{190D8683-5624-49AD-AAB6-F9BC7C322F8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B55504B1-D03E-4F7E-9F53-ABF755B036F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8040" yWindow="2676" windowWidth="32484" windowHeight="21096" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="614">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="620">
   <si>
     <t xml:space="preserve">Part # </t>
   </si>
@@ -1709,9 +1709,6 @@
     <t>SM2NFMA or (discontinued) SM2NFM</t>
   </si>
   <si>
-    <t>Imaging Workstation with a large screen</t>
-  </si>
-  <si>
     <t>Filters have to be selected according to lasers &amp; needs (flurescent markers and dyes used). The single quadband is a MINIMALIST choice</t>
   </si>
   <si>
@@ -1913,12 +1910,6 @@
     <t>RAM</t>
   </si>
   <si>
-    <t>128 GB</t>
-  </si>
-  <si>
-    <t>Fast storage</t>
-  </si>
-  <si>
     <t>IO</t>
   </si>
   <si>
@@ -1928,7 +1919,34 @@
     <t>2 TB or more SSD NVMe drive</t>
   </si>
   <si>
-    <t>Intel Xeon W-2145 or Intel Core i9-9900K, or similar, high-performance for single-threaded applications</t>
+    <t>Intel Xeon W-2145, W-2245 or Intel Core i9-9900K, or newer, high-performance for single-threaded applications</t>
+  </si>
+  <si>
+    <t>128 GB DDR4</t>
+  </si>
+  <si>
+    <t>OS drive</t>
+  </si>
+  <si>
+    <t>1 TB SSD NVMe</t>
+  </si>
+  <si>
+    <t>Fast storage (for streaming)</t>
+  </si>
+  <si>
+    <t>Monitor</t>
+  </si>
+  <si>
+    <t>30 inch</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>Windows 11 Pro LTSC</t>
+  </si>
+  <si>
+    <t>The following specs are suggested for acquisition, not for storage, visualization or image processing</t>
   </si>
 </sst>
 </file>
@@ -2214,7 +2232,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="2" fontId="4" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
@@ -2313,6 +2331,7 @@
     <xf numFmtId="0" fontId="10" fillId="9" borderId="2" xfId="4" applyFont="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="2" xfId="4" applyFont="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="1" fontId="9" fillId="9" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="4" applyFont="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Excel Built-in Heading 1" xfId="3" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -2700,7 +2719,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J205"/>
+  <dimension ref="A1:J208"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B39" sqref="B39"/>
@@ -2788,7 +2807,7 @@
         <v>214</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -2832,7 +2851,7 @@
         <v>34</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="9" spans="1:9" s="6" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -2844,7 +2863,7 @@
     </row>
     <row r="10" spans="1:9" s="28" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A10" s="28" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B10" s="28" t="s">
         <v>18</v>
@@ -2982,7 +3001,7 @@
     </row>
     <row r="15" spans="1:9" s="28" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A15" s="28" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B15" s="28" t="s">
         <v>18</v>
@@ -3096,7 +3115,7 @@
         <v>18</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D19" s="4">
         <v>1</v>
@@ -3147,13 +3166,13 @@
     </row>
     <row r="22" spans="1:9" s="28" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A22" s="53" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B22" s="28" t="s">
         <v>18</v>
       </c>
       <c r="C22" s="28" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D22" s="28">
         <v>0</v>
@@ -3202,10 +3221,10 @@
     </row>
     <row r="25" spans="1:9" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
+        <v>576</v>
+      </c>
+      <c r="B25" s="4" t="s">
         <v>577</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>578</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>396</v>
@@ -3223,18 +3242,18 @@
         <v>219</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="26" spans="1:9" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D26" s="4">
         <v>0</v>
@@ -3246,10 +3265,10 @@
         <v>1740</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -3276,7 +3295,7 @@
         <v>219</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="28" spans="1:9" s="6" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -3364,7 +3383,7 @@
         <v>237</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -3391,7 +3410,7 @@
         <v>237</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -3477,13 +3496,13 @@
     </row>
     <row r="36" spans="1:9" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="82" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B36" s="10" t="s">
         <v>209</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D36" s="4">
         <v>1</v>
@@ -3496,7 +3515,7 @@
         <v>10</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="37" spans="1:9" s="12" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -3506,1552 +3525,1513 @@
       <c r="E37" s="59"/>
       <c r="F37" s="59"/>
     </row>
-    <row r="38" spans="1:9" s="84" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="83" t="s">
-        <v>606</v>
-      </c>
-      <c r="B38" s="83" t="s">
-        <v>613</v>
-      </c>
-      <c r="E38" s="85"/>
-      <c r="F38" s="85"/>
+    <row r="38" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="86" t="s">
+        <v>619</v>
+      </c>
+      <c r="E38" s="59"/>
+      <c r="F38" s="59"/>
     </row>
     <row r="39" spans="1:9" s="84" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="83" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B39" s="83" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="E39" s="85"/>
       <c r="F39" s="85"/>
     </row>
     <row r="40" spans="1:9" s="84" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="83" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="B40" s="83" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E40" s="85"/>
       <c r="F40" s="85"/>
     </row>
     <row r="41" spans="1:9" s="84" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="83" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="B41" s="83" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="E41" s="85"/>
       <c r="F41" s="85"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C42" s="3" t="s">
-        <v>540</v>
-      </c>
-      <c r="D42" s="3">
-        <v>1</v>
-      </c>
-      <c r="E42" s="55" t="s">
-        <v>274</v>
-      </c>
-      <c r="F42" s="55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" s="6" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A43" s="5" t="s">
+    <row r="42" spans="1:9" s="84" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="83" t="s">
+        <v>614</v>
+      </c>
+      <c r="B42" s="83" t="s">
+        <v>609</v>
+      </c>
+      <c r="E42" s="85"/>
+      <c r="F42" s="85"/>
+    </row>
+    <row r="43" spans="1:9" s="84" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="83" t="s">
+        <v>607</v>
+      </c>
+      <c r="B43" s="83" t="s">
+        <v>608</v>
+      </c>
+      <c r="E43" s="85"/>
+      <c r="F43" s="85"/>
+    </row>
+    <row r="44" spans="1:9" s="84" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="83" t="s">
+        <v>617</v>
+      </c>
+      <c r="B44" s="83" t="s">
+        <v>618</v>
+      </c>
+      <c r="E44" s="85"/>
+      <c r="F44" s="85"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" s="6" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A46" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="E43" s="56"/>
-      <c r="F43" s="56"/>
-    </row>
-    <row r="44" spans="1:9" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="75" t="s">
+      <c r="E46" s="56"/>
+      <c r="F46" s="56"/>
+    </row>
+    <row r="47" spans="1:9" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="75" t="s">
         <v>493</v>
       </c>
-      <c r="B44" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="C44" s="40" t="s">
+      <c r="B47" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="C47" s="40" t="s">
         <v>492</v>
       </c>
-      <c r="D44" s="40">
-        <v>1</v>
-      </c>
-      <c r="E44" s="74">
+      <c r="D47" s="40">
+        <v>1</v>
+      </c>
+      <c r="E47" s="74">
         <v>728</v>
       </c>
-      <c r="F44" s="74">
-        <f>D44*E44</f>
+      <c r="F47" s="74">
+        <f>D47*E47</f>
         <v>728</v>
       </c>
-      <c r="G44" s="40" t="s">
+      <c r="G47" s="40" t="s">
         <v>491</v>
       </c>
-      <c r="I44" s="40" t="s">
+      <c r="I47" s="40" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="45" spans="1:9" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="75" t="s">
+    <row r="48" spans="1:9" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="75" t="s">
+        <v>544</v>
+      </c>
+      <c r="B48" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="C48" s="40" t="s">
+        <v>543</v>
+      </c>
+      <c r="D48" s="40">
+        <v>1</v>
+      </c>
+      <c r="E48" s="74">
+        <v>33</v>
+      </c>
+      <c r="F48" s="74">
+        <v>33</v>
+      </c>
+      <c r="G48" s="40" t="s">
+        <v>491</v>
+      </c>
+      <c r="I48" s="40" t="s">
         <v>545</v>
       </c>
-      <c r="B45" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="C45" s="40" t="s">
-        <v>544</v>
-      </c>
-      <c r="D45" s="40">
-        <v>1</v>
-      </c>
-      <c r="E45" s="74">
-        <v>33</v>
-      </c>
-      <c r="F45" s="74">
-        <v>33</v>
-      </c>
-      <c r="G45" s="40" t="s">
-        <v>491</v>
-      </c>
-      <c r="I45" s="40" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="9" t="s">
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B46" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C46" s="9" t="s">
+      <c r="B49" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C49" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="D46" s="3">
+      <c r="D49" s="3">
         <v>2</v>
       </c>
-      <c r="E46" s="57">
+      <c r="E49" s="57">
         <v>31</v>
       </c>
-      <c r="F46" s="55">
-        <f t="shared" ref="F46:F51" si="2">E46*D46</f>
+      <c r="F49" s="55">
+        <f t="shared" ref="F49:F54" si="2">E49*D49</f>
         <v>62</v>
       </c>
-      <c r="G46" s="3" t="s">
+      <c r="G49" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H46" s="77" t="s">
+      <c r="H49" s="77" t="s">
         <v>181</v>
       </c>
-      <c r="I46" s="3" t="s">
+      <c r="I49" s="3" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="9" t="s">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="B47" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C47" s="9" t="s">
+      <c r="B50" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C50" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D50" s="3">
         <v>2</v>
       </c>
-      <c r="E47" s="57">
+      <c r="E50" s="57">
         <v>99</v>
       </c>
-      <c r="F47" s="55">
+      <c r="F50" s="55">
         <f t="shared" si="2"/>
         <v>198</v>
       </c>
-      <c r="G47" s="3" t="s">
+      <c r="G50" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H47" s="77" t="s">
+      <c r="H50" s="77" t="s">
         <v>181</v>
       </c>
-      <c r="I47" s="3" t="s">
+      <c r="I50" s="3" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B48" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C48" s="3" t="s">
+      <c r="B51" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C51" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D48" s="3">
+      <c r="D51" s="3">
         <v>2</v>
       </c>
-      <c r="E48" s="55">
+      <c r="E51" s="55">
         <v>17</v>
       </c>
-      <c r="F48" s="55">
+      <c r="F51" s="55">
         <f t="shared" si="2"/>
         <v>34</v>
       </c>
-      <c r="G48" s="3" t="s">
+      <c r="G51" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H48" s="77" t="s">
+      <c r="H51" s="77" t="s">
         <v>181</v>
       </c>
-      <c r="I48" s="3" t="s">
+      <c r="I51" s="3" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
         <v>518</v>
       </c>
-      <c r="B49" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C49" s="3" t="s">
+      <c r="B52" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C52" s="3" t="s">
         <v>519</v>
       </c>
-      <c r="D49" s="3">
+      <c r="D52" s="3">
         <v>2</v>
       </c>
-      <c r="E49" s="55">
+      <c r="E52" s="55">
         <v>12</v>
       </c>
-      <c r="F49" s="55">
+      <c r="F52" s="55">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="G49" s="3" t="s">
+      <c r="G52" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H49" s="77" t="s">
+      <c r="H52" s="77" t="s">
         <v>181</v>
       </c>
-      <c r="I49" s="3" t="s">
+      <c r="I52" s="3" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
         <v>520</v>
       </c>
-      <c r="B50" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C50" s="3" t="s">
+      <c r="B53" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C53" s="3" t="s">
         <v>521</v>
       </c>
-      <c r="D50" s="3">
+      <c r="D53" s="3">
         <v>2</v>
       </c>
-      <c r="E50" s="55">
+      <c r="E53" s="55">
         <v>12</v>
       </c>
-      <c r="F50" s="55">
+      <c r="F53" s="55">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="G50" s="3" t="s">
+      <c r="G53" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H50" s="77" t="s">
+      <c r="H53" s="77" t="s">
         <v>181</v>
       </c>
-      <c r="I50" s="3" t="s">
+      <c r="I53" s="3" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="B51" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C51" s="3" t="s">
+      <c r="B54" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C54" s="3" t="s">
         <v>522</v>
       </c>
-      <c r="D51" s="3">
+      <c r="D54" s="3">
         <v>2</v>
       </c>
-      <c r="E51" s="55">
+      <c r="E54" s="55">
         <v>14</v>
       </c>
-      <c r="F51" s="55">
+      <c r="F54" s="55">
         <f t="shared" si="2"/>
         <v>28</v>
       </c>
-      <c r="G51" s="3" t="s">
+      <c r="G54" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H51" s="77" t="s">
+      <c r="H54" s="77" t="s">
         <v>181</v>
       </c>
-      <c r="I51" s="3" t="s">
+      <c r="I54" s="3" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="B52" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C52" s="3" t="s">
+      <c r="B55" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C55" s="3" t="s">
         <v>469</v>
       </c>
-      <c r="D52" s="3">
+      <c r="D55" s="3">
         <v>2</v>
       </c>
-      <c r="E52" s="55">
+      <c r="E55" s="55">
         <v>18.412749600000001</v>
       </c>
-      <c r="F52" s="55">
+      <c r="F55" s="55">
         <v>36.825499200000003</v>
       </c>
-      <c r="G52" s="3" t="s">
+      <c r="G55" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H52" s="3" t="s">
+      <c r="H55" s="3" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B56" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="C56" s="3" t="s">
         <v>466</v>
       </c>
-      <c r="D53" s="3">
+      <c r="D56" s="3">
         <v>2</v>
       </c>
-      <c r="E53" s="55">
+      <c r="E56" s="55">
         <v>935</v>
       </c>
-      <c r="F53" s="55">
-        <f t="shared" ref="F53:F59" si="3">E53*D53</f>
+      <c r="F56" s="55">
+        <f t="shared" ref="F56:F62" si="3">E56*D56</f>
         <v>1870</v>
       </c>
-      <c r="G53" s="3" t="s">
+      <c r="G56" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H53" s="3" t="s">
+      <c r="H56" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="54" spans="1:9" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A54" s="4" t="s">
+    <row r="57" spans="1:9" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A57" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="B57" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="C54" s="4" t="s">
+      <c r="C57" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D54" s="4">
+      <c r="D57" s="4">
         <v>2</v>
       </c>
-      <c r="E54" s="58">
+      <c r="E57" s="58">
         <v>365</v>
       </c>
-      <c r="F54" s="58">
+      <c r="F57" s="58">
         <f t="shared" si="3"/>
         <v>730</v>
       </c>
-      <c r="G54" s="4" t="s">
+      <c r="G57" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="H54" s="4" t="s">
+      <c r="H57" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="I54" s="4" t="s">
+      <c r="I57" s="4" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B58" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="C55" s="3" t="s">
-        <v>564</v>
-      </c>
-      <c r="D55" s="3">
-        <v>1</v>
-      </c>
-      <c r="E55" s="55">
+      <c r="C58" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="D58" s="3">
+        <v>1</v>
+      </c>
+      <c r="E58" s="55">
         <v>40</v>
       </c>
-      <c r="F55" s="55">
-        <f>D55*E55</f>
+      <c r="F58" s="55">
+        <f>D58*E58</f>
         <v>40</v>
       </c>
-      <c r="G55" s="3" t="s">
+      <c r="G58" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H55" s="3" t="s">
+      <c r="H58" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="I55" s="3" t="s">
+      <c r="I58" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B59" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="C59" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D56" s="3">
+      <c r="D59" s="3">
         <v>2</v>
       </c>
-      <c r="E56" s="55">
+      <c r="E59" s="55">
         <v>90</v>
       </c>
-      <c r="F56" s="55">
+      <c r="F59" s="55">
         <f t="shared" si="3"/>
         <v>180</v>
       </c>
-      <c r="G56" s="3" t="s">
+      <c r="G59" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H56" s="3" t="s">
+      <c r="H59" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="9" t="s">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="9" t="s">
         <v>489</v>
       </c>
-      <c r="B57" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C57" s="9" t="s">
+      <c r="B60" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C60" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="D57" s="3">
+      <c r="D60" s="3">
         <v>2</v>
       </c>
-      <c r="E57" s="57">
+      <c r="E60" s="57">
         <v>18</v>
       </c>
-      <c r="F57" s="55">
-        <f>E57*D57</f>
+      <c r="F60" s="55">
+        <f>E60*D60</f>
         <v>36</v>
       </c>
-      <c r="G57" s="3" t="s">
+      <c r="G60" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H57" s="3" t="s">
+      <c r="H60" s="3" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="3" t="s">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B58" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C58" s="3" t="s">
+      <c r="B61" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C61" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D61" s="3">
         <v>2</v>
       </c>
-      <c r="E58" s="55">
+      <c r="E61" s="55">
         <v>21.21</v>
       </c>
-      <c r="F58" s="55">
-        <f t="shared" ref="F58" si="4">E58*D58</f>
+      <c r="F61" s="55">
+        <f t="shared" ref="F61" si="4">E61*D61</f>
         <v>42.42</v>
       </c>
-      <c r="G58" s="3" t="s">
+      <c r="G61" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H58" s="3" t="s">
+      <c r="H61" s="3" t="s">
         <v>470</v>
       </c>
-      <c r="I58" s="3" t="s">
+      <c r="I61" s="3" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="9" t="s">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="B59" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C59" s="9" t="s">
+      <c r="B62" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C62" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="D59" s="3">
+      <c r="D62" s="3">
         <v>2</v>
       </c>
-      <c r="E59" s="57">
+      <c r="E62" s="57">
         <v>13</v>
       </c>
-      <c r="F59" s="55">
+      <c r="F62" s="55">
         <f t="shared" si="3"/>
         <v>26</v>
       </c>
-      <c r="G59" s="3" t="s">
+      <c r="G62" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H59" s="3" t="s">
+      <c r="H62" s="3" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="9" t="s">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="B60" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C60" s="9" t="s">
+      <c r="B63" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C63" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="D60" s="3">
+      <c r="D63" s="3">
         <v>4</v>
       </c>
-      <c r="E60" s="57">
+      <c r="E63" s="57">
         <v>189</v>
       </c>
-      <c r="F60" s="55">
-        <f t="shared" ref="F60:F67" si="5">E60*D60</f>
+      <c r="F63" s="55">
+        <f t="shared" ref="F63:F70" si="5">E63*D63</f>
         <v>756</v>
       </c>
-      <c r="G60" s="3" t="s">
+      <c r="G63" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H60" s="3" t="s">
+      <c r="H63" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="I60" s="3" t="s">
+      <c r="I63" s="3" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="9" t="s">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="B61" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C61" s="9" t="s">
+      <c r="B64" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C64" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="D61" s="3">
+      <c r="D64" s="3">
         <v>4</v>
       </c>
-      <c r="E61" s="57">
+      <c r="E64" s="57">
         <v>110</v>
       </c>
-      <c r="F61" s="55">
+      <c r="F64" s="55">
         <f t="shared" si="5"/>
         <v>440</v>
       </c>
-      <c r="G61" s="3" t="s">
+      <c r="G64" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H61" s="3" t="s">
+      <c r="H64" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="I61" s="3" t="s">
+      <c r="I64" s="3" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="9" t="s">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="B62" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C62" s="9" t="s">
+      <c r="B65" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C65" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="D62" s="3">
+      <c r="D65" s="3">
         <v>8</v>
       </c>
-      <c r="E62" s="57">
+      <c r="E65" s="57">
         <v>16</v>
       </c>
-      <c r="F62" s="55">
+      <c r="F65" s="55">
         <f t="shared" si="5"/>
         <v>128</v>
       </c>
-      <c r="G62" s="3" t="s">
+      <c r="G65" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H62" s="3" t="s">
+      <c r="H65" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="I62" s="3" t="s">
+      <c r="I65" s="3" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="9" t="s">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="B63" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C63" s="9" t="s">
+      <c r="B66" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C66" s="9" t="s">
         <v>390</v>
       </c>
-      <c r="D63" s="3">
+      <c r="D66" s="3">
         <v>4</v>
       </c>
-      <c r="E63" s="57">
+      <c r="E66" s="57">
         <v>104</v>
       </c>
-      <c r="F63" s="55">
+      <c r="F66" s="55">
         <f t="shared" si="5"/>
         <v>416</v>
       </c>
-      <c r="G63" s="3" t="s">
+      <c r="G66" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H63" s="3" t="s">
+      <c r="H66" s="3" t="s">
         <v>475</v>
       </c>
-      <c r="I63" s="3" t="s">
+      <c r="I66" s="3" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="9" t="s">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="B64" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C64" s="9" t="s">
+      <c r="B67" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C67" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="D64" s="3">
+      <c r="D67" s="3">
         <v>2</v>
       </c>
-      <c r="E64" s="57">
+      <c r="E67" s="57">
         <v>41</v>
       </c>
-      <c r="F64" s="55">
+      <c r="F67" s="55">
         <f t="shared" si="5"/>
         <v>82</v>
       </c>
-      <c r="G64" s="3" t="s">
+      <c r="G67" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H64" s="3" t="s">
+      <c r="H67" s="3" t="s">
         <v>475</v>
       </c>
-      <c r="I64" s="3" t="s">
+      <c r="I67" s="3" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="9" t="s">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68" s="9" t="s">
         <v>482</v>
       </c>
-      <c r="B65" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C65" s="9" t="s">
+      <c r="B68" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C68" s="9" t="s">
         <v>483</v>
       </c>
-      <c r="D65" s="3">
+      <c r="D68" s="3">
         <v>2</v>
       </c>
-      <c r="E65" s="57">
+      <c r="E68" s="57">
         <v>17</v>
       </c>
-      <c r="F65" s="55">
+      <c r="F68" s="55">
         <f t="shared" si="5"/>
         <v>34</v>
       </c>
-      <c r="G65" s="3" t="s">
+      <c r="G68" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H65" s="3" t="s">
+      <c r="H68" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="I65" s="3" t="s">
+      <c r="I68" s="3" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="9" t="s">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69" s="9" t="s">
         <v>484</v>
       </c>
-      <c r="B66" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C66" s="9" t="s">
+      <c r="B69" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C69" s="9" t="s">
         <v>485</v>
       </c>
-      <c r="D66" s="3">
+      <c r="D69" s="3">
         <v>4</v>
       </c>
-      <c r="E66" s="57">
+      <c r="E69" s="57">
         <v>7</v>
       </c>
-      <c r="F66" s="55">
+      <c r="F69" s="55">
         <f t="shared" si="5"/>
         <v>28</v>
       </c>
-      <c r="G66" s="3" t="s">
+      <c r="G69" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H66" s="3" t="s">
+      <c r="H69" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="I66" s="3" t="s">
+      <c r="I69" s="3" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="9" t="s">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70" s="9" t="s">
         <v>487</v>
       </c>
-      <c r="B67" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C67" s="9" t="s">
+      <c r="B70" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C70" s="9" t="s">
         <v>486</v>
       </c>
-      <c r="D67" s="3">
+      <c r="D70" s="3">
         <v>4</v>
       </c>
-      <c r="E67" s="57">
+      <c r="E70" s="57">
         <v>5</v>
       </c>
-      <c r="F67" s="55">
+      <c r="F70" s="55">
         <f t="shared" si="5"/>
         <v>20</v>
       </c>
-      <c r="G67" s="3" t="s">
+      <c r="G70" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H67" s="3" t="s">
+      <c r="H70" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="I67" s="3" t="s">
+      <c r="I70" s="3" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="68" spans="1:10" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A68" s="47">
+    <row r="71" spans="1:10" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A71" s="47">
         <v>91863</v>
       </c>
-      <c r="B68" s="4" t="s">
+      <c r="B71" s="4" t="s">
         <v>480</v>
       </c>
-      <c r="C68" s="4" t="s">
+      <c r="C71" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D68" s="4">
+      <c r="D71" s="4">
         <v>2</v>
       </c>
-      <c r="E68" s="58">
+      <c r="E71" s="58">
         <v>400</v>
       </c>
-      <c r="F68" s="58">
-        <f t="shared" ref="F68:F91" si="6">E68*D68</f>
+      <c r="F71" s="58">
+        <f t="shared" ref="F71:F94" si="6">E71*D71</f>
         <v>800</v>
       </c>
-      <c r="G68" s="4" t="s">
+      <c r="G71" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="H68" s="4" t="s">
+      <c r="H71" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="I68" s="4" t="s">
+      <c r="I71" s="4" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="69" spans="1:10" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A69" s="4" t="s">
+    <row r="72" spans="1:10" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A72" s="4" t="s">
         <v>537</v>
       </c>
-      <c r="B69" s="4" t="s">
+      <c r="B72" s="4" t="s">
         <v>530</v>
       </c>
-      <c r="C69" s="48" t="s">
+      <c r="C72" s="48" t="s">
         <v>498</v>
       </c>
-      <c r="D69" s="4">
+      <c r="D72" s="4">
         <v>2</v>
       </c>
-      <c r="E69" s="58">
+      <c r="E72" s="58">
         <v>300</v>
       </c>
-      <c r="F69" s="58">
+      <c r="F72" s="58">
         <f t="shared" si="6"/>
         <v>600</v>
       </c>
-      <c r="G69" s="4" t="s">
+      <c r="G72" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="H69" s="4" t="s">
+      <c r="H72" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="I69" s="4" t="s">
+      <c r="I72" s="4" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="70" spans="1:10" s="44" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A70" s="45" t="s">
+    <row r="73" spans="1:10" s="44" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A73" s="45" t="s">
         <v>400</v>
       </c>
-      <c r="B70" s="44" t="s">
-        <v>54</v>
-      </c>
-      <c r="C70" s="45" t="s">
+      <c r="B73" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="C73" s="45" t="s">
         <v>397</v>
       </c>
-      <c r="D70" s="44">
+      <c r="D73" s="44">
         <v>0</v>
       </c>
-      <c r="E70" s="63">
+      <c r="E73" s="63">
         <v>36</v>
       </c>
-      <c r="F70" s="64">
+      <c r="F73" s="64">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G70" s="44" t="s">
+      <c r="G73" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="H70" s="44" t="s">
+      <c r="H73" s="44" t="s">
         <v>207</v>
       </c>
-      <c r="I70" s="44" t="s">
+      <c r="I73" s="44" t="s">
         <v>479</v>
       </c>
-      <c r="J70" s="73"/>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="9" t="s">
+      <c r="J73" s="73"/>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74" s="9" t="s">
         <v>539</v>
       </c>
-      <c r="B71" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C71" s="9" t="s">
+      <c r="B74" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C74" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="D71" s="3">
+      <c r="D74" s="3">
         <v>2</v>
       </c>
-      <c r="E71" s="57">
+      <c r="E74" s="57">
         <v>92</v>
       </c>
-      <c r="F71" s="55">
+      <c r="F74" s="55">
         <f t="shared" si="6"/>
         <v>184</v>
       </c>
-      <c r="G71" s="3" t="s">
+      <c r="G74" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H71" s="3" t="s">
+      <c r="H74" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="I71" s="3" t="s">
+      <c r="I74" s="3" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="72" spans="1:10" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A72" s="10" t="s">
+    <row r="75" spans="1:10" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A75" s="10" t="s">
         <v>421</v>
       </c>
-      <c r="B72" s="4" t="s">
+      <c r="B75" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="C72" s="72" t="s">
+      <c r="C75" s="72" t="s">
         <v>249</v>
       </c>
-      <c r="D72" s="4">
+      <c r="D75" s="4">
         <v>2</v>
       </c>
-      <c r="E72" s="60">
-        <v>1</v>
-      </c>
-      <c r="F72" s="58">
+      <c r="E75" s="60">
+        <v>1</v>
+      </c>
+      <c r="F75" s="58">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="G72" s="4" t="s">
+      <c r="G75" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="H72" s="4" t="s">
+      <c r="H75" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="I72" s="4" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" s="9" t="s">
+      <c r="I75" s="4" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A76" s="9" t="s">
         <v>474</v>
       </c>
-      <c r="B73" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C73" s="9" t="s">
+      <c r="B76" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C76" s="9" t="s">
         <v>473</v>
       </c>
-      <c r="D73" s="3">
+      <c r="D76" s="3">
         <v>4</v>
       </c>
-      <c r="E73" s="57">
+      <c r="E76" s="57">
         <v>7</v>
       </c>
-      <c r="F73" s="55">
-        <f>E73*D73</f>
+      <c r="F76" s="55">
+        <f>E76*D76</f>
         <v>28</v>
       </c>
-      <c r="G73" s="3" t="s">
+      <c r="G76" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H73" s="3" t="s">
+      <c r="H76" s="3" t="s">
         <v>475</v>
       </c>
-      <c r="I73" s="3" t="s">
+      <c r="I76" s="3" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" s="9" t="s">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A77" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="B74" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C74" s="9" t="s">
+      <c r="B77" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C77" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="D74" s="3">
+      <c r="D77" s="3">
         <v>2</v>
       </c>
-      <c r="E74" s="57">
+      <c r="E77" s="57">
         <v>8</v>
       </c>
-      <c r="F74" s="55">
+      <c r="F77" s="55">
         <f t="shared" si="6"/>
         <v>16</v>
       </c>
-      <c r="G74" s="3" t="s">
+      <c r="G77" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H74" s="3" t="s">
+      <c r="H77" s="3" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" s="9" t="s">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A78" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="B75" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C75" s="9" t="s">
+      <c r="B78" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C78" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="D75" s="3">
+      <c r="D78" s="3">
         <v>4</v>
       </c>
-      <c r="E75" s="57">
+      <c r="E78" s="57">
         <v>5</v>
       </c>
-      <c r="F75" s="55">
+      <c r="F78" s="55">
         <f t="shared" si="6"/>
         <v>20</v>
       </c>
-      <c r="G75" s="3" t="s">
+      <c r="G78" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H75" s="3" t="s">
+      <c r="H78" s="3" t="s">
         <v>475</v>
       </c>
-      <c r="I75" s="3" t="s">
+      <c r="I78" s="3" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76" s="9" t="s">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A79" s="9" t="s">
         <v>476</v>
       </c>
-      <c r="B76" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C76" s="9" t="s">
+      <c r="B79" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C79" s="9" t="s">
         <v>477</v>
       </c>
-      <c r="D76" s="3">
+      <c r="D79" s="3">
         <v>2</v>
       </c>
-      <c r="E76" s="57">
+      <c r="E79" s="57">
         <v>5</v>
       </c>
-      <c r="F76" s="55">
+      <c r="F79" s="55">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
-      <c r="G76" s="3" t="s">
+      <c r="G79" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H76" s="3" t="s">
+      <c r="H79" s="3" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="9" t="s">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A80" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="B77" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C77" s="9" t="s">
+      <c r="B80" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C80" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="D77" s="3">
+      <c r="D80" s="3">
         <v>2</v>
       </c>
-      <c r="E77" s="57">
+      <c r="E80" s="57">
         <v>5</v>
       </c>
-      <c r="F77" s="55">
-        <f>E77*D77</f>
+      <c r="F80" s="55">
+        <f>E80*D80</f>
         <v>10</v>
       </c>
-      <c r="G77" s="3" t="s">
+      <c r="G80" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H77" s="3" t="s">
+      <c r="H80" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="I77" s="3" t="s">
+      <c r="I80" s="3" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="78" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="22" t="s">
+    <row r="81" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="22" t="s">
         <v>490</v>
       </c>
-      <c r="B78" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C78" s="22" t="s">
+      <c r="B81" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C81" s="22" t="s">
         <v>198</v>
       </c>
-      <c r="D78" s="23">
+      <c r="D81" s="23">
         <v>2</v>
       </c>
-      <c r="E78" s="61">
+      <c r="E81" s="61">
         <v>398</v>
       </c>
-      <c r="F78" s="62">
+      <c r="F81" s="62">
         <f t="shared" si="6"/>
         <v>796</v>
       </c>
-      <c r="G78" s="3" t="s">
+      <c r="G81" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H78" s="23" t="s">
+      <c r="H81" s="23" t="s">
         <v>202</v>
       </c>
-      <c r="I78" s="23" t="s">
+      <c r="I81" s="23" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="79" spans="1:10" s="78" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A79" s="46" t="s">
+    <row r="82" spans="1:9" s="78" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A82" s="46" t="s">
         <v>535</v>
       </c>
-      <c r="B79" s="4" t="s">
+      <c r="B82" s="4" t="s">
         <v>530</v>
       </c>
-      <c r="C79" s="46" t="s">
+      <c r="C82" s="46" t="s">
         <v>275</v>
       </c>
-      <c r="D79" s="78">
+      <c r="D82" s="78">
         <v>2</v>
       </c>
-      <c r="E79" s="79">
+      <c r="E82" s="79">
         <v>150</v>
       </c>
-      <c r="F79" s="80">
+      <c r="F82" s="80">
         <v>0</v>
       </c>
-      <c r="G79" s="4" t="s">
+      <c r="G82" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="H79" s="78" t="s">
+      <c r="H82" s="78" t="s">
         <v>202</v>
       </c>
-      <c r="I79" s="78" t="s">
+      <c r="I82" s="78" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="80" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="22" t="s">
+    <row r="83" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="22" t="s">
         <v>199</v>
       </c>
-      <c r="B80" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C80" s="22" t="s">
+      <c r="B83" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C83" s="22" t="s">
         <v>200</v>
       </c>
-      <c r="D80" s="23">
+      <c r="D83" s="23">
         <v>2</v>
       </c>
-      <c r="E80" s="61">
+      <c r="E83" s="61">
         <v>30</v>
       </c>
-      <c r="F80" s="62">
+      <c r="F83" s="62">
         <f t="shared" si="6"/>
         <v>60</v>
       </c>
-      <c r="G80" s="3" t="s">
+      <c r="G83" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H80" s="23" t="s">
+      <c r="H83" s="23" t="s">
         <v>202</v>
       </c>
-      <c r="I80" s="23" t="s">
+      <c r="I83" s="23" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="81" spans="1:9" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A81" s="10" t="s">
+    <row r="84" spans="1:9" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A84" s="10" t="s">
         <v>534</v>
       </c>
-      <c r="B81" s="4" t="s">
+      <c r="B84" s="4" t="s">
         <v>530</v>
       </c>
-      <c r="C81" s="10" t="s">
+      <c r="C84" s="10" t="s">
         <v>398</v>
       </c>
-      <c r="D81" s="4">
+      <c r="D84" s="4">
         <v>2</v>
       </c>
-      <c r="E81" s="60">
+      <c r="E84" s="60">
         <v>300</v>
       </c>
-      <c r="F81" s="58">
+      <c r="F84" s="58">
         <v>0</v>
       </c>
-      <c r="G81" s="4" t="s">
+      <c r="G84" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="H81" s="4" t="s">
+      <c r="H84" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="I81" s="4" t="s">
+      <c r="I84" s="4" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="82" spans="1:9" s="44" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A82" s="45" t="s">
+    <row r="85" spans="1:9" s="44" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A85" s="45" t="s">
         <v>400</v>
       </c>
-      <c r="B82" s="44" t="s">
-        <v>54</v>
-      </c>
-      <c r="C82" s="45" t="s">
+      <c r="B85" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="C85" s="45" t="s">
         <v>397</v>
       </c>
-      <c r="D82" s="44">
+      <c r="D85" s="44">
         <v>0</v>
       </c>
-      <c r="E82" s="63">
+      <c r="E85" s="63">
         <v>36</v>
       </c>
-      <c r="F82" s="64">
+      <c r="F85" s="64">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G82" s="44" t="s">
+      <c r="G85" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="H82" s="44" t="s">
+      <c r="H85" s="44" t="s">
         <v>204</v>
       </c>
-      <c r="I82" s="44" t="s">
+      <c r="I85" s="44" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" s="9" t="s">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86" s="9" t="s">
         <v>499</v>
       </c>
-      <c r="B83" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C83" s="9" t="s">
+      <c r="B86" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C86" s="9" t="s">
         <v>500</v>
       </c>
-      <c r="D83" s="3">
+      <c r="D86" s="3">
         <v>2</v>
       </c>
-      <c r="E83" s="57">
+      <c r="E86" s="57">
         <v>32</v>
       </c>
-      <c r="F83" s="55">
+      <c r="F86" s="55">
         <f t="shared" si="6"/>
         <v>64</v>
       </c>
-      <c r="G83" s="3" t="s">
+      <c r="G86" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H83" s="3" t="s">
+      <c r="H86" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="I83" s="3" t="s">
+      <c r="I86" s="3" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" s="9" t="s">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87" s="9" t="s">
         <v>400</v>
       </c>
-      <c r="B84" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C84" s="81" t="s">
+      <c r="B87" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C87" s="81" t="s">
         <v>497</v>
       </c>
-      <c r="D84" s="3">
+      <c r="D87" s="3">
         <v>2</v>
       </c>
-      <c r="E84" s="57">
+      <c r="E87" s="57">
         <v>36</v>
       </c>
-      <c r="F84" s="55">
-        <f t="shared" ref="F84" si="7">E84*D84</f>
+      <c r="F87" s="55">
+        <f t="shared" ref="F87" si="7">E87*D87</f>
         <v>72</v>
       </c>
-      <c r="G84" s="3" t="s">
+      <c r="G87" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H84" s="3" t="s">
+      <c r="H87" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="I84" s="3" t="s">
+      <c r="I87" s="3" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A85" s="9" t="s">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="B85" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C85" s="9" t="s">
+      <c r="B88" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C88" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="D85" s="3">
+      <c r="D88" s="3">
         <v>2</v>
       </c>
-      <c r="E85" s="57">
+      <c r="E88" s="57">
         <v>2104</v>
       </c>
-      <c r="F85" s="55">
+      <c r="F88" s="55">
         <f t="shared" si="6"/>
         <v>4208</v>
       </c>
-      <c r="G85" s="3" t="s">
+      <c r="G88" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H85" s="3" t="s">
+      <c r="H88" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="I85" s="3" t="s">
+      <c r="I88" s="3" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A86" s="9" t="s">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="B86" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C86" s="9" t="s">
+      <c r="B89" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C89" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="D86" s="3">
+      <c r="D89" s="3">
         <v>2</v>
       </c>
-      <c r="E86" s="57">
+      <c r="E89" s="57">
         <v>82</v>
       </c>
-      <c r="F86" s="55">
+      <c r="F89" s="55">
         <f t="shared" si="6"/>
         <v>164</v>
       </c>
-      <c r="G86" s="3" t="s">
+      <c r="G89" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H86" s="3" t="s">
+      <c r="H89" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="I86" s="3" t="s">
+      <c r="I89" s="3" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87" s="26" t="s">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90" s="26" t="s">
         <v>415</v>
       </c>
-      <c r="B87" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C87" s="9" t="s">
+      <c r="B90" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C90" s="9" t="s">
         <v>416</v>
       </c>
-      <c r="D87" s="3">
-        <v>1</v>
-      </c>
-      <c r="E87" s="57">
+      <c r="D90" s="3">
+        <v>1</v>
+      </c>
+      <c r="E90" s="57">
         <v>520</v>
       </c>
-      <c r="F87" s="55">
+      <c r="F90" s="55">
         <f t="shared" si="6"/>
         <v>520</v>
       </c>
-      <c r="G87" s="3" t="s">
+      <c r="G90" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H87" s="3" t="s">
+      <c r="H90" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="I87" s="3" t="s">
+      <c r="I90" s="3" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="88" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="26" t="s">
+    <row r="91" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="26" t="s">
         <v>513</v>
       </c>
-      <c r="B88" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C88" s="26" t="s">
+      <c r="B91" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C91" s="26" t="s">
         <v>514</v>
       </c>
-      <c r="D88" s="19">
+      <c r="D91" s="19">
         <v>2</v>
       </c>
-      <c r="E88" s="76">
+      <c r="E91" s="76">
         <v>148</v>
       </c>
-      <c r="F88" s="67">
+      <c r="F91" s="67">
         <f t="shared" si="6"/>
         <v>296</v>
       </c>
-      <c r="G88" s="19" t="s">
+      <c r="G91" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="H88" s="19" t="s">
+      <c r="H91" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="I88" s="19" t="s">
+      <c r="I91" s="19" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A89" s="10" t="s">
+    <row r="92" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A92" s="10" t="s">
         <v>532</v>
       </c>
-      <c r="B89" s="4" t="s">
+      <c r="B92" s="4" t="s">
         <v>530</v>
       </c>
-      <c r="C89" s="9" t="s">
+      <c r="C92" s="9" t="s">
         <v>280</v>
       </c>
-      <c r="D89" s="3">
+      <c r="D92" s="3">
         <v>14</v>
       </c>
-      <c r="E89" s="57">
+      <c r="E92" s="57">
         <v>20</v>
       </c>
-      <c r="F89" s="55">
+      <c r="F92" s="55">
         <v>0</v>
       </c>
-      <c r="G89" s="3" t="s">
+      <c r="G92" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H89" s="3" t="s">
+      <c r="H92" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="I89" s="4" t="s">
+      <c r="I92" s="4" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="90" spans="1:9" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A90" s="10" t="s">
-        <v>591</v>
-      </c>
-      <c r="B90" s="4" t="s">
-        <v>593</v>
-      </c>
-      <c r="C90" s="10" t="s">
+    <row r="93" spans="1:9" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A93" s="10" t="s">
         <v>590</v>
       </c>
-      <c r="D90" s="4">
-        <v>1</v>
-      </c>
-      <c r="E90" s="60">
+      <c r="B93" s="4" t="s">
+        <v>592</v>
+      </c>
+      <c r="C93" s="10" t="s">
+        <v>589</v>
+      </c>
+      <c r="D93" s="4">
+        <v>1</v>
+      </c>
+      <c r="E93" s="60">
         <v>10</v>
       </c>
-      <c r="F90" s="58">
+      <c r="F93" s="58">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
-      <c r="G90" s="4" t="s">
+      <c r="G93" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="H90" s="4" t="s">
+      <c r="H93" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="I90" s="4" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A91" s="9" t="s">
+      <c r="I93" s="4" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A94" s="9" t="s">
         <v>435</v>
       </c>
-      <c r="B91" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C91" s="9" t="s">
-        <v>588</v>
-      </c>
-      <c r="D91" s="3">
+      <c r="B94" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C94" s="9" t="s">
+        <v>587</v>
+      </c>
+      <c r="D94" s="3">
         <v>0</v>
       </c>
-      <c r="E91" s="57">
+      <c r="E94" s="57">
         <v>28</v>
       </c>
-      <c r="F91" s="55">
+      <c r="F94" s="55">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G91" s="3" t="s">
+      <c r="G94" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H91" s="3" t="s">
+      <c r="H94" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" s="6" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A92" s="5" t="s">
+      <c r="I94" s="3" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" s="6" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A95" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="E92" s="56"/>
-      <c r="F92" s="56"/>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A93" s="9" t="s">
+      <c r="E95" s="56"/>
+      <c r="F95" s="56"/>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96" s="9" t="s">
         <v>23</v>
-      </c>
-      <c r="B93" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C93" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D93" s="3">
-        <v>1</v>
-      </c>
-      <c r="E93" s="57"/>
-      <c r="I93" s="3" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A94" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="B94" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C94" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="D94" s="3">
-        <v>1</v>
-      </c>
-      <c r="E94" s="57">
-        <v>63</v>
-      </c>
-      <c r="F94" s="55">
-        <f>D94*E94</f>
-        <v>63</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A95" s="24" t="s">
-        <v>229</v>
-      </c>
-      <c r="B95" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C95" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="D95" s="3">
-        <v>2</v>
-      </c>
-      <c r="E95" s="57">
-        <v>69</v>
-      </c>
-      <c r="F95" s="55">
-        <f>D95*E95</f>
-        <v>138</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A96" s="3" t="s">
-        <v>21</v>
       </c>
       <c r="B96" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C96" s="3" t="s">
-        <v>22</v>
+      <c r="C96" s="9" t="s">
+        <v>20</v>
       </c>
       <c r="D96" s="3">
         <v>1</v>
@@ -5061,1895 +5041,1955 @@
         <v>231</v>
       </c>
     </row>
-    <row r="97" spans="1:10" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A97" s="4" t="s">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A97" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C97" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="D97" s="3">
+        <v>1</v>
+      </c>
+      <c r="E97" s="57">
+        <v>63</v>
+      </c>
+      <c r="F97" s="55">
+        <f>D97*E97</f>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A98" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C98" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="D98" s="3">
+        <v>2</v>
+      </c>
+      <c r="E98" s="57">
+        <v>69</v>
+      </c>
+      <c r="F98" s="55">
+        <f>D98*E98</f>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A99" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D99" s="3">
+        <v>1</v>
+      </c>
+      <c r="E99" s="57"/>
+      <c r="I99" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A100" s="4" t="s">
         <v>508</v>
       </c>
-      <c r="B97" s="4" t="s">
+      <c r="B100" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="C97" s="4" t="s">
+      <c r="C100" s="4" t="s">
         <v>509</v>
       </c>
-      <c r="D97" s="4">
+      <c r="D100" s="4">
         <v>5</v>
       </c>
-      <c r="E97" s="60">
-        <v>1</v>
-      </c>
-      <c r="F97" s="58">
+      <c r="E100" s="60">
+        <v>1</v>
+      </c>
+      <c r="F100" s="58">
         <v>5</v>
       </c>
-      <c r="I97" s="4" t="s">
+      <c r="I100" s="4" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="98" spans="1:10" s="6" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A98" s="5" t="s">
+    <row r="101" spans="1:10" s="6" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A101" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="E98" s="56"/>
-      <c r="F98" s="56"/>
-    </row>
-    <row r="99" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="6" t="s">
+      <c r="E101" s="56"/>
+      <c r="F101" s="56"/>
+    </row>
+    <row r="102" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="6" t="s">
         <v>374</v>
       </c>
-      <c r="E99" s="56"/>
-      <c r="F99" s="56"/>
-    </row>
-    <row r="100" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A100" s="3" t="s">
+      <c r="E102" s="56"/>
+      <c r="F102" s="56"/>
+    </row>
+    <row r="103" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A103" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="B100" s="3" t="s">
+      <c r="B103" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="C100" s="51" t="s">
+      <c r="C103" s="51" t="s">
         <v>375</v>
       </c>
-      <c r="D100" s="3">
-        <v>1</v>
-      </c>
-      <c r="E100" s="55">
+      <c r="D103" s="3">
+        <v>1</v>
+      </c>
+      <c r="E103" s="55">
         <v>200</v>
-      </c>
-      <c r="F100" s="55">
-        <f>E100*D100</f>
-        <v>200</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="J100" s="4"/>
-    </row>
-    <row r="101" spans="1:10" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A101" s="4" t="s">
-        <v>424</v>
-      </c>
-      <c r="B101" s="4" t="s">
-        <v>434</v>
-      </c>
-      <c r="C101" s="4" t="s">
-        <v>379</v>
-      </c>
-      <c r="D101" s="4">
-        <v>5</v>
-      </c>
-      <c r="E101" s="58">
-        <v>1</v>
-      </c>
-      <c r="F101" s="58">
-        <v>5</v>
-      </c>
-      <c r="I101" s="4" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A102" s="3" t="s">
-        <v>382</v>
-      </c>
-      <c r="B102" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C102" s="3" t="s">
-        <v>381</v>
-      </c>
-      <c r="D102" s="3">
-        <v>1</v>
-      </c>
-      <c r="E102" s="55">
-        <v>26</v>
-      </c>
-      <c r="F102" s="55">
-        <f>E102*D102</f>
-        <v>26</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A103" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="B103" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C103" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="D103" s="3">
-        <v>1</v>
-      </c>
-      <c r="E103" s="55">
-        <v>37</v>
       </c>
       <c r="F103" s="55">
         <f>E103*D103</f>
+        <v>200</v>
+      </c>
+      <c r="I103" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="J103" s="4"/>
+    </row>
+    <row r="104" spans="1:10" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A104" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="D104" s="4">
+        <v>5</v>
+      </c>
+      <c r="E104" s="58">
+        <v>1</v>
+      </c>
+      <c r="F104" s="58">
+        <v>5</v>
+      </c>
+      <c r="I104" s="4" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A105" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="D105" s="3">
+        <v>1</v>
+      </c>
+      <c r="E105" s="55">
+        <v>26</v>
+      </c>
+      <c r="F105" s="55">
+        <f>E105*D105</f>
+        <v>26</v>
+      </c>
+      <c r="I105" s="3" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A106" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="D106" s="3">
+        <v>1</v>
+      </c>
+      <c r="E106" s="55">
         <v>37</v>
       </c>
-      <c r="I103" s="3" t="s">
+      <c r="F106" s="55">
+        <f>E106*D106</f>
+        <v>37</v>
+      </c>
+      <c r="I106" s="3" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A104" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="B104" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C104" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="D104" s="3">
-        <v>2</v>
-      </c>
-      <c r="E104" s="55">
-        <v>24</v>
-      </c>
-      <c r="F104" s="55">
-        <f>E104*D104</f>
-        <v>48</v>
-      </c>
-      <c r="I104" s="3" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A105" s="42" t="s">
-        <v>155</v>
-      </c>
-      <c r="E105" s="65"/>
-      <c r="F105" s="65"/>
-    </row>
-    <row r="106" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="14" t="s">
-        <v>541</v>
-      </c>
-      <c r="E106" s="65"/>
-      <c r="F106" s="65"/>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>542</v>
+        <v>54</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>543</v>
+        <v>311</v>
       </c>
       <c r="D107" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E107" s="55">
-        <v>625</v>
+        <v>24</v>
       </c>
       <c r="F107" s="55">
         <f>E107*D107</f>
+        <v>48</v>
+      </c>
+      <c r="I107" s="3" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A108" s="42" t="s">
+        <v>155</v>
+      </c>
+      <c r="E108" s="65"/>
+      <c r="F108" s="65"/>
+    </row>
+    <row r="109" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="14" t="s">
+        <v>540</v>
+      </c>
+      <c r="E109" s="65"/>
+      <c r="F109" s="65"/>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A110" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="D110" s="3">
+        <v>1</v>
+      </c>
+      <c r="E110" s="55">
         <v>625</v>
       </c>
-      <c r="G107" s="3" t="s">
+      <c r="F110" s="55">
+        <f>E110*D110</f>
+        <v>625</v>
+      </c>
+      <c r="G110" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I107" s="3" t="s">
+      <c r="I110" s="3" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="108" spans="1:10" s="17" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A108" s="16" t="s">
+    <row r="111" spans="1:10" s="17" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A111" s="16" t="s">
         <v>319</v>
       </c>
-      <c r="E108" s="66"/>
-      <c r="F108" s="66"/>
-    </row>
-    <row r="109" spans="1:10" s="19" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A109" s="20" t="s">
+      <c r="E111" s="66"/>
+      <c r="F111" s="66"/>
+    </row>
+    <row r="112" spans="1:10" s="19" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A112" s="20" t="s">
         <v>447</v>
       </c>
-      <c r="B109" s="19" t="s">
+      <c r="B112" s="19" t="s">
         <v>293</v>
       </c>
-      <c r="C109" s="70" t="s">
+      <c r="C112" s="70" t="s">
         <v>448</v>
       </c>
-      <c r="D109" s="19">
-        <v>1</v>
-      </c>
-      <c r="E109" s="67">
+      <c r="D112" s="19">
+        <v>1</v>
+      </c>
+      <c r="E112" s="67">
         <v>900</v>
       </c>
-      <c r="F109" s="67">
-        <f t="shared" ref="F109:F115" si="8">E109*D109</f>
+      <c r="F112" s="67">
+        <f t="shared" ref="F112:F118" si="8">E112*D112</f>
         <v>900</v>
       </c>
-      <c r="G109" s="3" t="s">
+      <c r="G112" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I109" s="19" t="s">
+      <c r="I112" s="19" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="110" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A110" s="21" t="s">
+    <row r="113" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A113" s="21" t="s">
         <v>451</v>
       </c>
-      <c r="B110" s="19" t="s">
+      <c r="B113" s="19" t="s">
         <v>293</v>
       </c>
-      <c r="C110" s="71" t="s">
+      <c r="C113" s="71" t="s">
         <v>449</v>
       </c>
-      <c r="D110" s="3">
-        <v>1</v>
-      </c>
-      <c r="E110" s="55">
+      <c r="D113" s="3">
+        <v>1</v>
+      </c>
+      <c r="E113" s="55">
         <v>767</v>
       </c>
-      <c r="F110" s="67">
+      <c r="F113" s="67">
         <f t="shared" si="8"/>
         <v>767</v>
       </c>
-      <c r="G110" s="3" t="s">
+      <c r="G113" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H110" s="19"/>
-      <c r="I110" s="3" t="s">
+      <c r="H113" s="19"/>
+      <c r="I113" s="3" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="111" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A111" s="21" t="s">
+    <row r="114" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A114" s="21" t="s">
         <v>452</v>
       </c>
-      <c r="B111" s="19" t="s">
+      <c r="B114" s="19" t="s">
         <v>293</v>
       </c>
-      <c r="C111" s="71" t="s">
+      <c r="C114" s="71" t="s">
         <v>450</v>
       </c>
-      <c r="D111" s="3">
+      <c r="D114" s="3">
         <v>0</v>
       </c>
-      <c r="E111" s="55">
+      <c r="E114" s="55">
         <v>1540</v>
       </c>
-      <c r="F111" s="67">
+      <c r="F114" s="67">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="G111" s="3" t="s">
+      <c r="G114" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H111" s="19"/>
-      <c r="I111" s="3" t="s">
+      <c r="H114" s="19"/>
+      <c r="I114" s="3" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="112" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A112" s="3" t="s">
+    <row r="115" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A115" s="3" t="s">
         <v>454</v>
       </c>
-      <c r="B112" s="19" t="s">
+      <c r="B115" s="19" t="s">
         <v>293</v>
       </c>
-      <c r="C112" s="71" t="s">
+      <c r="C115" s="71" t="s">
         <v>453</v>
       </c>
-      <c r="D112" s="3">
-        <v>1</v>
-      </c>
-      <c r="E112" s="55">
+      <c r="D115" s="3">
+        <v>1</v>
+      </c>
+      <c r="E115" s="55">
         <v>877</v>
       </c>
-      <c r="F112" s="67">
+      <c r="F115" s="67">
         <f t="shared" si="8"/>
         <v>877</v>
       </c>
-      <c r="G112" s="3" t="s">
+      <c r="G115" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H112" s="19"/>
-      <c r="I112" s="3" t="s">
+      <c r="H115" s="19"/>
+      <c r="I115" s="3" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="113" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A113" s="3" t="s">
+    <row r="116" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A116" s="3" t="s">
         <v>455</v>
       </c>
-      <c r="B113" s="19" t="s">
+      <c r="B116" s="19" t="s">
         <v>293</v>
       </c>
-      <c r="C113" s="71" t="s">
+      <c r="C116" s="71" t="s">
         <v>389</v>
       </c>
-      <c r="D113" s="3">
+      <c r="D116" s="3">
         <v>0</v>
       </c>
-      <c r="E113" s="55">
+      <c r="E116" s="55">
         <v>4700</v>
       </c>
-      <c r="F113" s="67">
+      <c r="F116" s="67">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="G113" s="3" t="s">
+      <c r="G116" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H113" s="19"/>
-      <c r="I113" s="3" t="s">
+      <c r="H116" s="19"/>
+      <c r="I116" s="3" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A114" s="3" t="s">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A117" s="3" t="s">
         <v>458</v>
       </c>
-      <c r="B114" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C114" s="3" t="s">
+      <c r="B117" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C117" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="D114" s="3">
-        <v>1</v>
-      </c>
-      <c r="E114" s="55">
+      <c r="D117" s="3">
+        <v>1</v>
+      </c>
+      <c r="E117" s="55">
         <v>20</v>
       </c>
-      <c r="F114" s="67">
+      <c r="F117" s="67">
         <f t="shared" si="8"/>
         <v>20</v>
       </c>
-      <c r="G114" s="3" t="s">
+      <c r="G117" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H114" s="19"/>
-      <c r="I114" s="3" t="s">
+      <c r="H117" s="19"/>
+      <c r="I117" s="3" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A115" s="3" t="s">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A118" s="3" t="s">
         <v>460</v>
       </c>
-      <c r="B115" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C115" s="27" t="s">
+      <c r="B118" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C118" s="27" t="s">
         <v>461</v>
       </c>
-      <c r="D115" s="3">
-        <v>1</v>
-      </c>
-      <c r="E115" s="55">
+      <c r="D118" s="3">
+        <v>1</v>
+      </c>
+      <c r="E118" s="55">
         <v>25</v>
       </c>
-      <c r="F115" s="67">
+      <c r="F118" s="67">
         <f t="shared" si="8"/>
         <v>25</v>
       </c>
-      <c r="G115" s="3" t="s">
+      <c r="G118" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H115" s="19"/>
-      <c r="I115" s="3" t="s">
+      <c r="H118" s="19"/>
+      <c r="I118" s="3" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="116" spans="1:9" s="17" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A116" s="16" t="s">
+    <row r="119" spans="1:9" s="17" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A119" s="16" t="s">
         <v>320</v>
       </c>
-      <c r="E116" s="66"/>
-      <c r="F116" s="66"/>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A117" s="3" t="s">
+      <c r="E119" s="66"/>
+      <c r="F119" s="66"/>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A120" s="3" t="s">
         <v>467</v>
       </c>
-      <c r="B117" s="19" t="s">
+      <c r="B120" s="19" t="s">
         <v>293</v>
       </c>
-      <c r="C117" s="52" t="s">
+      <c r="C120" s="52" t="s">
         <v>322</v>
       </c>
-      <c r="D117" s="3">
-        <v>1</v>
-      </c>
-      <c r="E117" s="55">
+      <c r="D120" s="3">
+        <v>1</v>
+      </c>
+      <c r="E120" s="55">
         <v>752</v>
       </c>
-      <c r="F117" s="55">
-        <f t="shared" ref="F117:F122" si="9">D117*E117</f>
+      <c r="F120" s="55">
+        <f t="shared" ref="F120:F125" si="9">D120*E120</f>
         <v>752</v>
       </c>
-      <c r="G117" s="3" t="s">
+      <c r="G120" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I117" s="3" t="s">
+      <c r="I120" s="3" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="118" spans="1:9" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A118" s="4" t="s">
+    <row r="121" spans="1:9" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A121" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="B118" s="48" t="s">
+      <c r="B121" s="48" t="s">
         <v>209</v>
       </c>
-      <c r="C118" s="4" t="s">
+      <c r="C121" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="D118" s="4">
+      <c r="D121" s="4">
         <v>5</v>
       </c>
-      <c r="E118" s="58">
-        <v>1</v>
-      </c>
-      <c r="F118" s="58">
+      <c r="E121" s="58">
+        <v>1</v>
+      </c>
+      <c r="F121" s="58">
         <v>5</v>
       </c>
-      <c r="G118" s="4" t="s">
+      <c r="G121" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I118" s="4" t="s">
+      <c r="I121" s="4" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A119" s="3" t="s">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A122" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="B119" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C119" s="3" t="s">
-        <v>586</v>
-      </c>
-      <c r="D119" s="3">
-        <v>1</v>
-      </c>
-      <c r="E119" s="55">
+      <c r="B122" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="D122" s="3">
+        <v>1</v>
+      </c>
+      <c r="E122" s="55">
         <v>65</v>
       </c>
-      <c r="F119" s="55">
+      <c r="F122" s="55">
         <f t="shared" si="9"/>
         <v>65</v>
       </c>
-      <c r="G119" s="3" t="s">
+      <c r="G122" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I119" s="3" t="s">
+      <c r="I122" s="3" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A120" s="3" t="s">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A123" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="B120" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C120" s="3" t="s">
+      <c r="B123" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C123" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="D120" s="3">
-        <v>1</v>
-      </c>
-      <c r="E120" s="55">
+      <c r="D123" s="3">
+        <v>1</v>
+      </c>
+      <c r="E123" s="55">
         <v>32</v>
       </c>
-      <c r="F120" s="55">
+      <c r="F123" s="55">
         <f t="shared" si="9"/>
         <v>32</v>
       </c>
-      <c r="G120" s="3" t="s">
+      <c r="G123" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I120" s="3" t="s">
+      <c r="I123" s="3" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A121" s="3" t="s">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A124" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="B121" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C121" s="3" t="s">
+      <c r="B124" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C124" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="D121" s="3">
-        <v>1</v>
-      </c>
-      <c r="E121" s="55">
+      <c r="D124" s="3">
+        <v>1</v>
+      </c>
+      <c r="E124" s="55">
         <v>112</v>
       </c>
-      <c r="F121" s="55">
+      <c r="F124" s="55">
         <f t="shared" si="9"/>
         <v>112</v>
       </c>
-      <c r="G121" s="3" t="s">
+      <c r="G124" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I121" s="3" t="s">
+      <c r="I124" s="3" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="122" spans="1:9" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A122" s="4" t="s">
+    <row r="125" spans="1:9" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A125" s="4" t="s">
         <v>511</v>
       </c>
-      <c r="B122" s="48" t="s">
+      <c r="B125" s="48" t="s">
         <v>209</v>
       </c>
-      <c r="C122" s="4" t="s">
+      <c r="C125" s="4" t="s">
         <v>506</v>
       </c>
-      <c r="D122" s="4">
+      <c r="D125" s="4">
         <v>5</v>
       </c>
-      <c r="E122" s="58">
+      <c r="E125" s="58">
         <v>2</v>
       </c>
-      <c r="F122" s="58">
+      <c r="F125" s="58">
         <f t="shared" si="9"/>
         <v>10</v>
       </c>
-      <c r="G122" s="4" t="s">
+      <c r="G125" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I122" s="4" t="s">
+      <c r="I125" s="4" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="123" spans="1:9" s="6" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A123" s="5" t="s">
+    <row r="126" spans="1:9" s="6" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A126" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E123" s="56"/>
-      <c r="F123" s="56"/>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A124" s="3" t="s">
+      <c r="E126" s="56"/>
+      <c r="F126" s="56"/>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A127" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B124" s="3" t="s">
+      <c r="B127" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C124" s="3" t="s">
+      <c r="C127" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D124" s="3">
-        <v>1</v>
-      </c>
-      <c r="E124" s="55">
+      <c r="D127" s="3">
+        <v>1</v>
+      </c>
+      <c r="E127" s="55">
         <v>5420</v>
       </c>
-      <c r="F124" s="55">
-        <f t="shared" ref="F124:F137" si="10">E124*D124</f>
+      <c r="F127" s="55">
+        <f t="shared" ref="F127:F140" si="10">E127*D127</f>
         <v>5420</v>
       </c>
-      <c r="G124" s="3" t="s">
+      <c r="G127" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="I124" s="3" t="s">
+      <c r="I127" s="3" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A125" s="3" t="s">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A128" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="B125" s="3" t="s">
+      <c r="B128" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C125" s="3" t="s">
+      <c r="C128" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="D125" s="3">
-        <v>1</v>
-      </c>
-      <c r="E125" s="55">
+      <c r="D128" s="3">
+        <v>1</v>
+      </c>
+      <c r="E128" s="55">
         <v>2560</v>
       </c>
-      <c r="F125" s="55">
+      <c r="F128" s="55">
         <f t="shared" si="10"/>
         <v>2560</v>
       </c>
-      <c r="G125" s="3" t="s">
+      <c r="G128" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="I125" s="3" t="s">
+      <c r="I128" s="3" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A126" s="3" t="s">
-        <v>570</v>
-      </c>
-      <c r="B126" s="3" t="s">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A129" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="B129" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C126" s="3" t="s">
+      <c r="C129" s="3" t="s">
         <v>504</v>
       </c>
-      <c r="D126" s="3">
-        <v>1</v>
-      </c>
-      <c r="E126" s="55">
+      <c r="D129" s="3">
+        <v>1</v>
+      </c>
+      <c r="E129" s="55">
         <v>900</v>
       </c>
-      <c r="F126" s="55">
+      <c r="F129" s="55">
         <f t="shared" si="10"/>
         <v>900</v>
       </c>
-      <c r="G126" s="3" t="s">
+      <c r="G129" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="I126" s="3" t="s">
+      <c r="I129" s="3" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A127" s="3" t="s">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A130" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="B127" s="3" t="s">
+      <c r="B130" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C127" s="3" t="s">
+      <c r="C130" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="D127" s="3">
-        <v>1</v>
-      </c>
-      <c r="E127" s="55">
+      <c r="D130" s="3">
+        <v>1</v>
+      </c>
+      <c r="E130" s="55">
         <v>163</v>
       </c>
-      <c r="F127" s="55">
+      <c r="F130" s="55">
         <f t="shared" si="10"/>
         <v>163</v>
       </c>
-      <c r="G127" s="3" t="s">
+      <c r="G130" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="I127" s="3" t="s">
+      <c r="I130" s="3" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A128" s="3" t="s">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A131" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B128" s="3" t="s">
+      <c r="B131" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C128" s="3" t="s">
+      <c r="C131" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="D128" s="3">
-        <v>1</v>
-      </c>
-      <c r="E128" s="55">
+      <c r="D131" s="3">
+        <v>1</v>
+      </c>
+      <c r="E131" s="55">
         <v>11</v>
       </c>
-      <c r="F128" s="55">
+      <c r="F131" s="55">
         <f t="shared" si="10"/>
         <v>11</v>
       </c>
-      <c r="G128" s="3" t="s">
+      <c r="G131" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A129" s="3" t="s">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A132" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B129" s="3" t="s">
+      <c r="B132" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C129" s="3" t="s">
+      <c r="C132" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D129" s="3">
-        <v>1</v>
-      </c>
-      <c r="E129" s="55">
+      <c r="D132" s="3">
+        <v>1</v>
+      </c>
+      <c r="E132" s="55">
         <v>520</v>
       </c>
-      <c r="F129" s="55">
+      <c r="F132" s="55">
         <f t="shared" si="10"/>
         <v>520</v>
       </c>
-      <c r="G129" s="3" t="s">
+      <c r="G132" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A130" s="3" t="s">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A133" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="B130" s="3" t="s">
+      <c r="B133" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C130" s="3" t="s">
+      <c r="C133" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="D130" s="3">
-        <v>1</v>
-      </c>
-      <c r="E130" s="55">
+      <c r="D133" s="3">
+        <v>1</v>
+      </c>
+      <c r="E133" s="55">
         <v>193</v>
       </c>
-      <c r="F130" s="55">
+      <c r="F133" s="55">
         <f t="shared" si="10"/>
         <v>193</v>
       </c>
-      <c r="G130" s="3" t="s">
+      <c r="G133" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A131" s="3" t="s">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A134" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="B131" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C131" s="3" t="s">
+      <c r="B134" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C134" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="D131" s="3">
+      <c r="D134" s="3">
         <v>10</v>
       </c>
-      <c r="E131" s="55">
+      <c r="E134" s="55">
         <v>12</v>
       </c>
-      <c r="F131" s="55">
+      <c r="F134" s="55">
         <f t="shared" si="10"/>
         <v>120</v>
       </c>
-      <c r="G131" s="3" t="s">
+      <c r="G134" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="I131" s="3" t="s">
+      <c r="I134" s="3" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A132" s="3" t="s">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A135" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="B132" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C132" s="3" t="s">
+      <c r="B135" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C135" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="D132" s="3">
-        <v>1</v>
-      </c>
-      <c r="E132" s="55">
+      <c r="D135" s="3">
+        <v>1</v>
+      </c>
+      <c r="E135" s="55">
         <v>14</v>
       </c>
-      <c r="F132" s="55">
+      <c r="F135" s="55">
         <f t="shared" si="10"/>
         <v>14</v>
       </c>
-      <c r="G132" s="3" t="s">
+      <c r="G135" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="I132" s="3" t="s">
+      <c r="I135" s="3" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A133" s="3" t="s">
-        <v>569</v>
-      </c>
-      <c r="B133" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C133" s="3" t="s">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A136" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C136" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="D133" s="3">
+      <c r="D136" s="3">
         <v>5</v>
       </c>
-      <c r="E133" s="55">
+      <c r="E136" s="55">
         <v>15.25</v>
       </c>
-      <c r="F133" s="55">
+      <c r="F136" s="55">
         <f t="shared" si="10"/>
         <v>76.25</v>
       </c>
-      <c r="G133" s="3" t="s">
+      <c r="G136" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A134" s="3" t="s">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A137" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B134" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C134" s="3" t="s">
+      <c r="B137" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C137" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="D134" s="3">
+      <c r="D137" s="3">
         <v>10</v>
       </c>
-      <c r="E134" s="55">
+      <c r="E137" s="55">
         <v>16.5</v>
       </c>
-      <c r="F134" s="55">
+      <c r="F137" s="55">
         <f t="shared" si="10"/>
         <v>165</v>
       </c>
-      <c r="G134" s="3" t="s">
+      <c r="G137" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A135" s="3" t="s">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A138" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B135" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C135" s="3" t="s">
+      <c r="B138" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C138" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="D135" s="3">
+      <c r="D138" s="3">
         <v>10</v>
       </c>
-      <c r="E135" s="55">
+      <c r="E138" s="55">
         <v>24</v>
       </c>
-      <c r="F135" s="55">
+      <c r="F138" s="55">
         <f t="shared" si="10"/>
         <v>240</v>
       </c>
-      <c r="G135" s="3" t="s">
+      <c r="G138" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A136" s="3" t="s">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A139" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B136" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C136" s="3" t="s">
+      <c r="B139" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C139" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="D136" s="3">
+      <c r="D139" s="3">
         <v>6</v>
       </c>
-      <c r="E136" s="55">
+      <c r="E139" s="55">
         <v>24</v>
       </c>
-      <c r="F136" s="55">
+      <c r="F139" s="55">
         <f t="shared" si="10"/>
         <v>144</v>
       </c>
-      <c r="G136" s="3" t="s">
+      <c r="G139" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A137" s="25" t="s">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A140" s="25" t="s">
+        <v>580</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C140" s="3" t="s">
         <v>581</v>
       </c>
-      <c r="B137" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C137" s="3" t="s">
-        <v>582</v>
-      </c>
-      <c r="D137" s="3">
-        <v>1</v>
-      </c>
-      <c r="E137" s="55">
+      <c r="D140" s="3">
+        <v>1</v>
+      </c>
+      <c r="E140" s="55">
         <v>11</v>
       </c>
-      <c r="F137" s="55">
+      <c r="F140" s="55">
         <f t="shared" si="10"/>
         <v>11</v>
       </c>
-      <c r="G137" s="3" t="s">
+      <c r="G140" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="I137" s="3" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A139" s="10"/>
-      <c r="B139" s="10"/>
-      <c r="C139" s="9"/>
-    </row>
-    <row r="140" spans="1:9" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A140" s="7" t="s">
-        <v>548</v>
-      </c>
-      <c r="E140" s="56"/>
-      <c r="F140" s="56"/>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A141" s="3" t="s">
-        <v>563</v>
-      </c>
-      <c r="B141" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C141" s="3" t="s">
+      <c r="I140" s="3" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A142" s="10"/>
+      <c r="B142" s="10"/>
+      <c r="C142" s="9"/>
+    </row>
+    <row r="143" spans="1:9" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A143" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="E143" s="56"/>
+      <c r="F143" s="56"/>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A144" s="3" t="s">
         <v>562</v>
       </c>
-      <c r="D141" s="3">
+      <c r="B144" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="D144" s="3">
         <v>2</v>
       </c>
-      <c r="E141" s="55">
+      <c r="E144" s="55">
         <v>25</v>
       </c>
-      <c r="F141" s="55">
-        <f t="shared" ref="F141:F166" si="11">E141*D141</f>
+      <c r="F144" s="55">
+        <f t="shared" ref="F144:F169" si="11">E144*D144</f>
         <v>50</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A142" s="3" t="s">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A145" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B142" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C142" s="3" t="s">
+      <c r="B145" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C145" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="D142" s="3">
-        <v>1</v>
-      </c>
-      <c r="E142" s="55">
+      <c r="D145" s="3">
+        <v>1</v>
+      </c>
+      <c r="E145" s="55">
         <v>85.1</v>
       </c>
-      <c r="F142" s="55">
+      <c r="F145" s="55">
         <f t="shared" si="11"/>
         <v>85.1</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A143" s="3" t="s">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A146" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="B143" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C143" s="3" t="s">
+      <c r="B146" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C146" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="D143" s="3">
+      <c r="D146" s="3">
         <v>2</v>
       </c>
-      <c r="E143" s="55">
+      <c r="E146" s="55">
         <v>32</v>
       </c>
-      <c r="F143" s="55">
+      <c r="F146" s="55">
         <f t="shared" si="11"/>
         <v>64</v>
       </c>
-      <c r="I143" s="3" t="s">
+      <c r="I146" s="3" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A144" s="3" t="s">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A147" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="B144" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C144" s="3" t="s">
+      <c r="B147" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C147" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="D144" s="3">
+      <c r="D147" s="3">
         <v>2</v>
       </c>
-      <c r="E144" s="55">
+      <c r="E147" s="55">
         <v>51.58</v>
       </c>
-      <c r="F144" s="55">
+      <c r="F147" s="55">
         <f t="shared" si="11"/>
         <v>103.16</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A145" s="3" t="s">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A148" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="B145" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C145" s="3" t="s">
+      <c r="B148" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C148" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="D145" s="3">
-        <v>1</v>
-      </c>
-      <c r="E145" s="55">
+      <c r="D148" s="3">
+        <v>1</v>
+      </c>
+      <c r="E148" s="55">
         <v>60</v>
       </c>
-      <c r="F145" s="55">
+      <c r="F148" s="55">
         <f t="shared" si="11"/>
         <v>60</v>
       </c>
-      <c r="I145" s="3" t="s">
+      <c r="I148" s="3" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A146" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="B146" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C146" s="3" t="s">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A149" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C149" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="D146" s="3">
-        <v>1</v>
-      </c>
-      <c r="E146" s="55">
+      <c r="D149" s="3">
+        <v>1</v>
+      </c>
+      <c r="E149" s="55">
         <v>136.47999999999999</v>
       </c>
-      <c r="F146" s="55">
+      <c r="F149" s="55">
         <f t="shared" si="11"/>
         <v>136.47999999999999</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A147" s="3" t="s">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A150" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="B147" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C147" s="3" t="s">
+      <c r="B150" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C150" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D147" s="3">
-        <v>1</v>
-      </c>
-      <c r="E147" s="55">
+      <c r="D150" s="3">
+        <v>1</v>
+      </c>
+      <c r="E150" s="55">
         <v>136.47999999999999</v>
       </c>
-      <c r="F147" s="55">
+      <c r="F150" s="55">
         <f t="shared" si="11"/>
         <v>136.47999999999999</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A148" s="3" t="s">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A151" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B148" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C148" s="3" t="s">
+      <c r="B151" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C151" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="D148" s="3">
-        <v>1</v>
-      </c>
-      <c r="E148" s="55">
+      <c r="D151" s="3">
+        <v>1</v>
+      </c>
+      <c r="E151" s="55">
         <v>60.95</v>
       </c>
-      <c r="F148" s="55">
+      <c r="F151" s="55">
         <f t="shared" si="11"/>
         <v>60.95</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A149" s="3" t="s">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A152" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="B149" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C149" s="3" t="s">
+      <c r="B152" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C152" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="D149" s="3">
-        <v>1</v>
-      </c>
-      <c r="E149" s="55">
+      <c r="D152" s="3">
+        <v>1</v>
+      </c>
+      <c r="E152" s="55">
         <v>119.416</v>
       </c>
-      <c r="F149" s="55">
+      <c r="F152" s="55">
         <f t="shared" si="11"/>
         <v>119.416</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A150" s="3" t="s">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A153" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B150" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C150" s="3" t="s">
+      <c r="B153" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C153" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="D150" s="3">
-        <v>1</v>
-      </c>
-      <c r="E150" s="55">
+      <c r="D153" s="3">
+        <v>1</v>
+      </c>
+      <c r="E153" s="55">
         <v>105.8</v>
       </c>
-      <c r="F150" s="55">
+      <c r="F153" s="55">
         <f t="shared" si="11"/>
         <v>105.8</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A151" s="3" t="s">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A154" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="B151" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C151" s="3" t="s">
+      <c r="B154" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C154" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="D151" s="3">
+      <c r="D154" s="3">
         <v>2</v>
       </c>
-      <c r="E151" s="55">
+      <c r="E154" s="55">
         <v>119.6</v>
       </c>
-      <c r="F151" s="55">
+      <c r="F154" s="55">
         <f t="shared" si="11"/>
         <v>239.2</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A152" s="3" t="s">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A155" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="B152" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C152" s="3" t="s">
+      <c r="B155" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C155" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="D152" s="3">
-        <v>1</v>
-      </c>
-      <c r="E152" s="55">
+      <c r="D155" s="3">
+        <v>1</v>
+      </c>
+      <c r="E155" s="55">
         <v>100</v>
       </c>
-      <c r="F152" s="55">
+      <c r="F155" s="55">
         <f t="shared" si="11"/>
         <v>100</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A153" s="3" t="s">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A156" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="B153" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C153" s="3" t="s">
+      <c r="B156" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C156" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="D153" s="3">
+      <c r="D156" s="3">
         <v>2</v>
       </c>
-      <c r="E153" s="55">
+      <c r="E156" s="55">
         <v>92</v>
       </c>
-      <c r="F153" s="55">
+      <c r="F156" s="55">
         <f t="shared" si="11"/>
         <v>184</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A154" s="3" t="s">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A157" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="B154" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C154" s="3" t="s">
+      <c r="B157" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C157" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="D154" s="3">
-        <v>1</v>
-      </c>
-      <c r="E154" s="55">
+      <c r="D157" s="3">
+        <v>1</v>
+      </c>
+      <c r="E157" s="55">
         <v>96.23</v>
       </c>
-      <c r="F154" s="55">
+      <c r="F157" s="55">
         <f t="shared" si="11"/>
         <v>96.23</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A155" s="3" t="s">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A158" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="B155" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C155" s="3" t="s">
+      <c r="B158" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C158" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="D155" s="3">
-        <v>1</v>
-      </c>
-      <c r="E155" s="55">
+      <c r="D158" s="3">
+        <v>1</v>
+      </c>
+      <c r="E158" s="55">
         <v>102.44</v>
       </c>
-      <c r="F155" s="55">
+      <c r="F158" s="55">
         <f t="shared" si="11"/>
         <v>102.44</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A156" s="3" t="s">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A159" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="B156" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C156" s="3" t="s">
+      <c r="B159" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C159" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="D156" s="3">
+      <c r="D159" s="3">
         <v>2</v>
       </c>
-      <c r="E156" s="55">
+      <c r="E159" s="55">
         <v>28</v>
       </c>
-      <c r="F156" s="55">
+      <c r="F159" s="55">
         <f t="shared" si="11"/>
         <v>56</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A157" s="3" t="s">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A160" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B157" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C157" s="3" t="s">
-        <v>549</v>
-      </c>
-      <c r="D157" s="3">
-        <v>1</v>
-      </c>
-      <c r="E157" s="55">
+      <c r="B160" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C160" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="D160" s="3">
+        <v>1</v>
+      </c>
+      <c r="E160" s="55">
         <v>490</v>
       </c>
-      <c r="F157" s="55">
+      <c r="F160" s="55">
         <f t="shared" si="11"/>
         <v>490</v>
       </c>
-      <c r="I157" s="3" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9" s="28" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A158" s="28" t="s">
+      <c r="I160" s="3" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" s="28" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A161" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="B158" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="C158" s="28" t="s">
-        <v>550</v>
-      </c>
-      <c r="D158" s="28">
-        <v>1</v>
-      </c>
-      <c r="E158" s="43">
+      <c r="B161" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="C161" s="28" t="s">
+        <v>549</v>
+      </c>
+      <c r="D161" s="28">
+        <v>1</v>
+      </c>
+      <c r="E161" s="43">
         <v>77</v>
       </c>
-      <c r="F158" s="43">
+      <c r="F161" s="43">
         <f t="shared" si="11"/>
         <v>77</v>
       </c>
-      <c r="I158" s="28" t="s">
+      <c r="I161" s="28" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" s="28" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A162" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="B162" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="C162" s="28" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="159" spans="1:9" s="28" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A159" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="B159" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="C159" s="28" t="s">
-        <v>552</v>
-      </c>
-      <c r="D159" s="28">
-        <v>1</v>
-      </c>
-      <c r="E159" s="43">
+      <c r="D162" s="28">
+        <v>1</v>
+      </c>
+      <c r="E162" s="43">
         <v>20</v>
       </c>
-      <c r="F159" s="43">
+      <c r="F162" s="43">
         <f t="shared" si="11"/>
         <v>20</v>
       </c>
-      <c r="I159" s="28" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9" s="28" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A160" s="28" t="s">
+      <c r="I162" s="28" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" s="28" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A163" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="B160" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="C160" s="28" t="s">
+      <c r="B163" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="C163" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="D160" s="28">
-        <v>1</v>
-      </c>
-      <c r="E160" s="43">
+      <c r="D163" s="28">
+        <v>1</v>
+      </c>
+      <c r="E163" s="43">
         <v>177</v>
       </c>
-      <c r="F160" s="43">
+      <c r="F163" s="43">
         <f t="shared" si="11"/>
         <v>177</v>
       </c>
-      <c r="I160" s="28" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A161" s="3" t="s">
+      <c r="I163" s="28" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A164" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B161" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C161" s="3" t="s">
-        <v>554</v>
-      </c>
-      <c r="D161" s="3">
+      <c r="B164" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C164" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="D164" s="3">
         <v>2</v>
       </c>
-      <c r="E161" s="55">
+      <c r="E164" s="55">
         <v>13</v>
       </c>
-      <c r="F161" s="55">
+      <c r="F164" s="55">
         <f t="shared" si="11"/>
         <v>26</v>
       </c>
-      <c r="I161" s="3" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A162" s="3" t="s">
+      <c r="I164" s="3" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A165" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B162" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C162" s="3" t="s">
-        <v>555</v>
-      </c>
-      <c r="D162" s="3">
+      <c r="B165" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C165" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="D165" s="3">
         <v>2</v>
       </c>
-      <c r="E162" s="55">
+      <c r="E165" s="55">
         <v>19</v>
       </c>
-      <c r="F162" s="55">
+      <c r="F165" s="55">
         <f t="shared" si="11"/>
         <v>38</v>
       </c>
-      <c r="I162" s="3" t="s">
+      <c r="I165" s="3" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A166" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="B166" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C166" s="3" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A163" s="3" t="s">
-        <v>558</v>
-      </c>
-      <c r="B163" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C163" s="3" t="s">
-        <v>557</v>
-      </c>
-      <c r="D163" s="3">
-        <v>1</v>
-      </c>
-      <c r="E163" s="55">
+      <c r="D166" s="3">
+        <v>1</v>
+      </c>
+      <c r="E166" s="55">
         <v>12</v>
       </c>
-      <c r="F163" s="55">
+      <c r="F166" s="55">
         <f t="shared" si="11"/>
         <v>12</v>
       </c>
-      <c r="I163" s="3" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A164" s="3" t="s">
+      <c r="I166" s="3" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A167" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B164" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C164" s="3" t="s">
+      <c r="B167" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C167" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D164" s="3">
+      <c r="D167" s="3">
         <v>2</v>
       </c>
-      <c r="E164" s="55">
+      <c r="E167" s="55">
         <v>35</v>
       </c>
-      <c r="F164" s="55">
+      <c r="F167" s="55">
         <f t="shared" si="11"/>
         <v>70</v>
       </c>
-      <c r="I164" s="3" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A165" s="3" t="s">
+      <c r="I167" s="3" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A168" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="B168" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C168" s="3" t="s">
         <v>571</v>
       </c>
-      <c r="B165" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C165" s="3" t="s">
-        <v>572</v>
-      </c>
-      <c r="D165" s="3">
+      <c r="D168" s="3">
         <v>2</v>
       </c>
-      <c r="E165" s="55">
+      <c r="E168" s="55">
         <v>9</v>
       </c>
-      <c r="F165" s="55">
+      <c r="F168" s="55">
         <f t="shared" si="11"/>
         <v>18</v>
       </c>
-      <c r="I165" s="3" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A166" s="3" t="s">
-        <v>561</v>
-      </c>
-      <c r="B166" s="3" t="s">
+      <c r="I168" s="3" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A169" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="B169" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="C169" s="3" t="s">
         <v>559</v>
       </c>
-      <c r="C166" s="3" t="s">
-        <v>560</v>
-      </c>
-      <c r="D166" s="3">
+      <c r="D169" s="3">
         <v>0</v>
       </c>
-      <c r="E166" s="55">
+      <c r="E169" s="55">
         <v>520</v>
       </c>
-      <c r="F166" s="55">
+      <c r="F169" s="55">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="I166" s="3" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C167" s="3" t="s">
+      <c r="I169" s="3" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C170" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="D167" s="3">
+      <c r="D170" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C168" s="3" t="s">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C171" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="D168" s="3">
-        <v>1</v>
-      </c>
-      <c r="I168" s="3" t="s">
+      <c r="D171" s="3">
+        <v>1</v>
+      </c>
+      <c r="I171" s="3" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C169" s="3" t="s">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C172" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="D169" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171" spans="1:10" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A171" s="7" t="s">
+      <c r="D172" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A174" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="B171" s="6" t="s">
+      <c r="B174" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="E171" s="56"/>
-      <c r="F171" s="56"/>
-    </row>
-    <row r="172" spans="1:10" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="3"/>
-      <c r="B172" s="3" t="s">
+      <c r="E174" s="56"/>
+      <c r="F174" s="56"/>
+    </row>
+    <row r="175" spans="1:10" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="3"/>
+      <c r="B175" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="C172" s="19" t="s">
+      <c r="C175" s="19" t="s">
         <v>148</v>
-      </c>
-      <c r="D172" s="3">
-        <v>4</v>
-      </c>
-      <c r="E172" s="55">
-        <v>40</v>
-      </c>
-      <c r="F172" s="55">
-        <f>E172*D172</f>
-        <v>160</v>
-      </c>
-      <c r="G172" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="H172" s="3" t="s">
-        <v>403</v>
-      </c>
-      <c r="I172" s="3" t="s">
-        <v>401</v>
-      </c>
-      <c r="J172" s="19"/>
-    </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B173" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="C173" s="3" t="s">
-        <v>528</v>
-      </c>
-      <c r="D173" s="3">
-        <v>2</v>
-      </c>
-      <c r="E173" s="55">
-        <v>515</v>
-      </c>
-      <c r="F173" s="55">
-        <f>E173*D173</f>
-        <v>1030</v>
-      </c>
-      <c r="G173" s="3" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B174" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="C174" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="D174" s="3">
-        <v>4</v>
-      </c>
-      <c r="E174" s="55">
-        <v>25</v>
-      </c>
-      <c r="F174" s="55">
-        <f>E174*D174</f>
-        <v>100</v>
-      </c>
-      <c r="G174" s="3" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B175" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="C175" s="3" t="s">
-        <v>264</v>
       </c>
       <c r="D175" s="3">
         <v>4</v>
       </c>
       <c r="E175" s="55">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="F175" s="55">
         <f>E175*D175</f>
-        <v>112</v>
+        <v>160</v>
       </c>
       <c r="G175" s="3" t="s">
-        <v>405</v>
-      </c>
+        <v>402</v>
+      </c>
+      <c r="H175" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="I175" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="J175" s="19"/>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B176" s="3" t="s">
         <v>150</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>265</v>
+        <v>528</v>
       </c>
       <c r="D176" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E176" s="55">
-        <v>121.5</v>
+        <v>515</v>
       </c>
       <c r="F176" s="55">
         <f>E176*D176</f>
-        <v>729</v>
+        <v>1030</v>
       </c>
       <c r="G176" s="3" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="179" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="E179" s="50" t="s">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B177" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C177" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="D177" s="3">
+        <v>4</v>
+      </c>
+      <c r="E177" s="55">
+        <v>25</v>
+      </c>
+      <c r="F177" s="55">
+        <f>E177*D177</f>
+        <v>100</v>
+      </c>
+      <c r="G177" s="3" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B178" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C178" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="D178" s="3">
+        <v>4</v>
+      </c>
+      <c r="E178" s="55">
+        <v>28</v>
+      </c>
+      <c r="F178" s="55">
+        <f>E178*D178</f>
+        <v>112</v>
+      </c>
+      <c r="G178" s="3" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B179" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C179" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="D179" s="3">
+        <v>6</v>
+      </c>
+      <c r="E179" s="55">
+        <v>121.5</v>
+      </c>
+      <c r="F179" s="55">
+        <f>E179*D179</f>
+        <v>729</v>
+      </c>
+      <c r="G179" s="3" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="E182" s="50" t="s">
         <v>432</v>
       </c>
-      <c r="F179" s="50">
-        <f>SUM(F3:F177)</f>
+      <c r="F182" s="50">
+        <f>SUM(F3:F180)</f>
         <v>103251.75149919999</v>
       </c>
-      <c r="G179" s="3" t="s">
+      <c r="G182" s="3" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="183" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A183" s="49" t="s">
+    <row r="186" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A186" s="49" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="184" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A184" s="4" t="s">
+    <row r="187" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A187" s="4" t="s">
         <v>410</v>
       </c>
-      <c r="B184" s="4" t="s">
+      <c r="B187" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="C184" s="4" t="s">
+      <c r="C187" s="4" t="s">
         <v>408</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A185" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="B185" s="3">
-        <v>14</v>
-      </c>
-      <c r="C185" s="3" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A186" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="B186" s="3">
-        <v>2</v>
-      </c>
-      <c r="C186" s="3" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A187" s="3" t="s">
-        <v>412</v>
-      </c>
-      <c r="B187" s="3">
-        <v>2</v>
-      </c>
-      <c r="C187" s="3" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="B188" s="3">
+        <v>14</v>
+      </c>
+      <c r="C188" s="3" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A189" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="B189" s="3">
+        <v>2</v>
+      </c>
+      <c r="C189" s="3" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A190" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="B190" s="3">
+        <v>2</v>
+      </c>
+      <c r="C190" s="3" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A191" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="B188" s="3">
+      <c r="B191" s="3">
         <v>2</v>
       </c>
-      <c r="C188" s="3" t="s">
+      <c r="C191" s="3" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="191" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A191" s="49" t="s">
+    <row r="194" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A194" s="49" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="192" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A192" s="4" t="s">
+    <row r="195" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A195" s="4" t="s">
         <v>410</v>
       </c>
-      <c r="B192" s="4" t="s">
+      <c r="B195" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="C192" s="4" t="s">
+      <c r="C195" s="4" t="s">
         <v>408</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A193" s="3" t="s">
-        <v>421</v>
-      </c>
-      <c r="B193" s="3">
-        <v>2</v>
-      </c>
-      <c r="C193" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A194" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="B194" s="3">
-        <v>5</v>
-      </c>
-      <c r="C194" s="3" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A195" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="B195" s="3">
-        <v>1</v>
-      </c>
-      <c r="C195" s="3" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" s="3" t="s">
-        <v>508</v>
+        <v>421</v>
       </c>
       <c r="B196" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A197" s="3" t="s">
-        <v>511</v>
+        <v>294</v>
       </c>
       <c r="B197" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>512</v>
+        <v>427</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" s="3" t="s">
-        <v>594</v>
+        <v>324</v>
       </c>
       <c r="B198" s="3">
         <v>1</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A201" s="49" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="B199" s="3">
+        <v>1</v>
+      </c>
+      <c r="C199" s="3" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="B200" s="3">
+        <v>1</v>
+      </c>
+      <c r="C200" s="3" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="B201" s="3">
+        <v>1</v>
+      </c>
+      <c r="C201" s="3" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A204" s="49" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="202" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A202" s="4" t="s">
+    <row r="205" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A205" s="4" t="s">
         <v>410</v>
       </c>
-      <c r="B202" s="4" t="s">
+      <c r="B205" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="C202" s="4" t="s">
+      <c r="C205" s="4" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A203" s="3" t="s">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="B203" s="3">
+      <c r="B206" s="3">
         <v>5</v>
       </c>
-      <c r="C203" s="3" t="s">
+      <c r="C206" s="3" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A204" s="3" t="s">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="B204" s="3">
+      <c r="B207" s="3">
         <v>3</v>
       </c>
-      <c r="C204" s="3" t="s">
+      <c r="C207" s="3" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A205" s="3" t="s">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208" s="3" t="s">
         <v>430</v>
       </c>
-      <c r="B205" s="3" t="s">
+      <c r="B208" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="C205" s="3" t="s">
+      <c r="C208" s="3" t="s">
         <v>431</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="13" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C109" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="C110" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="C111" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="C112" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="C117" r:id="rId5" display="MT-1 Accessory Tube Lens" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="C100" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="C113" r:id="rId7" xr:uid="{3002EF90-377A-4FAD-A836-B22D0D243A96}"/>
+    <hyperlink ref="C112" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C113" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C114" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C115" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="C120" r:id="rId5" display="MT-1 Accessory Tube Lens" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="C103" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="C116" r:id="rId7" xr:uid="{3002EF90-377A-4FAD-A836-B22D0D243A96}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId8"/>
@@ -7078,7 +7118,7 @@
     </row>
     <row r="6" spans="1:9" s="28" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B6" s="28" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="6" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -7111,7 +7151,7 @@
     </row>
     <row r="9" spans="1:9" s="28" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B9" s="28" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="28" customFormat="1" ht="13.2" x14ac:dyDescent="0.25"/>
@@ -7672,7 +7712,7 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="42" spans="1:9" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">

--- a/Benchtop-2024(default-version)/parts-list/Benchtop-partslist-latest.xlsx
+++ b/Benchtop-2024(default-version)/parts-list/Benchtop-partslist-latest.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nikita\Documents\GitHub\mesoSPIM-bt-hardware\Benchtop-2024(default-version)\parts-list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B55504B1-D03E-4F7E-9F53-ABF755B036F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{406209C3-3B8A-4E04-9253-1DAB197978EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8040" yWindow="2676" windowWidth="32484" windowHeight="21096" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12492" yWindow="4404" windowWidth="28728" windowHeight="16980" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="620">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1024" uniqueCount="621">
   <si>
     <t xml:space="preserve">Part # </t>
   </si>
@@ -1787,9 +1787,6 @@
     <t>FOV 25 mm diagonal, programmable rolling shutter, 15MP sensor</t>
   </si>
   <si>
-    <t>Includes switching module between 2 laser ports, controlled by TTL signal. The 405nm is NOT included! A four-laser version is ~35k.</t>
-  </si>
-  <si>
     <t>HW-KIT6</t>
   </si>
   <si>
@@ -1947,6 +1944,30 @@
   </si>
   <si>
     <t>The following specs are suggested for acquisition, not for storage, visualization or image processing</t>
+  </si>
+  <si>
+    <t>The cable MUST be "-EPM". Other similarly looking cables with marking "-RDIO" are NOT suitable.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Warning:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> this is a budget laser, with relatively frequent quality issues. See overview at (https://github.com/mesoSPIM/benchtop-hardware/wiki/Laser-selection). Includes switching module between 2 laser ports, controlled by TTL signal. The 405nm is NOT included! A four-laser version is ~35k.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -2722,7 +2743,7 @@
   <dimension ref="A1:J208"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2830,7 +2851,7 @@
       <c r="E7" s="56"/>
       <c r="F7" s="56"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
         <v>161</v>
       </c>
@@ -2851,7 +2872,7 @@
         <v>34</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>566</v>
+        <v>620</v>
       </c>
     </row>
     <row r="9" spans="1:9" s="6" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -2863,7 +2884,7 @@
     </row>
     <row r="10" spans="1:9" s="28" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A10" s="28" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B10" s="28" t="s">
         <v>18</v>
@@ -3001,7 +3022,7 @@
     </row>
     <row r="15" spans="1:9" s="28" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A15" s="28" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B15" s="28" t="s">
         <v>18</v>
@@ -3166,13 +3187,13 @@
     </row>
     <row r="22" spans="1:9" s="28" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A22" s="53" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B22" s="28" t="s">
         <v>18</v>
       </c>
       <c r="C22" s="28" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D22" s="28">
         <v>0</v>
@@ -3221,10 +3242,10 @@
     </row>
     <row r="25" spans="1:9" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B25" s="4" t="s">
         <v>576</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>577</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>396</v>
@@ -3242,18 +3263,18 @@
         <v>219</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="26" spans="1:9" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D26" s="4">
         <v>0</v>
@@ -3265,10 +3286,10 @@
         <v>1740</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -3295,7 +3316,7 @@
         <v>219</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="28" spans="1:9" s="6" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -3383,7 +3404,7 @@
         <v>237</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -3410,7 +3431,7 @@
         <v>237</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -3496,13 +3517,13 @@
     </row>
     <row r="36" spans="1:9" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="82" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B36" s="10" t="s">
         <v>209</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D36" s="4">
         <v>1</v>
@@ -3515,7 +3536,7 @@
         <v>10</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="37" spans="1:9" s="12" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -3527,77 +3548,77 @@
     </row>
     <row r="38" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="86" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E38" s="59"/>
       <c r="F38" s="59"/>
     </row>
     <row r="39" spans="1:9" s="84" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="83" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B39" s="83" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="E39" s="85"/>
       <c r="F39" s="85"/>
     </row>
     <row r="40" spans="1:9" s="84" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="83" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B40" s="83" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="E40" s="85"/>
       <c r="F40" s="85"/>
     </row>
     <row r="41" spans="1:9" s="84" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="83" t="s">
+        <v>611</v>
+      </c>
+      <c r="B41" s="83" t="s">
         <v>612</v>
-      </c>
-      <c r="B41" s="83" t="s">
-        <v>613</v>
       </c>
       <c r="E41" s="85"/>
       <c r="F41" s="85"/>
     </row>
     <row r="42" spans="1:9" s="84" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="83" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B42" s="83" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E42" s="85"/>
       <c r="F42" s="85"/>
     </row>
     <row r="43" spans="1:9" s="84" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="83" t="s">
+        <v>606</v>
+      </c>
+      <c r="B43" s="83" t="s">
         <v>607</v>
-      </c>
-      <c r="B43" s="83" t="s">
-        <v>608</v>
       </c>
       <c r="E43" s="85"/>
       <c r="F43" s="85"/>
     </row>
     <row r="44" spans="1:9" s="84" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="83" t="s">
+        <v>616</v>
+      </c>
+      <c r="B44" s="83" t="s">
         <v>617</v>
-      </c>
-      <c r="B44" s="83" t="s">
-        <v>618</v>
       </c>
       <c r="E44" s="85"/>
       <c r="F44" s="85"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="B45" s="3" t="s">
         <v>615</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="46" spans="1:9" s="6" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -4452,7 +4473,7 @@
         <v>207</v>
       </c>
       <c r="I75" s="4" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
@@ -4958,13 +4979,13 @@
     </row>
     <row r="93" spans="1:9" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A93" s="10" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D93" s="4">
         <v>1</v>
@@ -4983,7 +5004,7 @@
         <v>204</v>
       </c>
       <c r="I93" s="4" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
@@ -4994,7 +5015,7 @@
         <v>54</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D94" s="3">
         <v>0</v>
@@ -5013,7 +5034,7 @@
         <v>204</v>
       </c>
       <c r="I94" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="95" spans="1:9" s="6" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -5569,7 +5590,7 @@
         <v>54</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D122" s="3">
         <v>1</v>
@@ -5732,7 +5753,7 @@
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B129" s="3" t="s">
         <v>43</v>
@@ -5855,6 +5876,9 @@
       <c r="G133" s="3" t="s">
         <v>44</v>
       </c>
+      <c r="I133" s="3" t="s">
+        <v>619</v>
+      </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
@@ -5912,7 +5936,7 @@
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B136" s="3" t="s">
         <v>54</v>
@@ -6008,13 +6032,13 @@
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" s="25" t="s">
+        <v>579</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C140" s="3" t="s">
         <v>580</v>
-      </c>
-      <c r="B140" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C140" s="3" t="s">
-        <v>581</v>
       </c>
       <c r="D140" s="3">
         <v>1</v>
@@ -6030,7 +6054,7 @@
         <v>44</v>
       </c>
       <c r="I140" s="3" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="142" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -6158,7 +6182,7 @@
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B149" s="3" t="s">
         <v>54</v>
@@ -6581,13 +6605,13 @@
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="B168" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C168" s="3" t="s">
         <v>570</v>
-      </c>
-      <c r="B168" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C168" s="3" t="s">
-        <v>571</v>
       </c>
       <c r="D168" s="3">
         <v>2</v>
@@ -6600,7 +6624,7 @@
         <v>18</v>
       </c>
       <c r="I168" s="3" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.25">
@@ -6922,13 +6946,13 @@
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" s="3" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B201" s="3">
         <v>1</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="204" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -7118,7 +7142,7 @@
     </row>
     <row r="6" spans="1:9" s="28" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B6" s="28" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="6" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -7151,7 +7175,7 @@
     </row>
     <row r="9" spans="1:9" s="28" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B9" s="28" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="28" customFormat="1" ht="13.2" x14ac:dyDescent="0.25"/>
@@ -7712,7 +7736,7 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="42" spans="1:9" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
